--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/2017 Projektek/iotables/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="573" documentId="BBCC240E134AA52ED9EF656885D7EABF48622902" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{CDA7F561-66AD-4AEE-BBEE-0FDC08B07A66}"/>
+  <xr:revisionPtr revIDLastSave="576" documentId="BBCC240E134AA52ED9EF656885D7EABF48622902" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{BA6FFB74-5C68-45B3-A478-C40D27CFFDC0}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4" xr2:uid="{2909AB96-77CF-4A03-A17F-F023092B1853}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6761" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6757" uniqueCount="736">
   <si>
     <t>A</t>
   </si>
@@ -2087,18 +2087,6 @@
   </si>
   <si>
     <t>t_rows</t>
-  </si>
-  <si>
-    <t>Sum</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>prod_na</t>
@@ -8384,7 +8372,7 @@
         <v>0</v>
       </c>
       <c r="H194">
-        <f t="shared" ref="H194:H257" si="3">VALUE(_xlfn.CONCAT(D194,E194,F194,G194))</f>
+        <f t="shared" ref="H194:H205" si="3">VALUE(_xlfn.CONCAT(D194,E194,F194,G194))</f>
         <v>20010</v>
       </c>
     </row>
@@ -14256,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>VALUE(_xlfn.CONCAT(D2,E2,F2,G2))</f>
+        <f t="shared" ref="H2:H33" si="0">VALUE(_xlfn.CONCAT(D2,E2,F2,G2))</f>
         <v>10010</v>
       </c>
       <c r="I2" t="s">
@@ -14286,7 +14274,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f>VALUE(_xlfn.CONCAT(D3,E3,F3,G3))</f>
+        <f t="shared" si="0"/>
         <v>10020</v>
       </c>
       <c r="I3" t="s">
@@ -14316,7 +14304,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <f>VALUE(_xlfn.CONCAT(D4,E4,F4,G4))</f>
+        <f t="shared" si="0"/>
         <v>10090</v>
       </c>
       <c r="I4" t="s">
@@ -14346,7 +14334,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <f>VALUE(_xlfn.CONCAT(D5,E5,F5,G5))</f>
+        <f t="shared" si="0"/>
         <v>10011</v>
       </c>
       <c r="I5" t="s">
@@ -14376,7 +14364,7 @@
         <v>2</v>
       </c>
       <c r="H6">
-        <f>VALUE(_xlfn.CONCAT(D6,E6,F6,G6))</f>
+        <f t="shared" si="0"/>
         <v>10012</v>
       </c>
       <c r="I6" t="s">
@@ -14406,7 +14394,7 @@
         <v>3</v>
       </c>
       <c r="H7">
-        <f>VALUE(_xlfn.CONCAT(D7,E7,F7,G7))</f>
+        <f t="shared" si="0"/>
         <v>10013</v>
       </c>
       <c r="I7" t="s">
@@ -14436,7 +14424,7 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <f>VALUE(_xlfn.CONCAT(D8,E8,F8,G8))</f>
+        <f t="shared" si="0"/>
         <v>10021</v>
       </c>
       <c r="I8" t="s">
@@ -14466,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <f>VALUE(_xlfn.CONCAT(D9,E9,F9,G9))</f>
+        <f t="shared" si="0"/>
         <v>10031</v>
       </c>
       <c r="I9" t="s">
@@ -14496,7 +14484,7 @@
         <v>2</v>
       </c>
       <c r="H10">
-        <f>VALUE(_xlfn.CONCAT(D10,E10,F10,G10))</f>
+        <f t="shared" si="0"/>
         <v>10032</v>
       </c>
       <c r="I10" t="s">
@@ -14526,7 +14514,7 @@
         <v>3</v>
       </c>
       <c r="H11">
-        <f>VALUE(_xlfn.CONCAT(D11,E11,F11,G11))</f>
+        <f t="shared" si="0"/>
         <v>10033</v>
       </c>
       <c r="I11" t="s">
@@ -14556,7 +14544,7 @@
         <v>4</v>
       </c>
       <c r="H12">
-        <f>VALUE(_xlfn.CONCAT(D12,E12,F12,G12))</f>
+        <f t="shared" si="0"/>
         <v>10034</v>
       </c>
       <c r="I12" t="s">
@@ -14586,7 +14574,7 @@
         <v>5</v>
       </c>
       <c r="H13">
-        <f>VALUE(_xlfn.CONCAT(D13,E13,F13,G13))</f>
+        <f t="shared" si="0"/>
         <v>10035</v>
       </c>
       <c r="I13" t="s">
@@ -14616,7 +14604,7 @@
         <v>6</v>
       </c>
       <c r="H14">
-        <f>VALUE(_xlfn.CONCAT(D14,E14,F14,G14))</f>
+        <f t="shared" si="0"/>
         <v>10036</v>
       </c>
       <c r="I14" t="s">
@@ -14646,7 +14634,7 @@
         <v>7</v>
       </c>
       <c r="H15">
-        <f>VALUE(_xlfn.CONCAT(D15,E15,F15,G15))</f>
+        <f t="shared" si="0"/>
         <v>10037</v>
       </c>
       <c r="I15" t="s">
@@ -14676,7 +14664,7 @@
         <v>8</v>
       </c>
       <c r="H16">
-        <f>VALUE(_xlfn.CONCAT(D16,E16,F16,G16))</f>
+        <f t="shared" si="0"/>
         <v>10038</v>
       </c>
       <c r="I16" t="s">
@@ -14706,7 +14694,7 @@
         <v>9</v>
       </c>
       <c r="H17">
-        <f>VALUE(_xlfn.CONCAT(D17,E17,F17,G17))</f>
+        <f t="shared" si="0"/>
         <v>10039</v>
       </c>
       <c r="I17" t="s">
@@ -14736,7 +14724,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <f>VALUE(_xlfn.CONCAT(D18,E18,F18,G18))</f>
+        <f t="shared" si="0"/>
         <v>10041</v>
       </c>
       <c r="I18" t="s">
@@ -14766,7 +14754,7 @@
         <v>2</v>
       </c>
       <c r="H19">
-        <f>VALUE(_xlfn.CONCAT(D19,E19,F19,G19))</f>
+        <f t="shared" si="0"/>
         <v>10042</v>
       </c>
       <c r="I19" t="s">
@@ -14796,7 +14784,7 @@
         <v>3</v>
       </c>
       <c r="H20">
-        <f>VALUE(_xlfn.CONCAT(D20,E20,F20,G20))</f>
+        <f t="shared" si="0"/>
         <v>10043</v>
       </c>
       <c r="I20" t="s">
@@ -14826,7 +14814,7 @@
         <v>4</v>
       </c>
       <c r="H21">
-        <f>VALUE(_xlfn.CONCAT(D21,E21,F21,G21))</f>
+        <f t="shared" si="0"/>
         <v>10044</v>
       </c>
       <c r="I21" t="s">
@@ -14856,7 +14844,7 @@
         <v>5</v>
       </c>
       <c r="H22">
-        <f>VALUE(_xlfn.CONCAT(D22,E22,F22,G22))</f>
+        <f t="shared" si="0"/>
         <v>10045</v>
       </c>
       <c r="I22" t="s">
@@ -14886,7 +14874,7 @@
         <v>6</v>
       </c>
       <c r="H23">
-        <f>VALUE(_xlfn.CONCAT(D23,E23,F23,G23))</f>
+        <f t="shared" si="0"/>
         <v>10046</v>
       </c>
       <c r="I23" t="s">
@@ -14916,7 +14904,7 @@
         <v>7</v>
       </c>
       <c r="H24">
-        <f>VALUE(_xlfn.CONCAT(D24,E24,F24,G24))</f>
+        <f t="shared" si="0"/>
         <v>10047</v>
       </c>
       <c r="I24" t="s">
@@ -14946,7 +14934,7 @@
         <v>8</v>
       </c>
       <c r="H25">
-        <f>VALUE(_xlfn.CONCAT(D25,E25,F25,G25))</f>
+        <f t="shared" si="0"/>
         <v>10048</v>
       </c>
       <c r="I25" t="s">
@@ -14976,7 +14964,7 @@
         <v>9</v>
       </c>
       <c r="H26">
-        <f>VALUE(_xlfn.CONCAT(D26,E26,F26,G26))</f>
+        <f t="shared" si="0"/>
         <v>10049</v>
       </c>
       <c r="I26" t="s">
@@ -15006,7 +14994,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <f>VALUE(_xlfn.CONCAT(D27,E27,F27,G27))</f>
+        <f t="shared" si="0"/>
         <v>10051</v>
       </c>
       <c r="I27" t="s">
@@ -15036,7 +15024,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <f>VALUE(_xlfn.CONCAT(D28,E28,F28,G28))</f>
+        <f t="shared" si="0"/>
         <v>10060</v>
       </c>
       <c r="I28" t="s">
@@ -15066,7 +15054,7 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <f>VALUE(_xlfn.CONCAT(D29,E29,F29,G29))</f>
+        <f t="shared" si="0"/>
         <v>10071</v>
       </c>
       <c r="I29" t="s">
@@ -15096,7 +15084,7 @@
         <v>2</v>
       </c>
       <c r="H30">
-        <f>VALUE(_xlfn.CONCAT(D30,E30,F30,G30))</f>
+        <f t="shared" si="0"/>
         <v>10072</v>
       </c>
       <c r="I30" t="s">
@@ -15126,7 +15114,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <f>VALUE(_xlfn.CONCAT(D31,E31,F31,G31))</f>
+        <f t="shared" si="0"/>
         <v>10080</v>
       </c>
       <c r="I31" t="s">
@@ -15156,7 +15144,7 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <f>VALUE(_xlfn.CONCAT(D32,E32,F32,G32))</f>
+        <f t="shared" si="0"/>
         <v>10091</v>
       </c>
       <c r="I32" t="s">
@@ -15186,7 +15174,7 @@
         <v>2</v>
       </c>
       <c r="H33">
-        <f>VALUE(_xlfn.CONCAT(D33,E33,F33,G33))</f>
+        <f t="shared" si="0"/>
         <v>10092</v>
       </c>
       <c r="I33" t="s">
@@ -15216,7 +15204,7 @@
         <v>3</v>
       </c>
       <c r="H34">
-        <f>VALUE(_xlfn.CONCAT(D34,E34,F34,G34))</f>
+        <f t="shared" ref="H34:H65" si="1">VALUE(_xlfn.CONCAT(D34,E34,F34,G34))</f>
         <v>10093</v>
       </c>
       <c r="I34" t="s">
@@ -15246,7 +15234,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <f>VALUE(_xlfn.CONCAT(D35,E35,F35,G35))</f>
+        <f t="shared" si="1"/>
         <v>10010</v>
       </c>
       <c r="I35" t="s">
@@ -15276,7 +15264,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <f>VALUE(_xlfn.CONCAT(D36,E36,F36,G36))</f>
+        <f t="shared" si="1"/>
         <v>10020</v>
       </c>
       <c r="I36" t="s">
@@ -15306,7 +15294,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <f>VALUE(_xlfn.CONCAT(D37,E37,F37,G37))</f>
+        <f t="shared" si="1"/>
         <v>10090</v>
       </c>
       <c r="I37" t="s">
@@ -15336,7 +15324,7 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <f>VALUE(_xlfn.CONCAT(D38,E38,F38,G38))</f>
+        <f t="shared" si="1"/>
         <v>10011</v>
       </c>
       <c r="I38" t="s">
@@ -15366,7 +15354,7 @@
         <v>2</v>
       </c>
       <c r="H39">
-        <f>VALUE(_xlfn.CONCAT(D39,E39,F39,G39))</f>
+        <f t="shared" si="1"/>
         <v>10012</v>
       </c>
       <c r="I39" t="s">
@@ -15396,7 +15384,7 @@
         <v>3</v>
       </c>
       <c r="H40">
-        <f>VALUE(_xlfn.CONCAT(D40,E40,F40,G40))</f>
+        <f t="shared" si="1"/>
         <v>10013</v>
       </c>
       <c r="I40" t="s">
@@ -15426,7 +15414,7 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <f>VALUE(_xlfn.CONCAT(D41,E41,F41,G41))</f>
+        <f t="shared" si="1"/>
         <v>10021</v>
       </c>
       <c r="I41" t="s">
@@ -15456,7 +15444,7 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <f>VALUE(_xlfn.CONCAT(D42,E42,F42,G42))</f>
+        <f t="shared" si="1"/>
         <v>10031</v>
       </c>
       <c r="I42" t="s">
@@ -15486,7 +15474,7 @@
         <v>2</v>
       </c>
       <c r="H43">
-        <f>VALUE(_xlfn.CONCAT(D43,E43,F43,G43))</f>
+        <f t="shared" si="1"/>
         <v>10032</v>
       </c>
       <c r="I43" t="s">
@@ -15516,7 +15504,7 @@
         <v>3</v>
       </c>
       <c r="H44">
-        <f>VALUE(_xlfn.CONCAT(D44,E44,F44,G44))</f>
+        <f t="shared" si="1"/>
         <v>10033</v>
       </c>
       <c r="I44" t="s">
@@ -15546,7 +15534,7 @@
         <v>4</v>
       </c>
       <c r="H45">
-        <f>VALUE(_xlfn.CONCAT(D45,E45,F45,G45))</f>
+        <f t="shared" si="1"/>
         <v>10034</v>
       </c>
       <c r="I45" t="s">
@@ -15576,7 +15564,7 @@
         <v>5</v>
       </c>
       <c r="H46">
-        <f>VALUE(_xlfn.CONCAT(D46,E46,F46,G46))</f>
+        <f t="shared" si="1"/>
         <v>10035</v>
       </c>
       <c r="I46" t="s">
@@ -15606,7 +15594,7 @@
         <v>6</v>
       </c>
       <c r="H47">
-        <f>VALUE(_xlfn.CONCAT(D47,E47,F47,G47))</f>
+        <f t="shared" si="1"/>
         <v>10036</v>
       </c>
       <c r="I47" t="s">
@@ -15636,7 +15624,7 @@
         <v>7</v>
       </c>
       <c r="H48">
-        <f>VALUE(_xlfn.CONCAT(D48,E48,F48,G48))</f>
+        <f t="shared" si="1"/>
         <v>10037</v>
       </c>
       <c r="I48" t="s">
@@ -15666,7 +15654,7 @@
         <v>8</v>
       </c>
       <c r="H49">
-        <f>VALUE(_xlfn.CONCAT(D49,E49,F49,G49))</f>
+        <f t="shared" si="1"/>
         <v>10038</v>
       </c>
       <c r="I49" t="s">
@@ -15696,7 +15684,7 @@
         <v>9</v>
       </c>
       <c r="H50">
-        <f>VALUE(_xlfn.CONCAT(D50,E50,F50,G50))</f>
+        <f t="shared" si="1"/>
         <v>10039</v>
       </c>
       <c r="I50" t="s">
@@ -15726,7 +15714,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <f>VALUE(_xlfn.CONCAT(D51,E51,F51,G51))</f>
+        <f t="shared" si="1"/>
         <v>10041</v>
       </c>
       <c r="I51" t="s">
@@ -15756,7 +15744,7 @@
         <v>2</v>
       </c>
       <c r="H52">
-        <f>VALUE(_xlfn.CONCAT(D52,E52,F52,G52))</f>
+        <f t="shared" si="1"/>
         <v>10042</v>
       </c>
       <c r="I52" t="s">
@@ -15786,7 +15774,7 @@
         <v>3</v>
       </c>
       <c r="H53">
-        <f>VALUE(_xlfn.CONCAT(D53,E53,F53,G53))</f>
+        <f t="shared" si="1"/>
         <v>10043</v>
       </c>
       <c r="I53" t="s">
@@ -15816,7 +15804,7 @@
         <v>4</v>
       </c>
       <c r="H54">
-        <f>VALUE(_xlfn.CONCAT(D54,E54,F54,G54))</f>
+        <f t="shared" si="1"/>
         <v>10044</v>
       </c>
       <c r="I54" t="s">
@@ -15846,7 +15834,7 @@
         <v>5</v>
       </c>
       <c r="H55">
-        <f>VALUE(_xlfn.CONCAT(D55,E55,F55,G55))</f>
+        <f t="shared" si="1"/>
         <v>10045</v>
       </c>
       <c r="I55" t="s">
@@ -15876,7 +15864,7 @@
         <v>6</v>
       </c>
       <c r="H56">
-        <f>VALUE(_xlfn.CONCAT(D56,E56,F56,G56))</f>
+        <f t="shared" si="1"/>
         <v>10046</v>
       </c>
       <c r="I56" t="s">
@@ -15906,7 +15894,7 @@
         <v>7</v>
       </c>
       <c r="H57">
-        <f>VALUE(_xlfn.CONCAT(D57,E57,F57,G57))</f>
+        <f t="shared" si="1"/>
         <v>10047</v>
       </c>
       <c r="I57" t="s">
@@ -15936,7 +15924,7 @@
         <v>8</v>
       </c>
       <c r="H58">
-        <f>VALUE(_xlfn.CONCAT(D58,E58,F58,G58))</f>
+        <f t="shared" si="1"/>
         <v>10048</v>
       </c>
       <c r="I58" t="s">
@@ -15966,7 +15954,7 @@
         <v>9</v>
       </c>
       <c r="H59">
-        <f>VALUE(_xlfn.CONCAT(D59,E59,F59,G59))</f>
+        <f t="shared" si="1"/>
         <v>10049</v>
       </c>
       <c r="I59" t="s">
@@ -15996,7 +15984,7 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <f>VALUE(_xlfn.CONCAT(D60,E60,F60,G60))</f>
+        <f t="shared" si="1"/>
         <v>10051</v>
       </c>
       <c r="I60" t="s">
@@ -16026,7 +16014,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <f>VALUE(_xlfn.CONCAT(D61,E61,F61,G61))</f>
+        <f t="shared" si="1"/>
         <v>10060</v>
       </c>
       <c r="I61" t="s">
@@ -16056,7 +16044,7 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <f>VALUE(_xlfn.CONCAT(D62,E62,F62,G62))</f>
+        <f t="shared" si="1"/>
         <v>10071</v>
       </c>
       <c r="I62" t="s">
@@ -16086,7 +16074,7 @@
         <v>2</v>
       </c>
       <c r="H63">
-        <f>VALUE(_xlfn.CONCAT(D63,E63,F63,G63))</f>
+        <f t="shared" si="1"/>
         <v>10072</v>
       </c>
       <c r="I63" t="s">
@@ -16116,7 +16104,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <f>VALUE(_xlfn.CONCAT(D64,E64,F64,G64))</f>
+        <f t="shared" si="1"/>
         <v>10080</v>
       </c>
       <c r="I64" t="s">
@@ -16146,7 +16134,7 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <f>VALUE(_xlfn.CONCAT(D65,E65,F65,G65))</f>
+        <f t="shared" si="1"/>
         <v>10091</v>
       </c>
       <c r="I65" t="s">
@@ -16176,7 +16164,7 @@
         <v>2</v>
       </c>
       <c r="H66">
-        <f>VALUE(_xlfn.CONCAT(D66,E66,F66,G66))</f>
+        <f t="shared" ref="H66:H97" si="2">VALUE(_xlfn.CONCAT(D66,E66,F66,G66))</f>
         <v>10092</v>
       </c>
       <c r="I66" t="s">
@@ -16206,7 +16194,7 @@
         <v>3</v>
       </c>
       <c r="H67">
-        <f>VALUE(_xlfn.CONCAT(D67,E67,F67,G67))</f>
+        <f t="shared" si="2"/>
         <v>10093</v>
       </c>
       <c r="I67" t="s">
@@ -16236,7 +16224,7 @@
         <v>0</v>
       </c>
       <c r="H68">
-        <f>VALUE(_xlfn.CONCAT(D68,E68,F68,G68))</f>
+        <f t="shared" si="2"/>
         <v>10120</v>
       </c>
       <c r="I68" t="s">
@@ -16266,7 +16254,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <f>VALUE(_xlfn.CONCAT(D69,E69,F69,G69))</f>
+        <f t="shared" si="2"/>
         <v>10130</v>
       </c>
       <c r="I69" t="s">
@@ -16296,7 +16284,7 @@
         <v>0</v>
       </c>
       <c r="H70">
-        <f>VALUE(_xlfn.CONCAT(D70,E70,F70,G70))</f>
+        <f t="shared" si="2"/>
         <v>10140</v>
       </c>
       <c r="I70" t="s">
@@ -16326,7 +16314,7 @@
         <v>0</v>
       </c>
       <c r="H71">
-        <f>VALUE(_xlfn.CONCAT(D71,E71,F71,G71))</f>
+        <f t="shared" si="2"/>
         <v>10150</v>
       </c>
       <c r="I71" t="s">
@@ -16356,7 +16344,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <f>VALUE(_xlfn.CONCAT(D72,E72,F72,G72))</f>
+        <f t="shared" si="2"/>
         <v>10170</v>
       </c>
       <c r="I72" t="s">
@@ -16386,7 +16374,7 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <f>VALUE(_xlfn.CONCAT(D73,E73,F73,G73))</f>
+        <f t="shared" si="2"/>
         <v>10190</v>
       </c>
       <c r="I73" t="s">
@@ -16416,7 +16404,7 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <f>VALUE(_xlfn.CONCAT(D74,E74,F74,G74))</f>
+        <f t="shared" si="2"/>
         <v>10101</v>
       </c>
       <c r="I74" t="s">
@@ -16446,7 +16434,7 @@
         <v>2</v>
       </c>
       <c r="H75">
-        <f>VALUE(_xlfn.CONCAT(D75,E75,F75,G75))</f>
+        <f t="shared" si="2"/>
         <v>10102</v>
       </c>
       <c r="I75" t="s">
@@ -16476,7 +16464,7 @@
         <v>3</v>
       </c>
       <c r="H76">
-        <f>VALUE(_xlfn.CONCAT(D76,E76,F76,G76))</f>
+        <f t="shared" si="2"/>
         <v>10103</v>
       </c>
       <c r="I76" t="s">
@@ -16506,7 +16494,7 @@
         <v>4</v>
       </c>
       <c r="H77">
-        <f>VALUE(_xlfn.CONCAT(D77,E77,F77,G77))</f>
+        <f t="shared" si="2"/>
         <v>10104</v>
       </c>
       <c r="I77" t="s">
@@ -16536,7 +16524,7 @@
         <v>5</v>
       </c>
       <c r="H78">
-        <f>VALUE(_xlfn.CONCAT(D78,E78,F78,G78))</f>
+        <f t="shared" si="2"/>
         <v>10105</v>
       </c>
       <c r="I78" t="s">
@@ -16566,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="H79">
-        <f>VALUE(_xlfn.CONCAT(D79,E79,F79,G79))</f>
+        <f t="shared" si="2"/>
         <v>10110</v>
       </c>
       <c r="I79" t="s">
@@ -16596,7 +16584,7 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <f>VALUE(_xlfn.CONCAT(D80,E80,F80,G80))</f>
+        <f t="shared" si="2"/>
         <v>10121</v>
       </c>
       <c r="I80" t="s">
@@ -16626,7 +16614,7 @@
         <v>2</v>
       </c>
       <c r="H81">
-        <f>VALUE(_xlfn.CONCAT(D81,E81,F81,G81))</f>
+        <f t="shared" si="2"/>
         <v>10122</v>
       </c>
       <c r="I81" t="s">
@@ -16656,7 +16644,7 @@
         <v>3</v>
       </c>
       <c r="H82">
-        <f>VALUE(_xlfn.CONCAT(D82,E82,F82,G82))</f>
+        <f t="shared" si="2"/>
         <v>10123</v>
       </c>
       <c r="I82" t="s">
@@ -16686,7 +16674,7 @@
         <v>4</v>
       </c>
       <c r="H83">
-        <f>VALUE(_xlfn.CONCAT(D83,E83,F83,G83))</f>
+        <f t="shared" si="2"/>
         <v>10124</v>
       </c>
       <c r="I83" t="s">
@@ -16716,7 +16704,7 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <f>VALUE(_xlfn.CONCAT(D84,E84,F84,G84))</f>
+        <f t="shared" si="2"/>
         <v>10131</v>
       </c>
       <c r="I84" t="s">
@@ -16746,7 +16734,7 @@
         <v>2</v>
       </c>
       <c r="H85">
-        <f>VALUE(_xlfn.CONCAT(D85,E85,F85,G85))</f>
+        <f t="shared" si="2"/>
         <v>10132</v>
       </c>
       <c r="I85" t="s">
@@ -16776,7 +16764,7 @@
         <v>3</v>
       </c>
       <c r="H86">
-        <f>VALUE(_xlfn.CONCAT(D86,E86,F86,G86))</f>
+        <f t="shared" si="2"/>
         <v>10133</v>
       </c>
       <c r="I86" t="s">
@@ -16806,7 +16794,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <f>VALUE(_xlfn.CONCAT(D87,E87,F87,G87))</f>
+        <f t="shared" si="2"/>
         <v>10140</v>
       </c>
       <c r="I87" t="s">
@@ -16896,7 +16884,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <f>VALUE(_xlfn.CONCAT(D90,E90,F90,G90))</f>
+        <f t="shared" ref="H90:H122" si="3">VALUE(_xlfn.CONCAT(D90,E90,F90,G90))</f>
         <v>10151</v>
       </c>
       <c r="I90" t="s">
@@ -16926,7 +16914,7 @@
         <v>2</v>
       </c>
       <c r="H91">
-        <f>VALUE(_xlfn.CONCAT(D91,E91,F91,G91))</f>
+        <f t="shared" si="3"/>
         <v>10152</v>
       </c>
       <c r="I91" t="s">
@@ -16956,7 +16944,7 @@
         <v>3</v>
       </c>
       <c r="H92">
-        <f>VALUE(_xlfn.CONCAT(D92,E92,F92,G92))</f>
+        <f t="shared" si="3"/>
         <v>10153</v>
       </c>
       <c r="I92" t="s">
@@ -16986,7 +16974,7 @@
         <v>4</v>
       </c>
       <c r="H93">
-        <f>VALUE(_xlfn.CONCAT(D93,E93,F93,G93))</f>
+        <f t="shared" si="3"/>
         <v>10154</v>
       </c>
       <c r="I93" t="s">
@@ -17016,7 +17004,7 @@
         <v>5</v>
       </c>
       <c r="H94">
-        <f>VALUE(_xlfn.CONCAT(D94,E94,F94,G94))</f>
+        <f t="shared" si="3"/>
         <v>10155</v>
       </c>
       <c r="I94" t="s">
@@ -17046,7 +17034,7 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <f>VALUE(_xlfn.CONCAT(D95,E95,F95,G95))</f>
+        <f t="shared" si="3"/>
         <v>10161</v>
       </c>
       <c r="I95" t="s">
@@ -17076,7 +17064,7 @@
         <v>2</v>
       </c>
       <c r="H96">
-        <f>VALUE(_xlfn.CONCAT(D96,E96,F96,G96))</f>
+        <f t="shared" si="3"/>
         <v>10162</v>
       </c>
       <c r="I96" t="s">
@@ -17106,7 +17094,7 @@
         <v>3</v>
       </c>
       <c r="H97">
-        <f>VALUE(_xlfn.CONCAT(D97,E97,F97,G97))</f>
+        <f t="shared" si="3"/>
         <v>10163</v>
       </c>
       <c r="I97" t="s">
@@ -17136,7 +17124,7 @@
         <v>4</v>
       </c>
       <c r="H98">
-        <f>VALUE(_xlfn.CONCAT(D98,E98,F98,G98))</f>
+        <f t="shared" si="3"/>
         <v>10164</v>
       </c>
       <c r="I98" t="s">
@@ -17166,7 +17154,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <f>VALUE(_xlfn.CONCAT(D99,E99,F99,G99))</f>
+        <f t="shared" si="3"/>
         <v>10170</v>
       </c>
       <c r="I99" t="s">
@@ -17196,7 +17184,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <f>VALUE(_xlfn.CONCAT(D100,E100,F100,G100))</f>
+        <f t="shared" si="3"/>
         <v>10180</v>
       </c>
       <c r="I100" t="s">
@@ -17226,7 +17214,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <f>VALUE(_xlfn.CONCAT(D101,E101,F101,G101))</f>
+        <f t="shared" si="3"/>
         <v>10190</v>
       </c>
       <c r="I101" t="s">
@@ -17256,7 +17244,7 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <f>VALUE(_xlfn.CONCAT(D102,E102,F102,G102))</f>
+        <f t="shared" si="3"/>
         <v>10191</v>
       </c>
       <c r="I102" t="s">
@@ -17286,7 +17274,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <f>VALUE(_xlfn.CONCAT(D103,E103,F103,G103))</f>
+        <f t="shared" si="3"/>
         <v>10120</v>
       </c>
       <c r="I103" t="s">
@@ -17316,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <f>VALUE(_xlfn.CONCAT(D104,E104,F104,G104))</f>
+        <f t="shared" si="3"/>
         <v>10130</v>
       </c>
       <c r="I104" t="s">
@@ -17346,7 +17334,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <f>VALUE(_xlfn.CONCAT(D105,E105,F105,G105))</f>
+        <f t="shared" si="3"/>
         <v>10140</v>
       </c>
       <c r="I105" t="s">
@@ -17376,7 +17364,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <f>VALUE(_xlfn.CONCAT(D106,E106,F106,G106))</f>
+        <f t="shared" si="3"/>
         <v>10150</v>
       </c>
       <c r="I106" t="s">
@@ -17406,7 +17394,7 @@
         <v>0</v>
       </c>
       <c r="H107">
-        <f>VALUE(_xlfn.CONCAT(D107,E107,F107,G107))</f>
+        <f t="shared" si="3"/>
         <v>10170</v>
       </c>
       <c r="I107" t="s">
@@ -17436,7 +17424,7 @@
         <v>0</v>
       </c>
       <c r="H108">
-        <f>VALUE(_xlfn.CONCAT(D108,E108,F108,G108))</f>
+        <f t="shared" si="3"/>
         <v>10190</v>
       </c>
       <c r="I108" t="s">
@@ -17466,7 +17454,7 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <f>VALUE(_xlfn.CONCAT(D109,E109,F109,G109))</f>
+        <f t="shared" si="3"/>
         <v>10101</v>
       </c>
       <c r="I109" t="s">
@@ -17496,7 +17484,7 @@
         <v>2</v>
       </c>
       <c r="H110">
-        <f>VALUE(_xlfn.CONCAT(D110,E110,F110,G110))</f>
+        <f t="shared" si="3"/>
         <v>10102</v>
       </c>
       <c r="I110" t="s">
@@ -17526,7 +17514,7 @@
         <v>3</v>
       </c>
       <c r="H111">
-        <f>VALUE(_xlfn.CONCAT(D111,E111,F111,G111))</f>
+        <f t="shared" si="3"/>
         <v>10103</v>
       </c>
       <c r="I111" t="s">
@@ -17556,7 +17544,7 @@
         <v>4</v>
       </c>
       <c r="H112">
-        <f>VALUE(_xlfn.CONCAT(D112,E112,F112,G112))</f>
+        <f t="shared" si="3"/>
         <v>10104</v>
       </c>
       <c r="I112" t="s">
@@ -17586,7 +17574,7 @@
         <v>5</v>
       </c>
       <c r="H113">
-        <f>VALUE(_xlfn.CONCAT(D113,E113,F113,G113))</f>
+        <f t="shared" si="3"/>
         <v>10105</v>
       </c>
       <c r="I113" t="s">
@@ -17616,7 +17604,7 @@
         <v>0</v>
       </c>
       <c r="H114">
-        <f>VALUE(_xlfn.CONCAT(D114,E114,F114,G114))</f>
+        <f t="shared" si="3"/>
         <v>10110</v>
       </c>
       <c r="I114" t="s">
@@ -17646,7 +17634,7 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <f>VALUE(_xlfn.CONCAT(D115,E115,F115,G115))</f>
+        <f t="shared" si="3"/>
         <v>10121</v>
       </c>
       <c r="I115" t="s">
@@ -17676,7 +17664,7 @@
         <v>2</v>
       </c>
       <c r="H116">
-        <f>VALUE(_xlfn.CONCAT(D116,E116,F116,G116))</f>
+        <f t="shared" si="3"/>
         <v>10122</v>
       </c>
       <c r="I116" t="s">
@@ -17706,7 +17694,7 @@
         <v>3</v>
       </c>
       <c r="H117">
-        <f>VALUE(_xlfn.CONCAT(D117,E117,F117,G117))</f>
+        <f t="shared" si="3"/>
         <v>10123</v>
       </c>
       <c r="I117" t="s">
@@ -17736,7 +17724,7 @@
         <v>4</v>
       </c>
       <c r="H118">
-        <f>VALUE(_xlfn.CONCAT(D118,E118,F118,G118))</f>
+        <f t="shared" si="3"/>
         <v>10124</v>
       </c>
       <c r="I118" t="s">
@@ -17766,7 +17754,7 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <f>VALUE(_xlfn.CONCAT(D119,E119,F119,G119))</f>
+        <f t="shared" si="3"/>
         <v>10131</v>
       </c>
       <c r="I119" t="s">
@@ -17796,7 +17784,7 @@
         <v>2</v>
       </c>
       <c r="H120">
-        <f>VALUE(_xlfn.CONCAT(D120,E120,F120,G120))</f>
+        <f t="shared" si="3"/>
         <v>10132</v>
       </c>
       <c r="I120" t="s">
@@ -17826,7 +17814,7 @@
         <v>3</v>
       </c>
       <c r="H121">
-        <f>VALUE(_xlfn.CONCAT(D121,E121,F121,G121))</f>
+        <f t="shared" si="3"/>
         <v>10133</v>
       </c>
       <c r="I121" t="s">
@@ -17856,7 +17844,7 @@
         <v>0</v>
       </c>
       <c r="H122">
-        <f>VALUE(_xlfn.CONCAT(D122,E122,F122,G122))</f>
+        <f t="shared" si="3"/>
         <v>10140</v>
       </c>
       <c r="I122" t="s">
@@ -17946,7 +17934,7 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <f>VALUE(_xlfn.CONCAT(D125,E125,F125,G125))</f>
+        <f t="shared" ref="H125:H156" si="4">VALUE(_xlfn.CONCAT(D125,E125,F125,G125))</f>
         <v>10151</v>
       </c>
       <c r="I125" t="s">
@@ -17976,7 +17964,7 @@
         <v>2</v>
       </c>
       <c r="H126">
-        <f>VALUE(_xlfn.CONCAT(D126,E126,F126,G126))</f>
+        <f t="shared" si="4"/>
         <v>10152</v>
       </c>
       <c r="I126" t="s">
@@ -18006,7 +17994,7 @@
         <v>3</v>
       </c>
       <c r="H127">
-        <f>VALUE(_xlfn.CONCAT(D127,E127,F127,G127))</f>
+        <f t="shared" si="4"/>
         <v>10153</v>
       </c>
       <c r="I127" t="s">
@@ -18036,7 +18024,7 @@
         <v>4</v>
       </c>
       <c r="H128">
-        <f>VALUE(_xlfn.CONCAT(D128,E128,F128,G128))</f>
+        <f t="shared" si="4"/>
         <v>10154</v>
       </c>
       <c r="I128" t="s">
@@ -18066,7 +18054,7 @@
         <v>5</v>
       </c>
       <c r="H129">
-        <f>VALUE(_xlfn.CONCAT(D129,E129,F129,G129))</f>
+        <f t="shared" si="4"/>
         <v>10155</v>
       </c>
       <c r="I129" t="s">
@@ -18096,7 +18084,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <f>VALUE(_xlfn.CONCAT(D130,E130,F130,G130))</f>
+        <f t="shared" si="4"/>
         <v>10161</v>
       </c>
       <c r="I130" t="s">
@@ -18126,7 +18114,7 @@
         <v>2</v>
       </c>
       <c r="H131">
-        <f>VALUE(_xlfn.CONCAT(D131,E131,F131,G131))</f>
+        <f t="shared" si="4"/>
         <v>10162</v>
       </c>
       <c r="I131" t="s">
@@ -18156,7 +18144,7 @@
         <v>3</v>
       </c>
       <c r="H132">
-        <f>VALUE(_xlfn.CONCAT(D132,E132,F132,G132))</f>
+        <f t="shared" si="4"/>
         <v>10163</v>
       </c>
       <c r="I132" t="s">
@@ -18186,7 +18174,7 @@
         <v>4</v>
       </c>
       <c r="H133">
-        <f>VALUE(_xlfn.CONCAT(D133,E133,F133,G133))</f>
+        <f t="shared" si="4"/>
         <v>10164</v>
       </c>
       <c r="I133" t="s">
@@ -18216,7 +18204,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <f>VALUE(_xlfn.CONCAT(D134,E134,F134,G134))</f>
+        <f t="shared" si="4"/>
         <v>10170</v>
       </c>
       <c r="I134" t="s">
@@ -18246,7 +18234,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <f>VALUE(_xlfn.CONCAT(D135,E135,F135,G135))</f>
+        <f t="shared" si="4"/>
         <v>10180</v>
       </c>
       <c r="I135" t="s">
@@ -18276,7 +18264,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <f>VALUE(_xlfn.CONCAT(D136,E136,F136,G136))</f>
+        <f t="shared" si="4"/>
         <v>10190</v>
       </c>
       <c r="I136" t="s">
@@ -18306,7 +18294,7 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <f>VALUE(_xlfn.CONCAT(D137,E137,F137,G137))</f>
+        <f t="shared" si="4"/>
         <v>10191</v>
       </c>
       <c r="I137" t="s">
@@ -18336,7 +18324,7 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <f>VALUE(_xlfn.CONCAT(D138,E138,F138,G138))</f>
+        <f t="shared" si="4"/>
         <v>10201</v>
       </c>
       <c r="I138" t="s">
@@ -18366,7 +18354,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <f>VALUE(_xlfn.CONCAT(D139,E139,F139,G139))</f>
+        <f t="shared" si="4"/>
         <v>10211</v>
       </c>
       <c r="I139" t="s">
@@ -18396,7 +18384,7 @@
         <v>2</v>
       </c>
       <c r="H140">
-        <f>VALUE(_xlfn.CONCAT(D140,E140,F140,G140))</f>
+        <f t="shared" si="4"/>
         <v>10212</v>
       </c>
       <c r="I140" t="s">
@@ -18426,7 +18414,7 @@
         <v>3</v>
       </c>
       <c r="H141">
-        <f>VALUE(_xlfn.CONCAT(D141,E141,F141,G141))</f>
+        <f t="shared" si="4"/>
         <v>10213</v>
       </c>
       <c r="I141" t="s">
@@ -18456,7 +18444,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <f>VALUE(_xlfn.CONCAT(D142,E142,F142,G142))</f>
+        <f t="shared" si="4"/>
         <v>10220</v>
       </c>
       <c r="I142" t="s">
@@ -18486,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <f>VALUE(_xlfn.CONCAT(D143,E143,F143,G143))</f>
+        <f t="shared" si="4"/>
         <v>10230</v>
       </c>
       <c r="I143" t="s">
@@ -18516,7 +18504,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <f>VALUE(_xlfn.CONCAT(D144,E144,F144,G144))</f>
+        <f t="shared" si="4"/>
         <v>10240</v>
       </c>
       <c r="I144" t="s">
@@ -18546,7 +18534,7 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <f>VALUE(_xlfn.CONCAT(D145,E145,F145,G145))</f>
+        <f t="shared" si="4"/>
         <v>10201</v>
       </c>
       <c r="I145" t="s">
@@ -18576,7 +18564,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <f>VALUE(_xlfn.CONCAT(D146,E146,F146,G146))</f>
+        <f t="shared" si="4"/>
         <v>10211</v>
       </c>
       <c r="I146" t="s">
@@ -18606,7 +18594,7 @@
         <v>2</v>
       </c>
       <c r="H147">
-        <f>VALUE(_xlfn.CONCAT(D147,E147,F147,G147))</f>
+        <f t="shared" si="4"/>
         <v>10212</v>
       </c>
       <c r="I147" t="s">
@@ -18636,7 +18624,7 @@
         <v>3</v>
       </c>
       <c r="H148">
-        <f>VALUE(_xlfn.CONCAT(D148,E148,F148,G148))</f>
+        <f t="shared" si="4"/>
         <v>10213</v>
       </c>
       <c r="I148" t="s">
@@ -18666,7 +18654,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <f>VALUE(_xlfn.CONCAT(D149,E149,F149,G149))</f>
+        <f t="shared" si="4"/>
         <v>10220</v>
       </c>
       <c r="I149" t="s">
@@ -18696,7 +18684,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <f>VALUE(_xlfn.CONCAT(D150,E150,F150,G150))</f>
+        <f t="shared" si="4"/>
         <v>10230</v>
       </c>
       <c r="I150" t="s">
@@ -18726,7 +18714,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <f>VALUE(_xlfn.CONCAT(D151,E151,F151,G151))</f>
+        <f t="shared" si="4"/>
         <v>10240</v>
       </c>
       <c r="I151" t="s">
@@ -18756,7 +18744,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <f>VALUE(_xlfn.CONCAT(D152,E152,F152,G152))</f>
+        <f t="shared" si="4"/>
         <v>10300</v>
       </c>
       <c r="I152" t="s">
@@ -18786,7 +18774,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <f>VALUE(_xlfn.CONCAT(D153,E153,F153,G153))</f>
+        <f t="shared" si="4"/>
         <v>10300</v>
       </c>
       <c r="I153" t="s">
@@ -18816,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <f>VALUE(_xlfn.CONCAT(D154,E154,F154,G154))</f>
+        <f t="shared" si="4"/>
         <v>20010</v>
       </c>
       <c r="I154" t="s">
@@ -18849,7 +18837,7 @@
         <v>2</v>
       </c>
       <c r="H155">
-        <f>VALUE(_xlfn.CONCAT(D155,E155,F155,G155))</f>
+        <f t="shared" si="4"/>
         <v>20112</v>
       </c>
       <c r="I155" t="s">
@@ -18879,7 +18867,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <f>VALUE(_xlfn.CONCAT(D156,E156,F156,G156))</f>
+        <f t="shared" si="4"/>
         <v>20210</v>
       </c>
     </row>
@@ -18909,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <f>VALUE(_xlfn.CONCAT(D157,E157,F157,G157))</f>
+        <f t="shared" ref="H157:H188" si="5">VALUE(_xlfn.CONCAT(D157,E157,F157,G157))</f>
         <v>20510</v>
       </c>
       <c r="I157" t="s">
@@ -18939,7 +18927,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <f>VALUE(_xlfn.CONCAT(D158,E158,F158,G158))</f>
+        <f t="shared" si="5"/>
         <v>20710</v>
       </c>
       <c r="I158" t="s">
@@ -18969,7 +18957,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <f>VALUE(_xlfn.CONCAT(D159,E159,F159,G159))</f>
+        <f t="shared" si="5"/>
         <v>20720</v>
       </c>
       <c r="I159" t="s">
@@ -18999,7 +18987,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <f>VALUE(_xlfn.CONCAT(D160,E160,F160,G160))</f>
+        <f t="shared" si="5"/>
         <v>20730</v>
       </c>
       <c r="I160" t="s">
@@ -19029,7 +19017,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <f>VALUE(_xlfn.CONCAT(D161,E161,F161,G161))</f>
+        <f t="shared" si="5"/>
         <v>20740</v>
       </c>
       <c r="I161" t="s">
@@ -19059,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <f>VALUE(_xlfn.CONCAT(D162,E162,F162,G162))</f>
+        <f t="shared" si="5"/>
         <v>20790</v>
       </c>
     </row>
@@ -19086,7 +19074,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <f>VALUE(_xlfn.CONCAT(D163,E163,F163,G163))</f>
+        <f t="shared" si="5"/>
         <v>20811</v>
       </c>
     </row>
@@ -19113,7 +19101,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <f>VALUE(_xlfn.CONCAT(D164,E164,F164,G164))</f>
+        <f t="shared" si="5"/>
         <v>20891</v>
       </c>
     </row>
@@ -19140,7 +19128,7 @@
         <v>2</v>
       </c>
       <c r="H165">
-        <f>VALUE(_xlfn.CONCAT(D165,E165,F165,G165))</f>
+        <f t="shared" si="5"/>
         <v>20892</v>
       </c>
     </row>
@@ -19171,7 +19159,7 @@
         <v>1</v>
       </c>
       <c r="H166">
-        <f>VALUE(_xlfn.CONCAT(D166,E166,F166,G166))</f>
+        <f t="shared" si="5"/>
         <v>20991</v>
       </c>
     </row>
@@ -19202,7 +19190,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <f>VALUE(_xlfn.CONCAT(D167,E167,F167,G167))</f>
+        <f t="shared" si="5"/>
         <v>30590</v>
       </c>
     </row>
@@ -19229,7 +19217,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <f>VALUE(_xlfn.CONCAT(D168,E168,F168,G168))</f>
+        <f t="shared" si="5"/>
         <v>30510</v>
       </c>
     </row>
@@ -19256,7 +19244,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <f>VALUE(_xlfn.CONCAT(D169,E169,F169,G169))</f>
+        <f t="shared" si="5"/>
         <v>30530</v>
       </c>
     </row>
@@ -19283,7 +19271,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <f>VALUE(_xlfn.CONCAT(D170,E170,F170,G170))</f>
+        <f t="shared" si="5"/>
         <v>30520</v>
       </c>
     </row>
@@ -19310,7 +19298,7 @@
         <v>5</v>
       </c>
       <c r="H171">
-        <f>VALUE(_xlfn.CONCAT(D171,E171,F171,G171))</f>
+        <f t="shared" si="5"/>
         <v>30525</v>
       </c>
     </row>
@@ -19337,7 +19325,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <f>VALUE(_xlfn.CONCAT(D172,E172,F172,G172))</f>
+        <f t="shared" si="5"/>
         <v>30590</v>
       </c>
     </row>
@@ -19364,7 +19352,7 @@
         <v>9</v>
       </c>
       <c r="H173">
-        <f>VALUE(_xlfn.CONCAT(D173,E173,F173,G173))</f>
+        <f t="shared" si="5"/>
         <v>30599</v>
       </c>
     </row>
@@ -19395,7 +19383,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <f>VALUE(_xlfn.CONCAT(D174,E174,F174,G174))</f>
+        <f t="shared" si="5"/>
         <v>30611</v>
       </c>
       <c r="I174" t="s">
@@ -19429,7 +19417,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <f>VALUE(_xlfn.CONCAT(D175,E175,F175,G175))</f>
+        <f t="shared" si="5"/>
         <v>30621</v>
       </c>
       <c r="I175" t="s">
@@ -19463,7 +19451,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <f>VALUE(_xlfn.CONCAT(D176,E176,F176,G176))</f>
+        <f t="shared" si="5"/>
         <v>30690</v>
       </c>
       <c r="I176" t="s">
@@ -19496,7 +19484,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <f>VALUE(_xlfn.CONCAT(D177,E177,F177,G177))</f>
+        <f t="shared" si="5"/>
         <v>30611</v>
       </c>
     </row>
@@ -19527,7 +19515,7 @@
         <v>1</v>
       </c>
       <c r="H178">
-        <f>VALUE(_xlfn.CONCAT(D178,E178,F178,G178))</f>
+        <f t="shared" si="5"/>
         <v>30631</v>
       </c>
     </row>
@@ -19558,7 +19546,7 @@
         <v>1</v>
       </c>
       <c r="H179">
-        <f>VALUE(_xlfn.CONCAT(D179,E179,F179,G179))</f>
+        <f t="shared" si="5"/>
         <v>30641</v>
       </c>
     </row>
@@ -19588,7 +19576,7 @@
         <v>1</v>
       </c>
       <c r="H180">
-        <f>VALUE(_xlfn.CONCAT(D180,E180,F180,G180))</f>
+        <f t="shared" si="5"/>
         <v>30621</v>
       </c>
     </row>
@@ -19615,7 +19603,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <f>VALUE(_xlfn.CONCAT(D181,E181,F181,G181))</f>
+        <f t="shared" si="5"/>
         <v>30690</v>
       </c>
     </row>
@@ -19642,7 +19630,7 @@
         <v>9</v>
       </c>
       <c r="H182">
-        <f>VALUE(_xlfn.CONCAT(D182,E182,F182,G182))</f>
+        <f t="shared" si="5"/>
         <v>30699</v>
       </c>
     </row>
@@ -19669,7 +19657,7 @@
         <v>2</v>
       </c>
       <c r="H183">
-        <f>VALUE(_xlfn.CONCAT(D183,E183,F183,G183))</f>
+        <f t="shared" si="5"/>
         <v>30812</v>
       </c>
     </row>
@@ -19696,7 +19684,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <f>VALUE(_xlfn.CONCAT(D184,E184,F184,G184))</f>
+        <f t="shared" si="5"/>
         <v>30820</v>
       </c>
     </row>
@@ -19724,7 +19712,7 @@
         <v>2</v>
       </c>
       <c r="H185">
-        <f>VALUE(_xlfn.CONCAT(D185,E185,F185,G185))</f>
+        <f t="shared" si="5"/>
         <v>30912</v>
       </c>
     </row>
@@ -19751,7 +19739,7 @@
         <v>1</v>
       </c>
       <c r="H186">
-        <f>VALUE(_xlfn.CONCAT(D186,E186,F186,G186))</f>
+        <f t="shared" si="5"/>
         <v>30911</v>
       </c>
     </row>
@@ -19832,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <f>VALUE(_xlfn.CONCAT(D2,E2,F2,G2))</f>
+        <f t="shared" ref="H2:H33" si="0">VALUE(_xlfn.CONCAT(D2,E2,F2,G2))</f>
         <v>90000</v>
       </c>
     </row>
@@ -19863,7 +19851,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <f>VALUE(_xlfn.CONCAT(D3,E3,F3,G3))</f>
+        <f t="shared" si="0"/>
         <v>30590</v>
       </c>
       <c r="I3" t="s">
@@ -19897,7 +19885,7 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <f>VALUE(_xlfn.CONCAT(D4,E4,F4,G4))</f>
+        <f t="shared" si="0"/>
         <v>30611</v>
       </c>
       <c r="I4" t="s">
@@ -19931,7 +19919,7 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <f>VALUE(_xlfn.CONCAT(D5,E5,F5,G5))</f>
+        <f t="shared" si="0"/>
         <v>30621</v>
       </c>
       <c r="I5" t="s">
@@ -19961,7 +19949,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <f>VALUE(_xlfn.CONCAT(D6,E6,F6,G6))</f>
+        <f t="shared" si="0"/>
         <v>30650</v>
       </c>
     </row>
@@ -19988,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <f>VALUE(_xlfn.CONCAT(D7,E7,F7,G7))</f>
+        <f t="shared" si="0"/>
         <v>30660</v>
       </c>
     </row>
@@ -20015,7 +20003,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <f>VALUE(_xlfn.CONCAT(D8,E8,F8,G8))</f>
+        <f t="shared" si="0"/>
         <v>30670</v>
       </c>
     </row>
@@ -20042,7 +20030,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <f>VALUE(_xlfn.CONCAT(D9,E9,F9,G9))</f>
+        <f t="shared" si="0"/>
         <v>30680</v>
       </c>
     </row>
@@ -20069,7 +20057,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <f>VALUE(_xlfn.CONCAT(D10,E10,F10,G10))</f>
+        <f t="shared" si="0"/>
         <v>30690</v>
       </c>
     </row>
@@ -20096,7 +20084,7 @@
         <v>9</v>
       </c>
       <c r="H11">
-        <f>VALUE(_xlfn.CONCAT(D11,E11,F11,G11))</f>
+        <f t="shared" si="0"/>
         <v>30599</v>
       </c>
     </row>
@@ -20127,7 +20115,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <f>VALUE(_xlfn.CONCAT(D12,E12,F12,G12))</f>
+        <f t="shared" si="0"/>
         <v>30690</v>
       </c>
     </row>
@@ -20154,7 +20142,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <f>VALUE(_xlfn.CONCAT(D13,E13,F13,G13))</f>
+        <f t="shared" si="0"/>
         <v>30990</v>
       </c>
     </row>
@@ -20181,7 +20169,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <f>VALUE(_xlfn.CONCAT(D14,E14,F14,G14))</f>
+        <f t="shared" si="0"/>
         <v>20740</v>
       </c>
     </row>
@@ -20208,7 +20196,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <f>VALUE(_xlfn.CONCAT(D15,E15,F15,G15))</f>
+        <f t="shared" si="0"/>
         <v>20750</v>
       </c>
     </row>
@@ -20235,7 +20223,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <f>VALUE(_xlfn.CONCAT(D16,E16,F16,G16))</f>
+        <f t="shared" si="0"/>
         <v>20760</v>
       </c>
     </row>
@@ -20262,7 +20250,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <f>VALUE(_xlfn.CONCAT(D17,E17,F17,G17))</f>
+        <f t="shared" si="0"/>
         <v>20770</v>
       </c>
     </row>
@@ -20289,7 +20277,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <f>VALUE(_xlfn.CONCAT(D18,E18,F18,G18))</f>
+        <f t="shared" si="0"/>
         <v>20790</v>
       </c>
     </row>
@@ -20316,7 +20304,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <f>VALUE(_xlfn.CONCAT(D19,E19,F19,G19))</f>
+        <f t="shared" si="0"/>
         <v>10010</v>
       </c>
       <c r="I19" t="s">
@@ -20346,7 +20334,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <f>VALUE(_xlfn.CONCAT(D20,E20,F20,G20))</f>
+        <f t="shared" si="0"/>
         <v>10011</v>
       </c>
       <c r="I20" t="s">
@@ -20376,7 +20364,7 @@
         <v>2</v>
       </c>
       <c r="H21">
-        <f>VALUE(_xlfn.CONCAT(D21,E21,F21,G21))</f>
+        <f t="shared" si="0"/>
         <v>10012</v>
       </c>
       <c r="I21" t="s">
@@ -20406,7 +20394,7 @@
         <v>2</v>
       </c>
       <c r="H22">
-        <f>VALUE(_xlfn.CONCAT(D22,E22,F22,G22))</f>
+        <f t="shared" si="0"/>
         <v>10012</v>
       </c>
       <c r="I22" t="s">
@@ -20436,7 +20424,7 @@
         <v>3</v>
       </c>
       <c r="H23">
-        <f>VALUE(_xlfn.CONCAT(D23,E23,F23,G23))</f>
+        <f t="shared" si="0"/>
         <v>10013</v>
       </c>
       <c r="I23" t="s">
@@ -20466,7 +20454,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <f>VALUE(_xlfn.CONCAT(D24,E24,F24,G24))</f>
+        <f t="shared" si="0"/>
         <v>10020</v>
       </c>
       <c r="I24" t="s">
@@ -20496,7 +20484,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <f>VALUE(_xlfn.CONCAT(D25,E25,F25,G25))</f>
+        <f t="shared" si="0"/>
         <v>10021</v>
       </c>
       <c r="I25" t="s">
@@ -20526,7 +20514,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <f>VALUE(_xlfn.CONCAT(D26,E26,F26,G26))</f>
+        <f t="shared" si="0"/>
         <v>10030</v>
       </c>
     </row>
@@ -20553,7 +20541,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <f>VALUE(_xlfn.CONCAT(D27,E27,F27,G27))</f>
+        <f t="shared" si="0"/>
         <v>10031</v>
       </c>
       <c r="I27" t="s">
@@ -20583,7 +20571,7 @@
         <v>2</v>
       </c>
       <c r="H28">
-        <f>VALUE(_xlfn.CONCAT(D28,E28,F28,G28))</f>
+        <f t="shared" si="0"/>
         <v>10032</v>
       </c>
       <c r="I28" t="s">
@@ -20613,7 +20601,7 @@
         <v>3</v>
       </c>
       <c r="H29">
-        <f>VALUE(_xlfn.CONCAT(D29,E29,F29,G29))</f>
+        <f t="shared" si="0"/>
         <v>10033</v>
       </c>
       <c r="I29" t="s">
@@ -20643,7 +20631,7 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <f>VALUE(_xlfn.CONCAT(D30,E30,F30,G30))</f>
+        <f t="shared" si="0"/>
         <v>10034</v>
       </c>
       <c r="I30" t="s">
@@ -20673,7 +20661,7 @@
         <v>5</v>
       </c>
       <c r="H31">
-        <f>VALUE(_xlfn.CONCAT(D31,E31,F31,G31))</f>
+        <f t="shared" si="0"/>
         <v>10035</v>
       </c>
       <c r="I31" t="s">
@@ -20703,7 +20691,7 @@
         <v>6</v>
       </c>
       <c r="H32">
-        <f>VALUE(_xlfn.CONCAT(D32,E32,F32,G32))</f>
+        <f t="shared" si="0"/>
         <v>10036</v>
       </c>
       <c r="I32" t="s">
@@ -20733,7 +20721,7 @@
         <v>7</v>
       </c>
       <c r="H33">
-        <f>VALUE(_xlfn.CONCAT(D33,E33,F33,G33))</f>
+        <f t="shared" si="0"/>
         <v>10037</v>
       </c>
       <c r="I33" t="s">
@@ -20763,7 +20751,7 @@
         <v>8</v>
       </c>
       <c r="H34">
-        <f>VALUE(_xlfn.CONCAT(D34,E34,F34,G34))</f>
+        <f t="shared" ref="H34:H65" si="1">VALUE(_xlfn.CONCAT(D34,E34,F34,G34))</f>
         <v>10038</v>
       </c>
       <c r="I34" t="s">
@@ -20793,7 +20781,7 @@
         <v>9</v>
       </c>
       <c r="H35">
-        <f>VALUE(_xlfn.CONCAT(D35,E35,F35,G35))</f>
+        <f t="shared" si="1"/>
         <v>10039</v>
       </c>
       <c r="I35" t="s">
@@ -20823,7 +20811,7 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <f>VALUE(_xlfn.CONCAT(D36,E36,F36,G36))</f>
+        <f t="shared" si="1"/>
         <v>10041</v>
       </c>
       <c r="I36" t="s">
@@ -20853,7 +20841,7 @@
         <v>2</v>
       </c>
       <c r="H37">
-        <f>VALUE(_xlfn.CONCAT(D37,E37,F37,G37))</f>
+        <f t="shared" si="1"/>
         <v>10042</v>
       </c>
       <c r="I37" t="s">
@@ -20883,7 +20871,7 @@
         <v>3</v>
       </c>
       <c r="H38">
-        <f>VALUE(_xlfn.CONCAT(D38,E38,F38,G38))</f>
+        <f t="shared" si="1"/>
         <v>10043</v>
       </c>
       <c r="I38" t="s">
@@ -20913,7 +20901,7 @@
         <v>4</v>
       </c>
       <c r="H39">
-        <f>VALUE(_xlfn.CONCAT(D39,E39,F39,G39))</f>
+        <f t="shared" si="1"/>
         <v>10044</v>
       </c>
       <c r="I39" t="s">
@@ -20943,7 +20931,7 @@
         <v>5</v>
       </c>
       <c r="H40">
-        <f>VALUE(_xlfn.CONCAT(D40,E40,F40,G40))</f>
+        <f t="shared" si="1"/>
         <v>10045</v>
       </c>
       <c r="I40" t="s">
@@ -20973,7 +20961,7 @@
         <v>6</v>
       </c>
       <c r="H41">
-        <f>VALUE(_xlfn.CONCAT(D41,E41,F41,G41))</f>
+        <f t="shared" si="1"/>
         <v>10046</v>
       </c>
       <c r="I41" t="s">
@@ -21003,7 +20991,7 @@
         <v>7</v>
       </c>
       <c r="H42">
-        <f>VALUE(_xlfn.CONCAT(D42,E42,F42,G42))</f>
+        <f t="shared" si="1"/>
         <v>10047</v>
       </c>
       <c r="I42" t="s">
@@ -21033,7 +21021,7 @@
         <v>8</v>
       </c>
       <c r="H43">
-        <f>VALUE(_xlfn.CONCAT(D43,E43,F43,G43))</f>
+        <f t="shared" si="1"/>
         <v>10048</v>
       </c>
       <c r="I43" t="s">
@@ -21063,7 +21051,7 @@
         <v>9</v>
       </c>
       <c r="H44">
-        <f>VALUE(_xlfn.CONCAT(D44,E44,F44,G44))</f>
+        <f t="shared" si="1"/>
         <v>10049</v>
       </c>
       <c r="I44" t="s">
@@ -21093,7 +21081,7 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <f>VALUE(_xlfn.CONCAT(D45,E45,F45,G45))</f>
+        <f t="shared" si="1"/>
         <v>10051</v>
       </c>
       <c r="I45" t="s">
@@ -21123,7 +21111,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <f>VALUE(_xlfn.CONCAT(D46,E46,F46,G46))</f>
+        <f t="shared" si="1"/>
         <v>10060</v>
       </c>
       <c r="I46" t="s">
@@ -21153,7 +21141,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <f>VALUE(_xlfn.CONCAT(D47,E47,F47,G47))</f>
+        <f t="shared" si="1"/>
         <v>10071</v>
       </c>
       <c r="I47" t="s">
@@ -21183,7 +21171,7 @@
         <v>2</v>
       </c>
       <c r="H48">
-        <f>VALUE(_xlfn.CONCAT(D48,E48,F48,G48))</f>
+        <f t="shared" si="1"/>
         <v>10072</v>
       </c>
       <c r="I48" t="s">
@@ -21213,7 +21201,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <f>VALUE(_xlfn.CONCAT(D49,E49,F49,G49))</f>
+        <f t="shared" si="1"/>
         <v>10080</v>
       </c>
       <c r="I49" t="s">
@@ -21243,7 +21231,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <f>VALUE(_xlfn.CONCAT(D50,E50,F50,G50))</f>
+        <f t="shared" si="1"/>
         <v>10090</v>
       </c>
       <c r="I50" t="s">
@@ -21273,7 +21261,7 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <f>VALUE(_xlfn.CONCAT(D51,E51,F51,G51))</f>
+        <f t="shared" si="1"/>
         <v>10091</v>
       </c>
       <c r="I51" t="s">
@@ -21303,7 +21291,7 @@
         <v>2</v>
       </c>
       <c r="H52">
-        <f>VALUE(_xlfn.CONCAT(D52,E52,F52,G52))</f>
+        <f t="shared" si="1"/>
         <v>10092</v>
       </c>
       <c r="I52" t="s">
@@ -21333,7 +21321,7 @@
         <v>3</v>
       </c>
       <c r="H53">
-        <f>VALUE(_xlfn.CONCAT(D53,E53,F53,G53))</f>
+        <f t="shared" si="1"/>
         <v>10093</v>
       </c>
       <c r="I53" t="s">
@@ -21363,7 +21351,7 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <f>VALUE(_xlfn.CONCAT(D54,E54,F54,G54))</f>
+        <f t="shared" si="1"/>
         <v>10101</v>
       </c>
       <c r="I54" t="s">
@@ -21393,7 +21381,7 @@
         <v>2</v>
       </c>
       <c r="H55">
-        <f>VALUE(_xlfn.CONCAT(D55,E55,F55,G55))</f>
+        <f t="shared" si="1"/>
         <v>10102</v>
       </c>
       <c r="I55" t="s">
@@ -21423,7 +21411,7 @@
         <v>3</v>
       </c>
       <c r="H56">
-        <f>VALUE(_xlfn.CONCAT(D56,E56,F56,G56))</f>
+        <f t="shared" si="1"/>
         <v>10103</v>
       </c>
       <c r="I56" t="s">
@@ -21453,7 +21441,7 @@
         <v>4</v>
       </c>
       <c r="H57">
-        <f>VALUE(_xlfn.CONCAT(D57,E57,F57,G57))</f>
+        <f t="shared" si="1"/>
         <v>10104</v>
       </c>
       <c r="I57" t="s">
@@ -21483,7 +21471,7 @@
         <v>5</v>
       </c>
       <c r="H58">
-        <f>VALUE(_xlfn.CONCAT(D58,E58,F58,G58))</f>
+        <f t="shared" si="1"/>
         <v>10105</v>
       </c>
       <c r="I58" t="s">
@@ -21513,7 +21501,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <f>VALUE(_xlfn.CONCAT(D59,E59,F59,G59))</f>
+        <f t="shared" si="1"/>
         <v>10110</v>
       </c>
       <c r="I59" t="s">
@@ -21543,7 +21531,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <f>VALUE(_xlfn.CONCAT(D60,E60,F60,G60))</f>
+        <f t="shared" si="1"/>
         <v>10120</v>
       </c>
       <c r="I60" t="s">
@@ -21573,7 +21561,7 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <f>VALUE(_xlfn.CONCAT(D61,E61,F61,G61))</f>
+        <f t="shared" si="1"/>
         <v>10121</v>
       </c>
       <c r="I61" t="s">
@@ -21603,7 +21591,7 @@
         <v>2</v>
       </c>
       <c r="H62">
-        <f>VALUE(_xlfn.CONCAT(D62,E62,F62,G62))</f>
+        <f t="shared" si="1"/>
         <v>10122</v>
       </c>
       <c r="I62" t="s">
@@ -21633,7 +21621,7 @@
         <v>3</v>
       </c>
       <c r="H63">
-        <f>VALUE(_xlfn.CONCAT(D63,E63,F63,G63))</f>
+        <f t="shared" si="1"/>
         <v>10123</v>
       </c>
       <c r="I63" t="s">
@@ -21663,7 +21651,7 @@
         <v>4</v>
       </c>
       <c r="H64">
-        <f>VALUE(_xlfn.CONCAT(D64,E64,F64,G64))</f>
+        <f t="shared" si="1"/>
         <v>10124</v>
       </c>
       <c r="I64" t="s">
@@ -21693,7 +21681,7 @@
         <v>0</v>
       </c>
       <c r="H65">
-        <f>VALUE(_xlfn.CONCAT(D65,E65,F65,G65))</f>
+        <f t="shared" si="1"/>
         <v>10130</v>
       </c>
       <c r="I65" t="s">
@@ -21723,7 +21711,7 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <f>VALUE(_xlfn.CONCAT(D66,E66,F66,G66))</f>
+        <f t="shared" ref="H66:H97" si="2">VALUE(_xlfn.CONCAT(D66,E66,F66,G66))</f>
         <v>10131</v>
       </c>
       <c r="I66" t="s">
@@ -21753,7 +21741,7 @@
         <v>2</v>
       </c>
       <c r="H67">
-        <f>VALUE(_xlfn.CONCAT(D67,E67,F67,G67))</f>
+        <f t="shared" si="2"/>
         <v>10132</v>
       </c>
       <c r="I67" t="s">
@@ -21783,7 +21771,7 @@
         <v>3</v>
       </c>
       <c r="H68">
-        <f>VALUE(_xlfn.CONCAT(D68,E68,F68,G68))</f>
+        <f t="shared" si="2"/>
         <v>10133</v>
       </c>
       <c r="I68" t="s">
@@ -21813,7 +21801,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <f>VALUE(_xlfn.CONCAT(D69,E69,F69,G69))</f>
+        <f t="shared" si="2"/>
         <v>10140</v>
       </c>
       <c r="I69" t="s">
@@ -21843,7 +21831,7 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <f>VALUE(_xlfn.CONCAT(D70,E70,F70,G70))</f>
+        <f t="shared" si="2"/>
         <v>10141</v>
       </c>
       <c r="I70" t="s">
@@ -21873,7 +21861,7 @@
         <v>2</v>
       </c>
       <c r="H71">
-        <f>VALUE(_xlfn.CONCAT(D71,E71,F71,G71))</f>
+        <f t="shared" si="2"/>
         <v>10142</v>
       </c>
       <c r="I71" t="s">
@@ -21903,7 +21891,7 @@
         <v>0</v>
       </c>
       <c r="H72">
-        <f>VALUE(_xlfn.CONCAT(D72,E72,F72,G72))</f>
+        <f t="shared" si="2"/>
         <v>10150</v>
       </c>
       <c r="I72" t="s">
@@ -21933,7 +21921,7 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <f>VALUE(_xlfn.CONCAT(D73,E73,F73,G73))</f>
+        <f t="shared" si="2"/>
         <v>10151</v>
       </c>
       <c r="I73" t="s">
@@ -21963,7 +21951,7 @@
         <v>2</v>
       </c>
       <c r="H74">
-        <f>VALUE(_xlfn.CONCAT(D74,E74,F74,G74))</f>
+        <f t="shared" si="2"/>
         <v>10152</v>
       </c>
       <c r="I74" t="s">
@@ -21993,7 +21981,7 @@
         <v>3</v>
       </c>
       <c r="H75">
-        <f>VALUE(_xlfn.CONCAT(D75,E75,F75,G75))</f>
+        <f t="shared" si="2"/>
         <v>10153</v>
       </c>
       <c r="I75" t="s">
@@ -22023,7 +22011,7 @@
         <v>4</v>
       </c>
       <c r="H76">
-        <f>VALUE(_xlfn.CONCAT(D76,E76,F76,G76))</f>
+        <f t="shared" si="2"/>
         <v>10154</v>
       </c>
       <c r="I76" t="s">
@@ -22053,7 +22041,7 @@
         <v>5</v>
       </c>
       <c r="H77">
-        <f>VALUE(_xlfn.CONCAT(D77,E77,F77,G77))</f>
+        <f t="shared" si="2"/>
         <v>10155</v>
       </c>
       <c r="I77" t="s">
@@ -22083,7 +22071,7 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <f>VALUE(_xlfn.CONCAT(D78,E78,F78,G78))</f>
+        <f t="shared" si="2"/>
         <v>10161</v>
       </c>
       <c r="I78" t="s">
@@ -22113,7 +22101,7 @@
         <v>2</v>
       </c>
       <c r="H79">
-        <f>VALUE(_xlfn.CONCAT(D79,E79,F79,G79))</f>
+        <f t="shared" si="2"/>
         <v>10162</v>
       </c>
       <c r="I79" t="s">
@@ -22143,7 +22131,7 @@
         <v>3</v>
       </c>
       <c r="H80">
-        <f>VALUE(_xlfn.CONCAT(D80,E80,F80,G80))</f>
+        <f t="shared" si="2"/>
         <v>10163</v>
       </c>
       <c r="I80" t="s">
@@ -22173,7 +22161,7 @@
         <v>4</v>
       </c>
       <c r="H81">
-        <f>VALUE(_xlfn.CONCAT(D81,E81,F81,G81))</f>
+        <f t="shared" si="2"/>
         <v>10164</v>
       </c>
       <c r="I81" t="s">
@@ -22203,7 +22191,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <f>VALUE(_xlfn.CONCAT(D82,E82,F82,G82))</f>
+        <f t="shared" si="2"/>
         <v>10170</v>
       </c>
       <c r="I82" t="s">
@@ -22233,7 +22221,7 @@
         <v>0</v>
       </c>
       <c r="H83">
-        <f>VALUE(_xlfn.CONCAT(D83,E83,F83,G83))</f>
+        <f t="shared" si="2"/>
         <v>10170</v>
       </c>
       <c r="I83" t="s">
@@ -22263,7 +22251,7 @@
         <v>0</v>
       </c>
       <c r="H84">
-        <f>VALUE(_xlfn.CONCAT(D84,E84,F84,G84))</f>
+        <f t="shared" si="2"/>
         <v>10180</v>
       </c>
       <c r="I84" t="s">
@@ -22293,7 +22281,7 @@
         <v>0</v>
       </c>
       <c r="H85">
-        <f>VALUE(_xlfn.CONCAT(D85,E85,F85,G85))</f>
+        <f t="shared" si="2"/>
         <v>10190</v>
       </c>
       <c r="I85" t="s">
@@ -22323,7 +22311,7 @@
         <v>0</v>
       </c>
       <c r="H86">
-        <f>VALUE(_xlfn.CONCAT(D86,E86,F86,G86))</f>
+        <f t="shared" si="2"/>
         <v>10190</v>
       </c>
       <c r="I86" t="s">
@@ -22353,7 +22341,7 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <f>VALUE(_xlfn.CONCAT(D87,E87,F87,G87))</f>
+        <f t="shared" si="2"/>
         <v>10190</v>
       </c>
       <c r="I87" t="s">
@@ -22383,7 +22371,7 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <f>VALUE(_xlfn.CONCAT(D88,E88,F88,G88))</f>
+        <f t="shared" si="2"/>
         <v>10191</v>
       </c>
       <c r="I88" t="s">
@@ -22413,7 +22401,7 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <f>VALUE(_xlfn.CONCAT(D89,E89,F89,G89))</f>
+        <f t="shared" si="2"/>
         <v>10201</v>
       </c>
       <c r="I89" t="s">
@@ -22443,7 +22431,7 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <f>VALUE(_xlfn.CONCAT(D90,E90,F90,G90))</f>
+        <f t="shared" si="2"/>
         <v>10211</v>
       </c>
       <c r="I90" t="s">
@@ -22473,7 +22461,7 @@
         <v>2</v>
       </c>
       <c r="H91">
-        <f>VALUE(_xlfn.CONCAT(D91,E91,F91,G91))</f>
+        <f t="shared" si="2"/>
         <v>10212</v>
       </c>
       <c r="I91" t="s">
@@ -22503,7 +22491,7 @@
         <v>3</v>
       </c>
       <c r="H92">
-        <f>VALUE(_xlfn.CONCAT(D92,E92,F92,G92))</f>
+        <f t="shared" si="2"/>
         <v>10213</v>
       </c>
       <c r="I92" t="s">
@@ -22533,7 +22521,7 @@
         <v>0</v>
       </c>
       <c r="H93">
-        <f>VALUE(_xlfn.CONCAT(D93,E93,F93,G93))</f>
+        <f t="shared" si="2"/>
         <v>10220</v>
       </c>
       <c r="I93" t="s">
@@ -22563,7 +22551,7 @@
         <v>0</v>
       </c>
       <c r="H94">
-        <f>VALUE(_xlfn.CONCAT(D94,E94,F94,G94))</f>
+        <f t="shared" si="2"/>
         <v>10230</v>
       </c>
       <c r="I94" t="s">
@@ -22593,7 +22581,7 @@
         <v>0</v>
       </c>
       <c r="H95">
-        <f>VALUE(_xlfn.CONCAT(D95,E95,F95,G95))</f>
+        <f t="shared" si="2"/>
         <v>10240</v>
       </c>
       <c r="I95" t="s">
@@ -22623,7 +22611,7 @@
         <v>0</v>
       </c>
       <c r="H96">
-        <f>VALUE(_xlfn.CONCAT(D96,E96,F96,G96))</f>
+        <f t="shared" si="2"/>
         <v>10300</v>
       </c>
       <c r="I96" t="s">
@@ -22653,7 +22641,7 @@
         <v>2</v>
       </c>
       <c r="H97">
-        <f>VALUE(_xlfn.CONCAT(D97,E97,F97,G97))</f>
+        <f t="shared" si="2"/>
         <v>30512</v>
       </c>
       <c r="I97" t="s">
@@ -22683,7 +22671,7 @@
         <v>0</v>
       </c>
       <c r="H98">
-        <f>VALUE(_xlfn.CONCAT(D98,E98,F98,G98))</f>
+        <f t="shared" ref="H98:H129" si="3">VALUE(_xlfn.CONCAT(D98,E98,F98,G98))</f>
         <v>30520</v>
       </c>
       <c r="I98" t="s">
@@ -22713,7 +22701,7 @@
         <v>0</v>
       </c>
       <c r="H99">
-        <f>VALUE(_xlfn.CONCAT(D99,E99,F99,G99))</f>
+        <f t="shared" si="3"/>
         <v>30530</v>
       </c>
       <c r="I99" t="s">
@@ -22743,7 +22731,7 @@
         <v>0</v>
       </c>
       <c r="H100">
-        <f>VALUE(_xlfn.CONCAT(D100,E100,F100,G100))</f>
+        <f t="shared" si="3"/>
         <v>30540</v>
       </c>
       <c r="I100" t="s">
@@ -22773,7 +22761,7 @@
         <v>0</v>
       </c>
       <c r="H101">
-        <f>VALUE(_xlfn.CONCAT(D101,E101,F101,G101))</f>
+        <f t="shared" si="3"/>
         <v>30590</v>
       </c>
       <c r="I101" t="s">
@@ -22803,7 +22791,7 @@
         <v>9</v>
       </c>
       <c r="H102">
-        <f>VALUE(_xlfn.CONCAT(D102,E102,F102,G102))</f>
+        <f t="shared" si="3"/>
         <v>99999</v>
       </c>
       <c r="I102" t="s">
@@ -22837,7 +22825,7 @@
         <v>0</v>
       </c>
       <c r="H103">
-        <f>VALUE(_xlfn.CONCAT(D103,E103,F103,G103))</f>
+        <f t="shared" si="3"/>
         <v>20210</v>
       </c>
     </row>
@@ -22868,7 +22856,7 @@
         <v>0</v>
       </c>
       <c r="H104">
-        <f>VALUE(_xlfn.CONCAT(D104,E104,F104,G104))</f>
+        <f t="shared" si="3"/>
         <v>20310</v>
       </c>
     </row>
@@ -22899,7 +22887,7 @@
         <v>0</v>
       </c>
       <c r="H105">
-        <f>VALUE(_xlfn.CONCAT(D105,E105,F105,G105))</f>
+        <f t="shared" si="3"/>
         <v>20420</v>
       </c>
     </row>
@@ -22926,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="H106">
-        <f>VALUE(_xlfn.CONCAT(D106,E106,F106,G106))</f>
+        <f t="shared" si="3"/>
         <v>10010</v>
       </c>
       <c r="I106" t="s">
@@ -22956,7 +22944,7 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <f>VALUE(_xlfn.CONCAT(D107,E107,F107,G107))</f>
+        <f t="shared" si="3"/>
         <v>10011</v>
       </c>
     </row>
@@ -22983,7 +22971,7 @@
         <v>2</v>
       </c>
       <c r="H108">
-        <f>VALUE(_xlfn.CONCAT(D108,E108,F108,G108))</f>
+        <f t="shared" si="3"/>
         <v>10012</v>
       </c>
     </row>
@@ -23010,7 +22998,7 @@
         <v>3</v>
       </c>
       <c r="H109">
-        <f>VALUE(_xlfn.CONCAT(D109,E109,F109,G109))</f>
+        <f t="shared" si="3"/>
         <v>10013</v>
       </c>
     </row>
@@ -23037,7 +23025,7 @@
         <v>0</v>
       </c>
       <c r="H110">
-        <f>VALUE(_xlfn.CONCAT(D110,E110,F110,G110))</f>
+        <f t="shared" si="3"/>
         <v>10020</v>
       </c>
     </row>
@@ -23064,7 +23052,7 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <f>VALUE(_xlfn.CONCAT(D111,E111,F111,G111))</f>
+        <f t="shared" si="3"/>
         <v>10021</v>
       </c>
     </row>
@@ -23091,7 +23079,7 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <f>VALUE(_xlfn.CONCAT(D112,E112,F112,G112))</f>
+        <f t="shared" si="3"/>
         <v>10031</v>
       </c>
       <c r="I112" t="s">
@@ -23121,7 +23109,7 @@
         <v>2</v>
       </c>
       <c r="H113">
-        <f>VALUE(_xlfn.CONCAT(D113,E113,F113,G113))</f>
+        <f t="shared" si="3"/>
         <v>10032</v>
       </c>
       <c r="I113" t="s">
@@ -23151,7 +23139,7 @@
         <v>3</v>
       </c>
       <c r="H114">
-        <f>VALUE(_xlfn.CONCAT(D114,E114,F114,G114))</f>
+        <f t="shared" si="3"/>
         <v>10033</v>
       </c>
       <c r="I114" t="s">
@@ -23181,7 +23169,7 @@
         <v>4</v>
       </c>
       <c r="H115">
-        <f>VALUE(_xlfn.CONCAT(D115,E115,F115,G115))</f>
+        <f t="shared" si="3"/>
         <v>10034</v>
       </c>
       <c r="I115" t="s">
@@ -23211,7 +23199,7 @@
         <v>5</v>
       </c>
       <c r="H116">
-        <f>VALUE(_xlfn.CONCAT(D116,E116,F116,G116))</f>
+        <f t="shared" si="3"/>
         <v>10035</v>
       </c>
       <c r="I116" t="s">
@@ -23241,7 +23229,7 @@
         <v>6</v>
       </c>
       <c r="H117">
-        <f>VALUE(_xlfn.CONCAT(D117,E117,F117,G117))</f>
+        <f t="shared" si="3"/>
         <v>10036</v>
       </c>
       <c r="I117" t="s">
@@ -23271,7 +23259,7 @@
         <v>7</v>
       </c>
       <c r="H118">
-        <f>VALUE(_xlfn.CONCAT(D118,E118,F118,G118))</f>
+        <f t="shared" si="3"/>
         <v>10037</v>
       </c>
       <c r="I118" t="s">
@@ -23301,7 +23289,7 @@
         <v>8</v>
       </c>
       <c r="H119">
-        <f>VALUE(_xlfn.CONCAT(D119,E119,F119,G119))</f>
+        <f t="shared" si="3"/>
         <v>10038</v>
       </c>
       <c r="I119" t="s">
@@ -23331,7 +23319,7 @@
         <v>9</v>
       </c>
       <c r="H120">
-        <f>VALUE(_xlfn.CONCAT(D120,E120,F120,G120))</f>
+        <f t="shared" si="3"/>
         <v>10039</v>
       </c>
       <c r="I120" t="s">
@@ -23361,7 +23349,7 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <f>VALUE(_xlfn.CONCAT(D121,E121,F121,G121))</f>
+        <f t="shared" si="3"/>
         <v>10041</v>
       </c>
       <c r="I121" t="s">
@@ -23391,7 +23379,7 @@
         <v>2</v>
       </c>
       <c r="H122">
-        <f>VALUE(_xlfn.CONCAT(D122,E122,F122,G122))</f>
+        <f t="shared" si="3"/>
         <v>10042</v>
       </c>
       <c r="I122" t="s">
@@ -23421,7 +23409,7 @@
         <v>3</v>
       </c>
       <c r="H123">
-        <f>VALUE(_xlfn.CONCAT(D123,E123,F123,G123))</f>
+        <f t="shared" si="3"/>
         <v>10043</v>
       </c>
       <c r="I123" t="s">
@@ -23451,7 +23439,7 @@
         <v>4</v>
       </c>
       <c r="H124">
-        <f>VALUE(_xlfn.CONCAT(D124,E124,F124,G124))</f>
+        <f t="shared" si="3"/>
         <v>10044</v>
       </c>
       <c r="I124" t="s">
@@ -23481,7 +23469,7 @@
         <v>5</v>
       </c>
       <c r="H125">
-        <f>VALUE(_xlfn.CONCAT(D125,E125,F125,G125))</f>
+        <f t="shared" si="3"/>
         <v>10045</v>
       </c>
       <c r="I125" t="s">
@@ -23511,7 +23499,7 @@
         <v>6</v>
       </c>
       <c r="H126">
-        <f>VALUE(_xlfn.CONCAT(D126,E126,F126,G126))</f>
+        <f t="shared" si="3"/>
         <v>10046</v>
       </c>
       <c r="I126" t="s">
@@ -23541,7 +23529,7 @@
         <v>7</v>
       </c>
       <c r="H127">
-        <f>VALUE(_xlfn.CONCAT(D127,E127,F127,G127))</f>
+        <f t="shared" si="3"/>
         <v>10047</v>
       </c>
       <c r="I127" t="s">
@@ -23571,7 +23559,7 @@
         <v>8</v>
       </c>
       <c r="H128">
-        <f>VALUE(_xlfn.CONCAT(D128,E128,F128,G128))</f>
+        <f t="shared" si="3"/>
         <v>10048</v>
       </c>
       <c r="I128" t="s">
@@ -23601,7 +23589,7 @@
         <v>9</v>
       </c>
       <c r="H129">
-        <f>VALUE(_xlfn.CONCAT(D129,E129,F129,G129))</f>
+        <f t="shared" si="3"/>
         <v>10049</v>
       </c>
       <c r="I129" t="s">
@@ -23631,7 +23619,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <f>VALUE(_xlfn.CONCAT(D130,E130,F130,G130))</f>
+        <f t="shared" ref="H130:H161" si="4">VALUE(_xlfn.CONCAT(D130,E130,F130,G130))</f>
         <v>10051</v>
       </c>
       <c r="I130" t="s">
@@ -23661,7 +23649,7 @@
         <v>0</v>
       </c>
       <c r="H131">
-        <f>VALUE(_xlfn.CONCAT(D131,E131,F131,G131))</f>
+        <f t="shared" si="4"/>
         <v>10060</v>
       </c>
       <c r="I131" t="s">
@@ -23691,7 +23679,7 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <f>VALUE(_xlfn.CONCAT(D132,E132,F132,G132))</f>
+        <f t="shared" si="4"/>
         <v>10071</v>
       </c>
       <c r="I132" t="s">
@@ -23721,7 +23709,7 @@
         <v>2</v>
       </c>
       <c r="H133">
-        <f>VALUE(_xlfn.CONCAT(D133,E133,F133,G133))</f>
+        <f t="shared" si="4"/>
         <v>10072</v>
       </c>
       <c r="I133" t="s">
@@ -23751,7 +23739,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <f>VALUE(_xlfn.CONCAT(D134,E134,F134,G134))</f>
+        <f t="shared" si="4"/>
         <v>10080</v>
       </c>
       <c r="I134" t="s">
@@ -23781,7 +23769,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <f>VALUE(_xlfn.CONCAT(D135,E135,F135,G135))</f>
+        <f t="shared" si="4"/>
         <v>10090</v>
       </c>
     </row>
@@ -23808,7 +23796,7 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <f>VALUE(_xlfn.CONCAT(D136,E136,F136,G136))</f>
+        <f t="shared" si="4"/>
         <v>10091</v>
       </c>
       <c r="I136" t="s">
@@ -23838,7 +23826,7 @@
         <v>2</v>
       </c>
       <c r="H137">
-        <f>VALUE(_xlfn.CONCAT(D137,E137,F137,G137))</f>
+        <f t="shared" si="4"/>
         <v>10092</v>
       </c>
       <c r="I137" t="s">
@@ -23868,7 +23856,7 @@
         <v>3</v>
       </c>
       <c r="H138">
-        <f>VALUE(_xlfn.CONCAT(D138,E138,F138,G138))</f>
+        <f t="shared" si="4"/>
         <v>10093</v>
       </c>
       <c r="I138" t="s">
@@ -23898,7 +23886,7 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <f>VALUE(_xlfn.CONCAT(D139,E139,F139,G139))</f>
+        <f t="shared" si="4"/>
         <v>10101</v>
       </c>
       <c r="I139" t="s">
@@ -23928,7 +23916,7 @@
         <v>2</v>
       </c>
       <c r="H140">
-        <f>VALUE(_xlfn.CONCAT(D140,E140,F140,G140))</f>
+        <f t="shared" si="4"/>
         <v>10102</v>
       </c>
       <c r="I140" t="s">
@@ -23958,7 +23946,7 @@
         <v>3</v>
       </c>
       <c r="H141">
-        <f>VALUE(_xlfn.CONCAT(D141,E141,F141,G141))</f>
+        <f t="shared" si="4"/>
         <v>10103</v>
       </c>
       <c r="I141" t="s">
@@ -23988,7 +23976,7 @@
         <v>4</v>
       </c>
       <c r="H142">
-        <f>VALUE(_xlfn.CONCAT(D142,E142,F142,G142))</f>
+        <f t="shared" si="4"/>
         <v>10104</v>
       </c>
       <c r="I142" t="s">
@@ -24018,7 +24006,7 @@
         <v>5</v>
       </c>
       <c r="H143">
-        <f>VALUE(_xlfn.CONCAT(D143,E143,F143,G143))</f>
+        <f t="shared" si="4"/>
         <v>10105</v>
       </c>
       <c r="I143" t="s">
@@ -24048,7 +24036,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <f>VALUE(_xlfn.CONCAT(D144,E144,F144,G144))</f>
+        <f t="shared" si="4"/>
         <v>10110</v>
       </c>
       <c r="I144" t="s">
@@ -24078,7 +24066,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <f>VALUE(_xlfn.CONCAT(D145,E145,F145,G145))</f>
+        <f t="shared" si="4"/>
         <v>10120</v>
       </c>
       <c r="I145" t="s">
@@ -24108,7 +24096,7 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <f>VALUE(_xlfn.CONCAT(D146,E146,F146,G146))</f>
+        <f t="shared" si="4"/>
         <v>10121</v>
       </c>
       <c r="I146" t="s">
@@ -24138,7 +24126,7 @@
         <v>2</v>
       </c>
       <c r="H147">
-        <f>VALUE(_xlfn.CONCAT(D147,E147,F147,G147))</f>
+        <f t="shared" si="4"/>
         <v>10122</v>
       </c>
       <c r="I147" t="s">
@@ -24168,7 +24156,7 @@
         <v>3</v>
       </c>
       <c r="H148">
-        <f>VALUE(_xlfn.CONCAT(D148,E148,F148,G148))</f>
+        <f t="shared" si="4"/>
         <v>10123</v>
       </c>
       <c r="I148" t="s">
@@ -24198,7 +24186,7 @@
         <v>4</v>
       </c>
       <c r="H149">
-        <f>VALUE(_xlfn.CONCAT(D149,E149,F149,G149))</f>
+        <f t="shared" si="4"/>
         <v>10124</v>
       </c>
       <c r="I149" t="s">
@@ -24228,7 +24216,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <f>VALUE(_xlfn.CONCAT(D150,E150,F150,G150))</f>
+        <f t="shared" si="4"/>
         <v>10130</v>
       </c>
       <c r="I150" t="s">
@@ -24258,7 +24246,7 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <f>VALUE(_xlfn.CONCAT(D151,E151,F151,G151))</f>
+        <f t="shared" si="4"/>
         <v>10131</v>
       </c>
       <c r="I151" t="s">
@@ -24288,7 +24276,7 @@
         <v>2</v>
       </c>
       <c r="H152">
-        <f>VALUE(_xlfn.CONCAT(D152,E152,F152,G152))</f>
+        <f t="shared" si="4"/>
         <v>10132</v>
       </c>
       <c r="I152" t="s">
@@ -24318,7 +24306,7 @@
         <v>3</v>
       </c>
       <c r="H153">
-        <f>VALUE(_xlfn.CONCAT(D153,E153,F153,G153))</f>
+        <f t="shared" si="4"/>
         <v>10133</v>
       </c>
       <c r="I153" t="s">
@@ -24348,7 +24336,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <f>VALUE(_xlfn.CONCAT(D154,E154,F154,G154))</f>
+        <f t="shared" si="4"/>
         <v>10140</v>
       </c>
       <c r="I154" t="s">
@@ -24438,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <f>VALUE(_xlfn.CONCAT(D157,E157,F157,G157))</f>
+        <f t="shared" ref="H157:H187" si="5">VALUE(_xlfn.CONCAT(D157,E157,F157,G157))</f>
         <v>10150</v>
       </c>
       <c r="I157" t="s">
@@ -24468,7 +24456,7 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <f>VALUE(_xlfn.CONCAT(D158,E158,F158,G158))</f>
+        <f t="shared" si="5"/>
         <v>10151</v>
       </c>
       <c r="I158" t="s">
@@ -24498,7 +24486,7 @@
         <v>2</v>
       </c>
       <c r="H159">
-        <f>VALUE(_xlfn.CONCAT(D159,E159,F159,G159))</f>
+        <f t="shared" si="5"/>
         <v>10152</v>
       </c>
       <c r="I159" t="s">
@@ -24528,7 +24516,7 @@
         <v>3</v>
       </c>
       <c r="H160">
-        <f>VALUE(_xlfn.CONCAT(D160,E160,F160,G160))</f>
+        <f t="shared" si="5"/>
         <v>10153</v>
       </c>
       <c r="I160" t="s">
@@ -24558,7 +24546,7 @@
         <v>4</v>
       </c>
       <c r="H161">
-        <f>VALUE(_xlfn.CONCAT(D161,E161,F161,G161))</f>
+        <f t="shared" si="5"/>
         <v>10154</v>
       </c>
       <c r="I161" t="s">
@@ -24588,7 +24576,7 @@
         <v>5</v>
       </c>
       <c r="H162">
-        <f>VALUE(_xlfn.CONCAT(D162,E162,F162,G162))</f>
+        <f t="shared" si="5"/>
         <v>10155</v>
       </c>
       <c r="I162" t="s">
@@ -24618,7 +24606,7 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <f>VALUE(_xlfn.CONCAT(D163,E163,F163,G163))</f>
+        <f t="shared" si="5"/>
         <v>10161</v>
       </c>
       <c r="I163" t="s">
@@ -24648,7 +24636,7 @@
         <v>2</v>
       </c>
       <c r="H164">
-        <f>VALUE(_xlfn.CONCAT(D164,E164,F164,G164))</f>
+        <f t="shared" si="5"/>
         <v>10162</v>
       </c>
       <c r="I164" t="s">
@@ -24678,7 +24666,7 @@
         <v>3</v>
       </c>
       <c r="H165">
-        <f>VALUE(_xlfn.CONCAT(D165,E165,F165,G165))</f>
+        <f t="shared" si="5"/>
         <v>10163</v>
       </c>
       <c r="I165" t="s">
@@ -24708,7 +24696,7 @@
         <v>4</v>
       </c>
       <c r="H166">
-        <f>VALUE(_xlfn.CONCAT(D166,E166,F166,G166))</f>
+        <f t="shared" si="5"/>
         <v>10164</v>
       </c>
       <c r="I166" t="s">
@@ -24738,7 +24726,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <f>VALUE(_xlfn.CONCAT(D167,E167,F167,G167))</f>
+        <f t="shared" si="5"/>
         <v>10170</v>
       </c>
     </row>
@@ -24765,7 +24753,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <f>VALUE(_xlfn.CONCAT(D168,E168,F168,G168))</f>
+        <f t="shared" si="5"/>
         <v>10170</v>
       </c>
       <c r="I168" t="s">
@@ -24795,7 +24783,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <f>VALUE(_xlfn.CONCAT(D169,E169,F169,G169))</f>
+        <f t="shared" si="5"/>
         <v>10180</v>
       </c>
       <c r="I169" t="s">
@@ -24825,7 +24813,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <f>VALUE(_xlfn.CONCAT(D170,E170,F170,G170))</f>
+        <f t="shared" si="5"/>
         <v>10190</v>
       </c>
     </row>
@@ -24852,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <f>VALUE(_xlfn.CONCAT(D171,E171,F171,G171))</f>
+        <f t="shared" si="5"/>
         <v>10190</v>
       </c>
       <c r="I171" t="s">
@@ -24882,7 +24870,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <f>VALUE(_xlfn.CONCAT(D172,E172,F172,G172))</f>
+        <f t="shared" si="5"/>
         <v>10190</v>
       </c>
       <c r="I172" t="s">
@@ -24912,7 +24900,7 @@
         <v>1</v>
       </c>
       <c r="H173">
-        <f>VALUE(_xlfn.CONCAT(D173,E173,F173,G173))</f>
+        <f t="shared" si="5"/>
         <v>10191</v>
       </c>
       <c r="I173" t="s">
@@ -24942,7 +24930,7 @@
         <v>1</v>
       </c>
       <c r="H174">
-        <f>VALUE(_xlfn.CONCAT(D174,E174,F174,G174))</f>
+        <f t="shared" si="5"/>
         <v>10201</v>
       </c>
       <c r="I174" t="s">
@@ -24972,7 +24960,7 @@
         <v>1</v>
       </c>
       <c r="H175">
-        <f>VALUE(_xlfn.CONCAT(D175,E175,F175,G175))</f>
+        <f t="shared" si="5"/>
         <v>10211</v>
       </c>
       <c r="I175" t="s">
@@ -25002,7 +24990,7 @@
         <v>2</v>
       </c>
       <c r="H176">
-        <f>VALUE(_xlfn.CONCAT(D176,E176,F176,G176))</f>
+        <f t="shared" si="5"/>
         <v>10212</v>
       </c>
       <c r="I176" t="s">
@@ -25032,7 +25020,7 @@
         <v>3</v>
       </c>
       <c r="H177">
-        <f>VALUE(_xlfn.CONCAT(D177,E177,F177,G177))</f>
+        <f t="shared" si="5"/>
         <v>10213</v>
       </c>
       <c r="I177" t="s">
@@ -25062,7 +25050,7 @@
         <v>0</v>
       </c>
       <c r="H178">
-        <f>VALUE(_xlfn.CONCAT(D178,E178,F178,G178))</f>
+        <f t="shared" si="5"/>
         <v>10220</v>
       </c>
       <c r="I178" t="s">
@@ -25092,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="H179">
-        <f>VALUE(_xlfn.CONCAT(D179,E179,F179,G179))</f>
+        <f t="shared" si="5"/>
         <v>10230</v>
       </c>
       <c r="I179" t="s">
@@ -25122,7 +25110,7 @@
         <v>0</v>
       </c>
       <c r="H180">
-        <f>VALUE(_xlfn.CONCAT(D180,E180,F180,G180))</f>
+        <f t="shared" si="5"/>
         <v>10240</v>
       </c>
       <c r="I180" t="s">
@@ -25152,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="H181">
-        <f>VALUE(_xlfn.CONCAT(D181,E181,F181,G181))</f>
+        <f t="shared" si="5"/>
         <v>20800</v>
       </c>
       <c r="I181" t="s">
@@ -25182,7 +25170,7 @@
         <v>2</v>
       </c>
       <c r="H182">
-        <f>VALUE(_xlfn.CONCAT(D182,E182,F182,G182))</f>
+        <f t="shared" si="5"/>
         <v>20992</v>
       </c>
     </row>
@@ -25209,7 +25197,7 @@
         <v>2</v>
       </c>
       <c r="H183">
-        <f>VALUE(_xlfn.CONCAT(D183,E183,F183,G183))</f>
+        <f t="shared" si="5"/>
         <v>30892</v>
       </c>
     </row>
@@ -25236,7 +25224,7 @@
         <v>0</v>
       </c>
       <c r="H184">
-        <f>VALUE(_xlfn.CONCAT(D184,E184,F184,G184))</f>
+        <f t="shared" si="5"/>
         <v>30890</v>
       </c>
     </row>
@@ -25263,7 +25251,7 @@
         <v>2</v>
       </c>
       <c r="H185">
-        <f>VALUE(_xlfn.CONCAT(D185,E185,F185,G185))</f>
+        <f t="shared" si="5"/>
         <v>30892</v>
       </c>
     </row>
@@ -25290,7 +25278,7 @@
         <v>0</v>
       </c>
       <c r="H186">
-        <f>VALUE(_xlfn.CONCAT(D186,E186,F186,G186))</f>
+        <f t="shared" si="5"/>
         <v>20810</v>
       </c>
     </row>
@@ -25317,7 +25305,7 @@
         <v>0</v>
       </c>
       <c r="H187">
-        <f>VALUE(_xlfn.CONCAT(D187,E187,F187,G187))</f>
+        <f t="shared" si="5"/>
         <v>30820</v>
       </c>
     </row>
@@ -25334,18 +25322,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66AA4A9-AB24-42FC-B620-3CE38CD4AD9A}">
   <dimension ref="A1:J758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A738" workbookViewId="0">
-      <selection activeCell="K743" sqref="K743"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="M55" sqref="M55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="21.140625" customWidth="1"/>
     <col min="4" max="4" width="39.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="B1" t="s">
         <v>403</v>
@@ -25369,10 +25358,10 @@
         <v>419</v>
       </c>
       <c r="I1" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
       <c r="J1" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -25409,7 +25398,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B3" t="s">
         <v>405</v>
@@ -25442,7 +25431,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B4" t="s">
         <v>405</v>
@@ -25474,7 +25463,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B5" t="s">
         <v>405</v>
@@ -25538,7 +25527,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B7" t="s">
         <v>406</v>
@@ -25571,7 +25560,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B8" t="s">
         <v>406</v>
@@ -25603,7 +25592,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B9" t="s">
         <v>406</v>
@@ -25667,7 +25656,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B11" t="s">
         <v>405</v>
@@ -25700,7 +25689,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B12" t="s">
         <v>405</v>
@@ -25732,7 +25721,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B13" t="s">
         <v>405</v>
@@ -25796,7 +25785,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B15" t="s">
         <v>406</v>
@@ -25829,7 +25818,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B16" t="s">
         <v>406</v>
@@ -25861,7 +25850,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B17" t="s">
         <v>406</v>
@@ -25925,7 +25914,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B19" t="s">
         <v>405</v>
@@ -25958,7 +25947,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B20" t="s">
         <v>405</v>
@@ -25990,7 +25979,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B21" t="s">
         <v>405</v>
@@ -26022,7 +26011,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B22" t="s">
         <v>405</v>
@@ -26086,7 +26075,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B24" t="s">
         <v>406</v>
@@ -26119,7 +26108,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B25" t="s">
         <v>406</v>
@@ -26151,7 +26140,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B26" t="s">
         <v>406</v>
@@ -26215,7 +26204,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B28" t="s">
         <v>405</v>
@@ -26248,7 +26237,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B29" t="s">
         <v>405</v>
@@ -26280,7 +26269,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B30" t="s">
         <v>405</v>
@@ -26344,7 +26333,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B32" t="s">
         <v>406</v>
@@ -26377,7 +26366,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B33" t="s">
         <v>406</v>
@@ -26409,7 +26398,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B34" t="s">
         <v>406</v>
@@ -26473,7 +26462,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B36" t="s">
         <v>405</v>
@@ -26506,7 +26495,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B37" t="s">
         <v>405</v>
@@ -26538,7 +26527,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B38" t="s">
         <v>405</v>
@@ -26602,7 +26591,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B40" t="s">
         <v>406</v>
@@ -26635,7 +26624,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B41" t="s">
         <v>406</v>
@@ -26667,7 +26656,7 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B42" t="s">
         <v>406</v>
@@ -26731,7 +26720,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B44" t="s">
         <v>405</v>
@@ -26764,7 +26753,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B45" t="s">
         <v>405</v>
@@ -26796,7 +26785,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B46" t="s">
         <v>405</v>
@@ -26860,7 +26849,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B48" t="s">
         <v>406</v>
@@ -26893,7 +26882,7 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B49" t="s">
         <v>406</v>
@@ -26925,7 +26914,7 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B50" t="s">
         <v>406</v>
@@ -26957,7 +26946,7 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B51" t="s">
         <v>405</v>
@@ -26984,12 +26973,12 @@
         <v>10030</v>
       </c>
       <c r="J51" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B52" t="s">
         <v>405</v>
@@ -27022,7 +27011,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B53" t="s">
         <v>405</v>
@@ -27086,7 +27075,7 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B55" t="s">
         <v>405</v>
@@ -27118,7 +27107,7 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B56" t="s">
         <v>406</v>
@@ -27151,7 +27140,7 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B57" t="s">
         <v>406</v>
@@ -27215,7 +27204,7 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B59" t="s">
         <v>406</v>
@@ -27247,7 +27236,7 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B60" t="s">
         <v>405</v>
@@ -27280,7 +27269,7 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B61" t="s">
         <v>405</v>
@@ -27344,7 +27333,7 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B63" t="s">
         <v>405</v>
@@ -27376,7 +27365,7 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B64" t="s">
         <v>406</v>
@@ -27409,7 +27398,7 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B65" t="s">
         <v>406</v>
@@ -27473,7 +27462,7 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B67" t="s">
         <v>406</v>
@@ -27537,7 +27526,7 @@
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B69" t="s">
         <v>405</v>
@@ -27570,7 +27559,7 @@
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B70" t="s">
         <v>405</v>
@@ -27602,7 +27591,7 @@
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B71" t="s">
         <v>405</v>
@@ -27666,7 +27655,7 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B73" t="s">
         <v>406</v>
@@ -27699,7 +27688,7 @@
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B74" t="s">
         <v>406</v>
@@ -27731,7 +27720,7 @@
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B75" t="s">
         <v>406</v>
@@ -27795,7 +27784,7 @@
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B77" t="s">
         <v>405</v>
@@ -27828,7 +27817,7 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B78" t="s">
         <v>405</v>
@@ -27860,7 +27849,7 @@
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B79" t="s">
         <v>405</v>
@@ -27924,7 +27913,7 @@
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B81" t="s">
         <v>406</v>
@@ -27957,7 +27946,7 @@
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B82" t="s">
         <v>406</v>
@@ -27989,7 +27978,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B83" t="s">
         <v>406</v>
@@ -28053,7 +28042,7 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B85" t="s">
         <v>405</v>
@@ -28086,7 +28075,7 @@
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B86" t="s">
         <v>405</v>
@@ -28118,7 +28107,7 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B87" t="s">
         <v>405</v>
@@ -28182,7 +28171,7 @@
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B89" t="s">
         <v>406</v>
@@ -28215,7 +28204,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B90" t="s">
         <v>406</v>
@@ -28247,7 +28236,7 @@
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B91" t="s">
         <v>406</v>
@@ -28311,7 +28300,7 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B93" t="s">
         <v>405</v>
@@ -28344,7 +28333,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B94" t="s">
         <v>405</v>
@@ -28376,7 +28365,7 @@
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B95" t="s">
         <v>405</v>
@@ -28440,7 +28429,7 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B97" t="s">
         <v>406</v>
@@ -28473,7 +28462,7 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B98" t="s">
         <v>406</v>
@@ -28505,7 +28494,7 @@
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B99" t="s">
         <v>406</v>
@@ -28569,7 +28558,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B101" t="s">
         <v>405</v>
@@ -28602,7 +28591,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B102" t="s">
         <v>405</v>
@@ -28634,7 +28623,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B103" t="s">
         <v>405</v>
@@ -28698,7 +28687,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B105" t="s">
         <v>406</v>
@@ -28731,7 +28720,7 @@
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B106" t="s">
         <v>406</v>
@@ -28763,7 +28752,7 @@
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B107" t="s">
         <v>406</v>
@@ -28827,7 +28816,7 @@
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B109" t="s">
         <v>405</v>
@@ -28860,7 +28849,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B110" t="s">
         <v>405</v>
@@ -28892,7 +28881,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B111" t="s">
         <v>405</v>
@@ -28956,7 +28945,7 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B113" t="s">
         <v>406</v>
@@ -28989,7 +28978,7 @@
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B114" t="s">
         <v>406</v>
@@ -29021,7 +29010,7 @@
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B115" t="s">
         <v>406</v>
@@ -29085,7 +29074,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B117" t="s">
         <v>405</v>
@@ -29118,7 +29107,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B118" t="s">
         <v>405</v>
@@ -29150,7 +29139,7 @@
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B119" t="s">
         <v>405</v>
@@ -29214,7 +29203,7 @@
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B121" t="s">
         <v>406</v>
@@ -29247,7 +29236,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B122" t="s">
         <v>406</v>
@@ -29279,7 +29268,7 @@
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B123" t="s">
         <v>406</v>
@@ -29343,7 +29332,7 @@
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B125" t="s">
         <v>405</v>
@@ -29376,7 +29365,7 @@
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B126" t="s">
         <v>405</v>
@@ -29408,7 +29397,7 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B127" t="s">
         <v>405</v>
@@ -29472,7 +29461,7 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B129" t="s">
         <v>406</v>
@@ -29505,7 +29494,7 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B130" t="s">
         <v>406</v>
@@ -29537,7 +29526,7 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B131" t="s">
         <v>406</v>
@@ -29601,7 +29590,7 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B133" t="s">
         <v>405</v>
@@ -29634,7 +29623,7 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B134" t="s">
         <v>405</v>
@@ -29666,7 +29655,7 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B135" t="s">
         <v>405</v>
@@ -29730,7 +29719,7 @@
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B137" t="s">
         <v>406</v>
@@ -29763,7 +29752,7 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B138" t="s">
         <v>406</v>
@@ -29795,7 +29784,7 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B139" t="s">
         <v>406</v>
@@ -29859,7 +29848,7 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B141" t="s">
         <v>405</v>
@@ -29892,7 +29881,7 @@
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B142" t="s">
         <v>405</v>
@@ -29924,7 +29913,7 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B143" t="s">
         <v>405</v>
@@ -29988,7 +29977,7 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B145" t="s">
         <v>406</v>
@@ -30021,7 +30010,7 @@
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B146" t="s">
         <v>406</v>
@@ -30053,7 +30042,7 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B147" t="s">
         <v>406</v>
@@ -30117,7 +30106,7 @@
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B149" t="s">
         <v>405</v>
@@ -30150,7 +30139,7 @@
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B150" t="s">
         <v>405</v>
@@ -30182,7 +30171,7 @@
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B151" t="s">
         <v>405</v>
@@ -30246,7 +30235,7 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B153" t="s">
         <v>406</v>
@@ -30279,7 +30268,7 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B154" t="s">
         <v>406</v>
@@ -30311,7 +30300,7 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B155" t="s">
         <v>406</v>
@@ -30375,7 +30364,7 @@
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B157" t="s">
         <v>405</v>
@@ -30408,7 +30397,7 @@
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B158" t="s">
         <v>405</v>
@@ -30440,7 +30429,7 @@
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B159" t="s">
         <v>405</v>
@@ -30504,7 +30493,7 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B161" t="s">
         <v>406</v>
@@ -30537,7 +30526,7 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B162" t="s">
         <v>406</v>
@@ -30569,7 +30558,7 @@
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B163" t="s">
         <v>406</v>
@@ -30633,7 +30622,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B165" t="s">
         <v>405</v>
@@ -30666,7 +30655,7 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B166" t="s">
         <v>405</v>
@@ -30698,7 +30687,7 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B167" t="s">
         <v>405</v>
@@ -30762,7 +30751,7 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B169" t="s">
         <v>406</v>
@@ -30795,7 +30784,7 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B170" t="s">
         <v>406</v>
@@ -30827,7 +30816,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B171" t="s">
         <v>406</v>
@@ -30891,7 +30880,7 @@
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B173" t="s">
         <v>405</v>
@@ -30924,7 +30913,7 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B174" t="s">
         <v>405</v>
@@ -30956,7 +30945,7 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B175" t="s">
         <v>405</v>
@@ -31020,7 +31009,7 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B177" t="s">
         <v>406</v>
@@ -31053,7 +31042,7 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B178" t="s">
         <v>406</v>
@@ -31085,7 +31074,7 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B179" t="s">
         <v>406</v>
@@ -31149,7 +31138,7 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B181" t="s">
         <v>405</v>
@@ -31182,7 +31171,7 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B182" t="s">
         <v>405</v>
@@ -31214,7 +31203,7 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B183" t="s">
         <v>405</v>
@@ -31278,7 +31267,7 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B185" t="s">
         <v>406</v>
@@ -31311,7 +31300,7 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B186" t="s">
         <v>406</v>
@@ -31343,7 +31332,7 @@
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B187" t="s">
         <v>406</v>
@@ -31375,7 +31364,7 @@
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B188" t="s">
         <v>405</v>
@@ -31408,7 +31397,7 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B189" t="s">
         <v>405</v>
@@ -31472,7 +31461,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B191" t="s">
         <v>405</v>
@@ -31504,7 +31493,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B192" t="s">
         <v>406</v>
@@ -31537,7 +31526,7 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B193" t="s">
         <v>406</v>
@@ -31601,7 +31590,7 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B195" t="s">
         <v>406</v>
@@ -31665,7 +31654,7 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B197" t="s">
         <v>405</v>
@@ -31698,7 +31687,7 @@
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B198" t="s">
         <v>405</v>
@@ -31730,7 +31719,7 @@
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B199" t="s">
         <v>405</v>
@@ -31794,7 +31783,7 @@
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B201" t="s">
         <v>406</v>
@@ -31827,7 +31816,7 @@
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B202" t="s">
         <v>406</v>
@@ -31859,7 +31848,7 @@
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B203" t="s">
         <v>406</v>
@@ -31891,7 +31880,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B204" t="s">
         <v>406</v>
@@ -31924,7 +31913,7 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B205" t="s">
         <v>406</v>
@@ -31988,7 +31977,7 @@
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B207" t="s">
         <v>406</v>
@@ -32020,7 +32009,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B208" t="s">
         <v>405</v>
@@ -32053,7 +32042,7 @@
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B209" t="s">
         <v>405</v>
@@ -32117,7 +32106,7 @@
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B211" t="s">
         <v>405</v>
@@ -32181,7 +32170,7 @@
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B213" t="s">
         <v>406</v>
@@ -32214,7 +32203,7 @@
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B214" t="s">
         <v>406</v>
@@ -32246,7 +32235,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B215" t="s">
         <v>406</v>
@@ -32310,7 +32299,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B217" t="s">
         <v>405</v>
@@ -32343,7 +32332,7 @@
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B218" t="s">
         <v>405</v>
@@ -32375,7 +32364,7 @@
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B219" t="s">
         <v>405</v>
@@ -32407,7 +32396,7 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B220" t="s">
         <v>406</v>
@@ -32440,7 +32429,7 @@
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B221" t="s">
         <v>406</v>
@@ -32504,7 +32493,7 @@
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B223" t="s">
         <v>406</v>
@@ -32536,7 +32525,7 @@
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B224" t="s">
         <v>405</v>
@@ -32569,7 +32558,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B225" t="s">
         <v>405</v>
@@ -32633,7 +32622,7 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B227" t="s">
         <v>405</v>
@@ -32697,7 +32686,7 @@
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B229" t="s">
         <v>406</v>
@@ -32730,7 +32719,7 @@
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B230" t="s">
         <v>406</v>
@@ -32762,7 +32751,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B231" t="s">
         <v>406</v>
@@ -32826,7 +32815,7 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B233" t="s">
         <v>405</v>
@@ -32859,7 +32848,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B234" t="s">
         <v>405</v>
@@ -32891,7 +32880,7 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B235" t="s">
         <v>405</v>
@@ -32955,7 +32944,7 @@
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B237" t="s">
         <v>406</v>
@@ -32988,7 +32977,7 @@
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B238" t="s">
         <v>406</v>
@@ -33052,7 +33041,7 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B240" t="s">
         <v>406</v>
@@ -33116,7 +33105,7 @@
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B242" t="s">
         <v>405</v>
@@ -33149,7 +33138,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B243" t="s">
         <v>405</v>
@@ -33181,7 +33170,7 @@
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B244" t="s">
         <v>405</v>
@@ -33245,7 +33234,7 @@
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B246" t="s">
         <v>406</v>
@@ -33278,7 +33267,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B247" t="s">
         <v>406</v>
@@ -33310,7 +33299,7 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B248" t="s">
         <v>406</v>
@@ -33374,7 +33363,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B250" t="s">
         <v>405</v>
@@ -33407,7 +33396,7 @@
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B251" t="s">
         <v>405</v>
@@ -33439,7 +33428,7 @@
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B252" t="s">
         <v>405</v>
@@ -33503,7 +33492,7 @@
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B254" t="s">
         <v>406</v>
@@ -33536,7 +33525,7 @@
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B255" t="s">
         <v>406</v>
@@ -33568,7 +33557,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B256" t="s">
         <v>406</v>
@@ -33632,7 +33621,7 @@
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B258" t="s">
         <v>405</v>
@@ -33665,7 +33654,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B259" t="s">
         <v>405</v>
@@ -33697,7 +33686,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B260" t="s">
         <v>405</v>
@@ -33761,7 +33750,7 @@
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B262" t="s">
         <v>406</v>
@@ -33794,7 +33783,7 @@
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B263" t="s">
         <v>406</v>
@@ -33826,7 +33815,7 @@
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B264" t="s">
         <v>406</v>
@@ -33890,7 +33879,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B266" t="s">
         <v>405</v>
@@ -33923,7 +33912,7 @@
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B267" t="s">
         <v>405</v>
@@ -33955,7 +33944,7 @@
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B268" t="s">
         <v>405</v>
@@ -34019,7 +34008,7 @@
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B270" t="s">
         <v>406</v>
@@ -34052,7 +34041,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B271" t="s">
         <v>406</v>
@@ -34084,7 +34073,7 @@
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B272" t="s">
         <v>406</v>
@@ -34148,7 +34137,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B274" t="s">
         <v>405</v>
@@ -34181,7 +34170,7 @@
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B275" t="s">
         <v>405</v>
@@ -34213,7 +34202,7 @@
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B276" t="s">
         <v>405</v>
@@ -34277,7 +34266,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B278" t="s">
         <v>406</v>
@@ -34310,7 +34299,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B279" t="s">
         <v>406</v>
@@ -34342,7 +34331,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B280" t="s">
         <v>406</v>
@@ -34406,7 +34395,7 @@
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B282" t="s">
         <v>405</v>
@@ -34439,7 +34428,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B283" t="s">
         <v>405</v>
@@ -34471,7 +34460,7 @@
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B284" t="s">
         <v>405</v>
@@ -34535,7 +34524,7 @@
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B286" t="s">
         <v>406</v>
@@ -34568,7 +34557,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B287" t="s">
         <v>406</v>
@@ -34600,7 +34589,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B288" t="s">
         <v>406</v>
@@ -34664,7 +34653,7 @@
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B290" t="s">
         <v>405</v>
@@ -34697,7 +34686,7 @@
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B291" t="s">
         <v>405</v>
@@ -34729,7 +34718,7 @@
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B292" t="s">
         <v>405</v>
@@ -34793,7 +34782,7 @@
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B294" t="s">
         <v>406</v>
@@ -34826,7 +34815,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B295" t="s">
         <v>406</v>
@@ -34858,7 +34847,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B296" t="s">
         <v>406</v>
@@ -34922,7 +34911,7 @@
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B298" t="s">
         <v>405</v>
@@ -34955,7 +34944,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B299" t="s">
         <v>405</v>
@@ -34987,7 +34976,7 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B300" t="s">
         <v>405</v>
@@ -35051,7 +35040,7 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B302" t="s">
         <v>406</v>
@@ -35084,7 +35073,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B303" t="s">
         <v>406</v>
@@ -35116,7 +35105,7 @@
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B304" t="s">
         <v>406</v>
@@ -35180,7 +35169,7 @@
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B306" t="s">
         <v>405</v>
@@ -35213,7 +35202,7 @@
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B307" t="s">
         <v>405</v>
@@ -35245,7 +35234,7 @@
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B308" t="s">
         <v>405</v>
@@ -35309,7 +35298,7 @@
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B310" t="s">
         <v>406</v>
@@ -35342,7 +35331,7 @@
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B311" t="s">
         <v>406</v>
@@ -35374,7 +35363,7 @@
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B312" t="s">
         <v>406</v>
@@ -35438,7 +35427,7 @@
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B314" t="s">
         <v>405</v>
@@ -35471,7 +35460,7 @@
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B315" t="s">
         <v>405</v>
@@ -35503,7 +35492,7 @@
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B316" t="s">
         <v>405</v>
@@ -35567,7 +35556,7 @@
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B318" t="s">
         <v>406</v>
@@ -35600,7 +35589,7 @@
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B319" t="s">
         <v>406</v>
@@ -35632,7 +35621,7 @@
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B320" t="s">
         <v>406</v>
@@ -35696,7 +35685,7 @@
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B322" t="s">
         <v>405</v>
@@ -35729,7 +35718,7 @@
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B323" t="s">
         <v>405</v>
@@ -35761,7 +35750,7 @@
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B324" t="s">
         <v>405</v>
@@ -35825,7 +35814,7 @@
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B326" t="s">
         <v>406</v>
@@ -35858,7 +35847,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B327" t="s">
         <v>406</v>
@@ -35890,7 +35879,7 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B328" t="s">
         <v>406</v>
@@ -35954,7 +35943,7 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B330" t="s">
         <v>405</v>
@@ -35987,7 +35976,7 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B331" t="s">
         <v>405</v>
@@ -36019,7 +36008,7 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B332" t="s">
         <v>405</v>
@@ -36051,7 +36040,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B333" t="s">
         <v>406</v>
@@ -36084,7 +36073,7 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B334" t="s">
         <v>406</v>
@@ -36148,7 +36137,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B336" t="s">
         <v>406</v>
@@ -36180,7 +36169,7 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B337" t="s">
         <v>405</v>
@@ -36212,7 +36201,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B338" t="s">
         <v>405</v>
@@ -36277,7 +36266,7 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B340" t="s">
         <v>405</v>
@@ -36341,7 +36330,7 @@
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B342" t="s">
         <v>406</v>
@@ -36374,7 +36363,7 @@
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B343" t="s">
         <v>406</v>
@@ -36406,7 +36395,7 @@
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B344" t="s">
         <v>406</v>
@@ -36470,7 +36459,7 @@
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B346" t="s">
         <v>405</v>
@@ -36503,7 +36492,7 @@
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B347" t="s">
         <v>405</v>
@@ -36535,7 +36524,7 @@
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B348" t="s">
         <v>405</v>
@@ -36567,7 +36556,7 @@
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B349" t="s">
         <v>406</v>
@@ -36600,7 +36589,7 @@
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B350" t="s">
         <v>406</v>
@@ -36664,7 +36653,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B352" t="s">
         <v>406</v>
@@ -36696,7 +36685,7 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B353" t="s">
         <v>405</v>
@@ -36729,7 +36718,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B354" t="s">
         <v>405</v>
@@ -36793,7 +36782,7 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B356" t="s">
         <v>405</v>
@@ -36857,7 +36846,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B358" t="s">
         <v>406</v>
@@ -36890,7 +36879,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B359" t="s">
         <v>406</v>
@@ -36922,7 +36911,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B360" t="s">
         <v>406</v>
@@ -36986,7 +36975,7 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B362" t="s">
         <v>405</v>
@@ -37019,7 +37008,7 @@
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B363" t="s">
         <v>405</v>
@@ -37051,7 +37040,7 @@
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B364" t="s">
         <v>405</v>
@@ -37115,7 +37104,7 @@
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B366" t="s">
         <v>406</v>
@@ -37148,7 +37137,7 @@
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B367" t="s">
         <v>406</v>
@@ -37180,7 +37169,7 @@
     </row>
     <row r="368" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B368" t="s">
         <v>406</v>
@@ -37244,7 +37233,7 @@
     </row>
     <row r="370" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B370" t="s">
         <v>405</v>
@@ -37277,7 +37266,7 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B371" t="s">
         <v>405</v>
@@ -37309,7 +37298,7 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B372" t="s">
         <v>405</v>
@@ -37373,7 +37362,7 @@
     </row>
     <row r="374" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B374" t="s">
         <v>406</v>
@@ -37406,7 +37395,7 @@
     </row>
     <row r="375" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B375" t="s">
         <v>406</v>
@@ -37438,7 +37427,7 @@
     </row>
     <row r="376" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B376" t="s">
         <v>406</v>
@@ -37502,7 +37491,7 @@
     </row>
     <row r="378" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B378" t="s">
         <v>405</v>
@@ -37535,7 +37524,7 @@
     </row>
     <row r="379" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B379" t="s">
         <v>405</v>
@@ -37567,7 +37556,7 @@
     </row>
     <row r="380" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B380" t="s">
         <v>405</v>
@@ -37631,7 +37620,7 @@
     </row>
     <row r="382" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B382" t="s">
         <v>406</v>
@@ -37664,7 +37653,7 @@
     </row>
     <row r="383" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B383" t="s">
         <v>406</v>
@@ -37696,7 +37685,7 @@
     </row>
     <row r="384" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B384" t="s">
         <v>406</v>
@@ -37760,7 +37749,7 @@
     </row>
     <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B386" t="s">
         <v>405</v>
@@ -37793,7 +37782,7 @@
     </row>
     <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B387" t="s">
         <v>405</v>
@@ -37825,7 +37814,7 @@
     </row>
     <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B388" t="s">
         <v>405</v>
@@ -37889,7 +37878,7 @@
     </row>
     <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B390" t="s">
         <v>406</v>
@@ -37922,7 +37911,7 @@
     </row>
     <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B391" t="s">
         <v>406</v>
@@ -37954,7 +37943,7 @@
     </row>
     <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B392" t="s">
         <v>406</v>
@@ -38018,7 +38007,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B394" t="s">
         <v>406</v>
@@ -38082,7 +38071,7 @@
     </row>
     <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B396" t="s">
         <v>405</v>
@@ -38115,7 +38104,7 @@
     </row>
     <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B397" t="s">
         <v>405</v>
@@ -38147,7 +38136,7 @@
     </row>
     <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B398" t="s">
         <v>405</v>
@@ -38211,7 +38200,7 @@
     </row>
     <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B400" t="s">
         <v>405</v>
@@ -38243,7 +38232,7 @@
     </row>
     <row r="401" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B401" t="s">
         <v>406</v>
@@ -38275,7 +38264,7 @@
     </row>
     <row r="402" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B402" t="s">
         <v>406</v>
@@ -38339,7 +38328,7 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B404" t="s">
         <v>405</v>
@@ -38403,7 +38392,7 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B406" t="s">
         <v>406</v>
@@ -38435,7 +38424,7 @@
     </row>
     <row r="407" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B407" t="s">
         <v>405</v>
@@ -38467,7 +38456,7 @@
     </row>
     <row r="408" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B408" t="s">
         <v>405</v>
@@ -38531,7 +38520,7 @@
     </row>
     <row r="410" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B410" t="s">
         <v>406</v>
@@ -38563,7 +38552,7 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B411" t="s">
         <v>405</v>
@@ -38595,7 +38584,7 @@
     </row>
     <row r="412" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B412" t="s">
         <v>405</v>
@@ -38627,7 +38616,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B413" t="s">
         <v>406</v>
@@ -38659,7 +38648,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B414" t="s">
         <v>406</v>
@@ -38723,7 +38712,7 @@
     </row>
     <row r="416" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B416" t="s">
         <v>405</v>
@@ -38787,7 +38776,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B418" t="s">
         <v>406</v>
@@ -38820,7 +38809,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B419" t="s">
         <v>406</v>
@@ -38852,7 +38841,7 @@
     </row>
     <row r="420" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B420" t="s">
         <v>406</v>
@@ -38916,7 +38905,7 @@
     </row>
     <row r="422" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B422" t="s">
         <v>405</v>
@@ -38949,7 +38938,7 @@
     </row>
     <row r="423" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B423" t="s">
         <v>405</v>
@@ -38981,7 +38970,7 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B424" t="s">
         <v>405</v>
@@ -39013,7 +39002,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B425" t="s">
         <v>406</v>
@@ -39046,7 +39035,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B426" t="s">
         <v>406</v>
@@ -39110,7 +39099,7 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B428" t="s">
         <v>406</v>
@@ -39142,7 +39131,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B429" t="s">
         <v>405</v>
@@ -39175,7 +39164,7 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B430" t="s">
         <v>405</v>
@@ -39239,7 +39228,7 @@
     </row>
     <row r="432" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B432" t="s">
         <v>405</v>
@@ -39303,7 +39292,7 @@
     </row>
     <row r="434" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B434" t="s">
         <v>406</v>
@@ -39336,7 +39325,7 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B435" t="s">
         <v>406</v>
@@ -39368,7 +39357,7 @@
     </row>
     <row r="436" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B436" t="s">
         <v>406</v>
@@ -39432,7 +39421,7 @@
     </row>
     <row r="438" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B438" t="s">
         <v>405</v>
@@ -39465,7 +39454,7 @@
     </row>
     <row r="439" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B439" t="s">
         <v>405</v>
@@ -39497,7 +39486,7 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B440" t="s">
         <v>405</v>
@@ -39561,7 +39550,7 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B442" t="s">
         <v>406</v>
@@ -39594,7 +39583,7 @@
     </row>
     <row r="443" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B443" t="s">
         <v>406</v>
@@ -39626,7 +39615,7 @@
     </row>
     <row r="444" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B444" t="s">
         <v>406</v>
@@ -39690,7 +39679,7 @@
     </row>
     <row r="446" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B446" t="s">
         <v>405</v>
@@ -39723,7 +39712,7 @@
     </row>
     <row r="447" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B447" t="s">
         <v>405</v>
@@ -39755,7 +39744,7 @@
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B448" t="s">
         <v>405</v>
@@ -39819,7 +39808,7 @@
     </row>
     <row r="450" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B450" t="s">
         <v>406</v>
@@ -39852,7 +39841,7 @@
     </row>
     <row r="451" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B451" t="s">
         <v>406</v>
@@ -39884,7 +39873,7 @@
     </row>
     <row r="452" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B452" t="s">
         <v>406</v>
@@ -39948,7 +39937,7 @@
     </row>
     <row r="454" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B454" t="s">
         <v>405</v>
@@ -39981,7 +39970,7 @@
     </row>
     <row r="455" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B455" t="s">
         <v>405</v>
@@ -40013,7 +40002,7 @@
     </row>
     <row r="456" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B456" t="s">
         <v>405</v>
@@ -40045,7 +40034,7 @@
     </row>
     <row r="457" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B457" t="s">
         <v>406</v>
@@ -40078,7 +40067,7 @@
     </row>
     <row r="458" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B458" t="s">
         <v>406</v>
@@ -40142,7 +40131,7 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B460" t="s">
         <v>406</v>
@@ -40174,7 +40163,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B461" t="s">
         <v>405</v>
@@ -40207,7 +40196,7 @@
     </row>
     <row r="462" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B462" t="s">
         <v>405</v>
@@ -40271,7 +40260,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B464" t="s">
         <v>405</v>
@@ -40335,7 +40324,7 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B466" t="s">
         <v>406</v>
@@ -40368,7 +40357,7 @@
     </row>
     <row r="467" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B467" t="s">
         <v>406</v>
@@ -40400,7 +40389,7 @@
     </row>
     <row r="468" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B468" t="s">
         <v>406</v>
@@ -40464,7 +40453,7 @@
     </row>
     <row r="470" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B470" t="s">
         <v>405</v>
@@ -40497,7 +40486,7 @@
     </row>
     <row r="471" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B471" t="s">
         <v>405</v>
@@ -40529,7 +40518,7 @@
     </row>
     <row r="472" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B472" t="s">
         <v>405</v>
@@ -40593,7 +40582,7 @@
     </row>
     <row r="474" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B474" t="s">
         <v>406</v>
@@ -40626,7 +40615,7 @@
     </row>
     <row r="475" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B475" t="s">
         <v>406</v>
@@ -40658,7 +40647,7 @@
     </row>
     <row r="476" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B476" t="s">
         <v>406</v>
@@ -40722,7 +40711,7 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B478" t="s">
         <v>405</v>
@@ -40755,7 +40744,7 @@
     </row>
     <row r="479" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B479" t="s">
         <v>405</v>
@@ -40787,7 +40776,7 @@
     </row>
     <row r="480" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B480" t="s">
         <v>405</v>
@@ -40851,7 +40840,7 @@
     </row>
     <row r="482" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B482" t="s">
         <v>406</v>
@@ -40884,7 +40873,7 @@
     </row>
     <row r="483" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B483" t="s">
         <v>406</v>
@@ -40916,7 +40905,7 @@
     </row>
     <row r="484" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B484" t="s">
         <v>406</v>
@@ -40980,7 +40969,7 @@
     </row>
     <row r="486" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B486" t="s">
         <v>405</v>
@@ -41013,7 +41002,7 @@
     </row>
     <row r="487" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B487" t="s">
         <v>405</v>
@@ -41045,7 +41034,7 @@
     </row>
     <row r="488" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B488" t="s">
         <v>405</v>
@@ -41077,7 +41066,7 @@
     </row>
     <row r="489" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B489" t="s">
         <v>406</v>
@@ -41110,7 +41099,7 @@
     </row>
     <row r="490" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B490" t="s">
         <v>406</v>
@@ -41174,7 +41163,7 @@
     </row>
     <row r="492" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B492" t="s">
         <v>406</v>
@@ -41206,7 +41195,7 @@
     </row>
     <row r="493" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B493" t="s">
         <v>405</v>
@@ -41239,7 +41228,7 @@
     </row>
     <row r="494" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B494" t="s">
         <v>405</v>
@@ -41303,7 +41292,7 @@
     </row>
     <row r="496" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B496" t="s">
         <v>405</v>
@@ -41335,7 +41324,7 @@
     </row>
     <row r="497" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B497" t="s">
         <v>406</v>
@@ -41399,7 +41388,7 @@
     </row>
     <row r="499" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B499" t="s">
         <v>406</v>
@@ -41463,7 +41452,7 @@
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B501" t="s">
         <v>406</v>
@@ -41496,7 +41485,7 @@
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B502" t="s">
         <v>406</v>
@@ -41528,7 +41517,7 @@
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B503" t="s">
         <v>406</v>
@@ -41560,7 +41549,7 @@
     </row>
     <row r="504" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B504" t="s">
         <v>405</v>
@@ -41624,7 +41613,7 @@
     </row>
     <row r="506" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B506" t="s">
         <v>405</v>
@@ -41688,7 +41677,7 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B508" t="s">
         <v>405</v>
@@ -41720,7 +41709,7 @@
     </row>
     <row r="509" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B509" t="s">
         <v>405</v>
@@ -41753,7 +41742,7 @@
     </row>
     <row r="510" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B510" t="s">
         <v>405</v>
@@ -41785,7 +41774,7 @@
     </row>
     <row r="511" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B511" t="s">
         <v>406</v>
@@ -41818,7 +41807,7 @@
     </row>
     <row r="512" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B512" t="s">
         <v>405</v>
@@ -41851,7 +41840,7 @@
     </row>
     <row r="513" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B513" t="s">
         <v>406</v>
@@ -41884,7 +41873,7 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B514" t="s">
         <v>406</v>
@@ -41948,7 +41937,7 @@
     </row>
     <row r="516" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B516" t="s">
         <v>406</v>
@@ -41980,7 +41969,7 @@
     </row>
     <row r="517" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B517" t="s">
         <v>405</v>
@@ -42013,7 +42002,7 @@
     </row>
     <row r="518" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B518" t="s">
         <v>405</v>
@@ -42077,7 +42066,7 @@
     </row>
     <row r="520" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B520" t="s">
         <v>405</v>
@@ -42109,7 +42098,7 @@
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B521" t="s">
         <v>406</v>
@@ -42142,7 +42131,7 @@
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B522" t="s">
         <v>406</v>
@@ -42206,7 +42195,7 @@
     </row>
     <row r="524" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B524" t="s">
         <v>406</v>
@@ -42239,7 +42228,7 @@
     </row>
     <row r="525" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B525" t="s">
         <v>406</v>
@@ -42271,7 +42260,7 @@
     </row>
     <row r="526" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B526" t="s">
         <v>406</v>
@@ -42335,7 +42324,7 @@
     </row>
     <row r="528" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B528" t="s">
         <v>406</v>
@@ -42367,7 +42356,7 @@
     </row>
     <row r="529" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B529" t="s">
         <v>406</v>
@@ -42399,7 +42388,7 @@
     </row>
     <row r="530" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B530" t="s">
         <v>405</v>
@@ -42463,7 +42452,7 @@
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B532" t="s">
         <v>405</v>
@@ -42496,7 +42485,7 @@
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B533" t="s">
         <v>405</v>
@@ -42528,7 +42517,7 @@
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B534" t="s">
         <v>405</v>
@@ -42592,7 +42581,7 @@
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B536" t="s">
         <v>405</v>
@@ -42624,7 +42613,7 @@
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B537" t="s">
         <v>405</v>
@@ -42656,7 +42645,7 @@
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B538" t="s">
         <v>406</v>
@@ -42689,7 +42678,7 @@
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B539" t="s">
         <v>406</v>
@@ -42753,7 +42742,7 @@
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B541" t="s">
         <v>406</v>
@@ -42785,7 +42774,7 @@
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B542" t="s">
         <v>405</v>
@@ -42818,7 +42807,7 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B543" t="s">
         <v>405</v>
@@ -42882,7 +42871,7 @@
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B545" t="s">
         <v>405</v>
@@ -42914,7 +42903,7 @@
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B546" t="s">
         <v>406</v>
@@ -42947,7 +42936,7 @@
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B547" t="s">
         <v>405</v>
@@ -42980,7 +42969,7 @@
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B548" t="s">
         <v>406</v>
@@ -43013,7 +43002,7 @@
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B549" t="s">
         <v>406</v>
@@ -43077,7 +43066,7 @@
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B551" t="s">
         <v>406</v>
@@ -43109,7 +43098,7 @@
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B552" t="s">
         <v>405</v>
@@ -43142,7 +43131,7 @@
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B553" t="s">
         <v>405</v>
@@ -43206,7 +43195,7 @@
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B555" t="s">
         <v>405</v>
@@ -43238,7 +43227,7 @@
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B556" t="s">
         <v>406</v>
@@ -43271,7 +43260,7 @@
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B557" t="s">
         <v>405</v>
@@ -43336,7 +43325,7 @@
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B559" t="s">
         <v>406</v>
@@ -43368,7 +43357,7 @@
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B560" t="s">
         <v>406</v>
@@ -43432,7 +43421,7 @@
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B562" t="s">
         <v>405</v>
@@ -43464,7 +43453,7 @@
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B563" t="s">
         <v>405</v>
@@ -43496,7 +43485,7 @@
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B564" t="s">
         <v>405</v>
@@ -43529,7 +43518,7 @@
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B565" t="s">
         <v>406</v>
@@ -43594,7 +43583,7 @@
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B567" t="s">
         <v>406</v>
@@ -43626,7 +43615,7 @@
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B568" t="s">
         <v>406</v>
@@ -43690,7 +43679,7 @@
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B570" t="s">
         <v>405</v>
@@ -43722,7 +43711,7 @@
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B571" t="s">
         <v>405</v>
@@ -43754,7 +43743,7 @@
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B572" t="s">
         <v>405</v>
@@ -43787,7 +43776,7 @@
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B573" t="s">
         <v>406</v>
@@ -43852,7 +43841,7 @@
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B575" t="s">
         <v>406</v>
@@ -43884,7 +43873,7 @@
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B576" t="s">
         <v>406</v>
@@ -43948,7 +43937,7 @@
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B578" t="s">
         <v>405</v>
@@ -43980,7 +43969,7 @@
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B579" t="s">
         <v>405</v>
@@ -44012,7 +44001,7 @@
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B580" t="s">
         <v>405</v>
@@ -44045,7 +44034,7 @@
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B581" t="s">
         <v>406</v>
@@ -44110,7 +44099,7 @@
     </row>
     <row r="583" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B583" t="s">
         <v>406</v>
@@ -44142,7 +44131,7 @@
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B584" t="s">
         <v>406</v>
@@ -44206,7 +44195,7 @@
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B586" t="s">
         <v>405</v>
@@ -44238,7 +44227,7 @@
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B587" t="s">
         <v>405</v>
@@ -44270,7 +44259,7 @@
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B588" t="s">
         <v>406</v>
@@ -44303,7 +44292,7 @@
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B589" t="s">
         <v>405</v>
@@ -44368,7 +44357,7 @@
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B591" t="s">
         <v>406</v>
@@ -44400,7 +44389,7 @@
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B592" t="s">
         <v>406</v>
@@ -44464,7 +44453,7 @@
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B594" t="s">
         <v>405</v>
@@ -44496,7 +44485,7 @@
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B595" t="s">
         <v>405</v>
@@ -44528,7 +44517,7 @@
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B596" t="s">
         <v>406</v>
@@ -44561,7 +44550,7 @@
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B597" t="s">
         <v>405</v>
@@ -44626,7 +44615,7 @@
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B599" t="s">
         <v>406</v>
@@ -44658,7 +44647,7 @@
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B600" t="s">
         <v>406</v>
@@ -44722,7 +44711,7 @@
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B602" t="s">
         <v>405</v>
@@ -44754,7 +44743,7 @@
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B603" t="s">
         <v>405</v>
@@ -44786,7 +44775,7 @@
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B604" t="s">
         <v>406</v>
@@ -44850,7 +44839,7 @@
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B606" t="s">
         <v>406</v>
@@ -44883,7 +44872,7 @@
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B607" t="s">
         <v>405</v>
@@ -44915,7 +44904,7 @@
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B608" t="s">
         <v>405</v>
@@ -44979,7 +44968,7 @@
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B610" t="s">
         <v>411</v>
@@ -45007,12 +44996,12 @@
         <v>20001</v>
       </c>
       <c r="J610" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B611" t="s">
         <v>411</v>
@@ -45040,12 +45029,12 @@
         <v>20002</v>
       </c>
       <c r="J611" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B612" t="s">
         <v>411</v>
@@ -45073,12 +45062,12 @@
         <v>20003</v>
       </c>
       <c r="J612" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B613" t="s">
         <v>411</v>
@@ -45106,7 +45095,7 @@
         <v>20004</v>
       </c>
       <c r="J613" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.25">
@@ -45138,7 +45127,7 @@
         <v>20010</v>
       </c>
       <c r="J614" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.25">
@@ -45175,7 +45164,7 @@
     </row>
     <row r="616" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B616" t="s">
         <v>411</v>
@@ -45207,7 +45196,7 @@
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B617" t="s">
         <v>411</v>
@@ -45267,7 +45256,7 @@
         <v>20020</v>
       </c>
       <c r="J618" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
@@ -45299,7 +45288,7 @@
         <v>20020</v>
       </c>
       <c r="J619" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
@@ -45331,7 +45320,7 @@
         <v>20030</v>
       </c>
       <c r="J620" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
@@ -45363,12 +45352,12 @@
         <v>20040</v>
       </c>
       <c r="J621" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B622" t="s">
         <v>409</v>
@@ -45396,12 +45385,12 @@
         <v>20074</v>
       </c>
       <c r="J622" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B623" t="s">
         <v>409</v>
@@ -45429,12 +45418,12 @@
         <v>20075</v>
       </c>
       <c r="J623" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B624" t="s">
         <v>409</v>
@@ -45462,12 +45451,12 @@
         <v>20076</v>
       </c>
       <c r="J624" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B625" t="s">
         <v>409</v>
@@ -45495,12 +45484,12 @@
         <v>20077</v>
       </c>
       <c r="J625" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B626" t="s">
         <v>409</v>
@@ -45528,7 +45517,7 @@
         <v>20079</v>
       </c>
       <c r="J626" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
@@ -45565,7 +45554,7 @@
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B628" t="s">
         <v>412</v>
@@ -45662,7 +45651,7 @@
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B631" t="s">
         <v>407</v>
@@ -45726,7 +45715,7 @@
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B633" t="s">
         <v>407</v>
@@ -45758,7 +45747,7 @@
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B634" t="s">
         <v>407</v>
@@ -45818,12 +45807,12 @@
         <v>20210</v>
       </c>
       <c r="J635" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B636" t="s">
         <v>544</v>
@@ -45850,12 +45839,12 @@
         <v>20210</v>
       </c>
       <c r="J636" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B637" t="s">
         <v>408</v>
@@ -45887,7 +45876,7 @@
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B638" t="s">
         <v>408</v>
@@ -45951,7 +45940,7 @@
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B640" t="s">
         <v>407</v>
@@ -46016,7 +46005,7 @@
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B642" t="s">
         <v>408</v>
@@ -46043,12 +46032,12 @@
         <v>20310</v>
       </c>
       <c r="J642" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B643" t="s">
         <v>408</v>
@@ -46075,12 +46064,12 @@
         <v>20310</v>
       </c>
       <c r="J643" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B644" t="s">
         <v>407</v>
@@ -46145,7 +46134,7 @@
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B646" t="s">
         <v>407</v>
@@ -46173,7 +46162,7 @@
         <v>20411</v>
       </c>
       <c r="J646" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
@@ -46210,7 +46199,7 @@
     </row>
     <row r="648" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B648" t="s">
         <v>408</v>
@@ -46237,12 +46226,12 @@
         <v>20420</v>
       </c>
       <c r="J648" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B649" t="s">
         <v>408</v>
@@ -46269,12 +46258,12 @@
         <v>20420</v>
       </c>
       <c r="J649" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B650" t="s">
         <v>407</v>
@@ -46302,7 +46291,7 @@
         <v>20421</v>
       </c>
       <c r="J650" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.25">
@@ -46339,7 +46328,7 @@
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B652" t="s">
         <v>407</v>
@@ -46371,7 +46360,7 @@
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B653" t="s">
         <v>407</v>
@@ -46431,12 +46420,12 @@
         <v>20590</v>
       </c>
       <c r="J654" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B655" t="s">
         <v>407</v>
@@ -46469,7 +46458,7 @@
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B656" t="s">
         <v>408</v>
@@ -46561,12 +46550,12 @@
         <v>20710</v>
       </c>
       <c r="J658" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B659" t="s">
         <v>409</v>
@@ -46593,7 +46582,7 @@
         <v>20710</v>
       </c>
       <c r="J659" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
@@ -46625,12 +46614,12 @@
         <v>20720</v>
       </c>
       <c r="J660" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B661" t="s">
         <v>409</v>
@@ -46657,7 +46646,7 @@
         <v>20720</v>
       </c>
       <c r="J661" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.25">
@@ -46689,12 +46678,12 @@
         <v>20730</v>
       </c>
       <c r="J662" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B663" t="s">
         <v>409</v>
@@ -46721,12 +46710,12 @@
         <v>20730</v>
       </c>
       <c r="J663" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B664" t="s">
         <v>409</v>
@@ -46753,7 +46742,7 @@
         <v>20740</v>
       </c>
       <c r="J664" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
@@ -46790,7 +46779,7 @@
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B666" t="s">
         <v>409</v>
@@ -46822,7 +46811,7 @@
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B667" t="s">
         <v>412</v>
@@ -46850,12 +46839,12 @@
         <v>20750</v>
       </c>
       <c r="J667" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B668" t="s">
         <v>409</v>
@@ -46882,12 +46871,12 @@
         <v>20750</v>
       </c>
       <c r="J668" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B669" t="s">
         <v>409</v>
@@ -46914,12 +46903,12 @@
         <v>20760</v>
       </c>
       <c r="J669" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B670" t="s">
         <v>409</v>
@@ -46946,7 +46935,7 @@
         <v>20770</v>
       </c>
       <c r="J670" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
@@ -46978,12 +46967,12 @@
         <v>20790</v>
       </c>
       <c r="J671" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B672" t="s">
         <v>409</v>
@@ -47010,12 +46999,12 @@
         <v>20790</v>
       </c>
       <c r="J672" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B673" t="s">
         <v>409</v>
@@ -47042,12 +47031,12 @@
         <v>20790</v>
       </c>
       <c r="J673" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B674" t="s">
         <v>528</v>
@@ -47079,7 +47068,7 @@
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B675" t="s">
         <v>544</v>
@@ -47106,7 +47095,7 @@
         <v>20810</v>
       </c>
       <c r="J675" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.25">
@@ -47138,12 +47127,12 @@
         <v>20810</v>
       </c>
       <c r="J676" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B677" t="s">
         <v>482</v>
@@ -47175,7 +47164,7 @@
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B678" t="s">
         <v>482</v>
@@ -47202,7 +47191,7 @@
         <v>30891</v>
       </c>
       <c r="J678" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.25">
@@ -47234,12 +47223,12 @@
         <v>20840</v>
       </c>
       <c r="J679" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B680" t="s">
         <v>528</v>
@@ -47271,7 +47260,7 @@
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B681" t="s">
         <v>528</v>
@@ -47330,7 +47319,7 @@
         <v>20920</v>
       </c>
       <c r="J682" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.25">
@@ -47362,7 +47351,7 @@
         <v>20930</v>
       </c>
       <c r="J683" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.25">
@@ -47394,12 +47383,12 @@
         <v>20940</v>
       </c>
       <c r="J684" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B685" t="s">
         <v>412</v>
@@ -47426,7 +47415,7 @@
         <v>20991</v>
       </c>
       <c r="J685" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.25">
@@ -47495,7 +47484,7 @@
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B688" t="s">
         <v>528</v>
@@ -47527,7 +47516,7 @@
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B689" t="s">
         <v>412</v>
@@ -47592,7 +47581,7 @@
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B691" t="s">
         <v>415</v>
@@ -47624,7 +47613,7 @@
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B692" t="s">
         <v>380</v>
@@ -47688,7 +47677,7 @@
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B694" t="s">
         <v>415</v>
@@ -47720,7 +47709,7 @@
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B695" t="s">
         <v>380</v>
@@ -47784,7 +47773,7 @@
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B697" t="s">
         <v>415</v>
@@ -47816,7 +47805,7 @@
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B698" t="s">
         <v>380</v>
@@ -47880,7 +47869,7 @@
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B700" t="s">
         <v>415</v>
@@ -47912,7 +47901,7 @@
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B701" t="s">
         <v>415</v>
@@ -47944,7 +47933,7 @@
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B702" t="s">
         <v>415</v>
@@ -47971,12 +47960,12 @@
         <v>30390</v>
       </c>
       <c r="J702" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B703" t="s">
         <v>541</v>
@@ -48003,12 +47992,12 @@
         <v>30510</v>
       </c>
       <c r="J703" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B704" t="s">
         <v>541</v>
@@ -48035,7 +48024,7 @@
         <v>30512</v>
       </c>
       <c r="J704" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.25">
@@ -48067,12 +48056,12 @@
         <v>30520</v>
       </c>
       <c r="J705" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B706" t="s">
         <v>541</v>
@@ -48099,12 +48088,12 @@
         <v>30520</v>
       </c>
       <c r="J706" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B707" t="s">
         <v>541</v>
@@ -48131,12 +48120,12 @@
         <v>30520</v>
       </c>
       <c r="J707" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B708" t="s">
         <v>541</v>
@@ -48163,12 +48152,12 @@
         <v>30525</v>
       </c>
       <c r="J708" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B709" t="s">
         <v>541</v>
@@ -48195,7 +48184,7 @@
         <v>30530</v>
       </c>
       <c r="J709" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.25">
@@ -48227,12 +48216,12 @@
         <v>30530</v>
       </c>
       <c r="J710" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B711" t="s">
         <v>541</v>
@@ -48259,12 +48248,12 @@
         <v>30530</v>
       </c>
       <c r="J711" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B712" t="s">
         <v>541</v>
@@ -48291,7 +48280,7 @@
         <v>30540</v>
       </c>
       <c r="J712" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.25">
@@ -48323,12 +48312,12 @@
         <v>30590</v>
       </c>
       <c r="J713" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B714" t="s">
         <v>541</v>
@@ -48355,12 +48344,12 @@
         <v>30590</v>
       </c>
       <c r="J714" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B715" t="s">
         <v>541</v>
@@ -48387,12 +48376,12 @@
         <v>30590</v>
       </c>
       <c r="J715" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B716" t="s">
         <v>541</v>
@@ -48420,12 +48409,12 @@
         <v>30590</v>
       </c>
       <c r="J716" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B717" t="s">
         <v>415</v>
@@ -48452,7 +48441,7 @@
         <v>30599</v>
       </c>
       <c r="J717" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.25">
@@ -48484,12 +48473,12 @@
         <v>30611</v>
       </c>
       <c r="J718" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B719" t="s">
         <v>380</v>
@@ -48516,7 +48505,7 @@
         <v>30611</v>
       </c>
       <c r="J719" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.25">
@@ -48548,12 +48537,12 @@
         <v>30621</v>
       </c>
       <c r="J720" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B721" t="s">
         <v>380</v>
@@ -48580,7 +48569,7 @@
         <v>30621</v>
       </c>
       <c r="J721" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.25">
@@ -48612,12 +48601,12 @@
         <v>30631</v>
       </c>
       <c r="J722" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B723" t="s">
         <v>380</v>
@@ -48644,7 +48633,7 @@
         <v>30631</v>
       </c>
       <c r="J723" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.25">
@@ -48676,12 +48665,12 @@
         <v>30641</v>
       </c>
       <c r="J724" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="725" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B725" t="s">
         <v>380</v>
@@ -48708,12 +48697,12 @@
         <v>30641</v>
       </c>
       <c r="J725" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B726" t="s">
         <v>380</v>
@@ -48740,12 +48729,12 @@
         <v>30650</v>
       </c>
       <c r="J726" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B727" t="s">
         <v>380</v>
@@ -48772,12 +48761,12 @@
         <v>30660</v>
       </c>
       <c r="J727" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B728" t="s">
         <v>380</v>
@@ -48804,12 +48793,12 @@
         <v>30670</v>
       </c>
       <c r="J728" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B729" t="s">
         <v>380</v>
@@ -48836,7 +48825,7 @@
         <v>30680</v>
       </c>
       <c r="J729" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.25">
@@ -48873,7 +48862,7 @@
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B731" t="s">
         <v>380</v>
@@ -48905,7 +48894,7 @@
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B732" t="s">
         <v>380</v>
@@ -48937,7 +48926,7 @@
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B733" t="s">
         <v>380</v>
@@ -48964,12 +48953,12 @@
         <v>30699</v>
       </c>
       <c r="J733" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B734" t="s">
         <v>482</v>
@@ -48996,12 +48985,12 @@
         <v>30892</v>
       </c>
       <c r="J734" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B735" t="s">
         <v>544</v>
@@ -49028,12 +49017,12 @@
         <v>30820</v>
       </c>
       <c r="J735" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B736" t="s">
         <v>544</v>
@@ -49060,7 +49049,7 @@
         <v>30820</v>
       </c>
       <c r="J736" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="737" spans="1:10" x14ac:dyDescent="0.25">
@@ -49092,12 +49081,12 @@
         <v>30820</v>
       </c>
       <c r="J737" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B738" t="s">
         <v>544</v>
@@ -49125,12 +49114,12 @@
         <v>30830</v>
       </c>
       <c r="J738" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B739" t="s">
         <v>482</v>
@@ -49162,7 +49151,7 @@
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B740" t="s">
         <v>528</v>
@@ -49195,7 +49184,7 @@
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B741" t="s">
         <v>528</v>
@@ -49222,12 +49211,12 @@
         <v>30892</v>
       </c>
       <c r="J741" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B742" t="s">
         <v>482</v>
@@ -49254,12 +49243,12 @@
         <v>30892</v>
       </c>
       <c r="J742" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B743" t="s">
         <v>420</v>
@@ -49286,12 +49275,12 @@
         <v>30981</v>
       </c>
       <c r="J743" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B744" t="s">
         <v>420</v>
@@ -49318,7 +49307,7 @@
         <v>30982</v>
       </c>
       <c r="J744" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.25">
@@ -49350,7 +49339,7 @@
         <v>30981</v>
       </c>
       <c r="J745" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.25">
@@ -49382,12 +49371,12 @@
         <v>30982</v>
       </c>
       <c r="J746" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B747" t="s">
         <v>420</v>
@@ -49414,7 +49403,7 @@
         <v>30990</v>
       </c>
       <c r="J747" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.25">
@@ -49451,7 +49440,7 @@
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B749" t="s">
         <v>410</v>
@@ -49479,7 +49468,7 @@
         <v>50101</v>
       </c>
       <c r="J749" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.25">
@@ -49511,7 +49500,7 @@
         <v>50210</v>
       </c>
       <c r="J750" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
     </row>
     <row r="751" spans="1:10" x14ac:dyDescent="0.25">
@@ -49644,7 +49633,7 @@
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B755" t="s">
         <v>410</v>
@@ -49672,12 +49661,12 @@
         <v>50900</v>
       </c>
       <c r="J755" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B756" t="s">
         <v>545</v>
@@ -49704,12 +49693,12 @@
         <v>90000</v>
       </c>
       <c r="J756" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="B757" t="s">
         <v>437</v>
@@ -49742,7 +49731,7 @@
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B758" t="s">
         <v>437</v>
@@ -49804,5 +49793,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/2017 Projektek/iotables/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Antal\OneDrive - Visegrad Investments\2017 Projektek\iotables\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="587" documentId="BBCC240E134AA52ED9EF656885D7EABF48622902" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{A7678307-2E79-4A02-A7FF-F508EC91DD07}"/>
+  <xr:revisionPtr revIDLastSave="593" documentId="BBCC240E134AA52ED9EF656885D7EABF48622902" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{2446E729-E4F1-4DC1-835A-83F7645CCDF6}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4" xr2:uid="{2909AB96-77CF-4A03-A17F-F023092B1853}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6757" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6757" uniqueCount="737">
   <si>
     <t>A</t>
   </si>
@@ -2237,6 +2237,9 @@
   </si>
   <si>
     <t>inventory_valuable_change</t>
+  </si>
+  <si>
+    <t>wholesale_trade_group</t>
   </si>
 </sst>
 </file>
@@ -16164,7 +16167,7 @@
         <v>2</v>
       </c>
       <c r="H66">
-        <f t="shared" ref="H66:H97" si="2">VALUE(_xlfn.CONCAT(D66,E66,F66,G66))</f>
+        <f t="shared" ref="H66:H87" si="2">VALUE(_xlfn.CONCAT(D66,E66,F66,G66))</f>
         <v>10092</v>
       </c>
       <c r="I66" t="s">
@@ -18897,7 +18900,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <f t="shared" ref="H157:H188" si="5">VALUE(_xlfn.CONCAT(D157,E157,F157,G157))</f>
+        <f t="shared" ref="H157:H186" si="5">VALUE(_xlfn.CONCAT(D157,E157,F157,G157))</f>
         <v>20510</v>
       </c>
       <c r="I157" t="s">
@@ -19756,8 +19759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2028A59-D190-4BE7-BF93-1C1CA36FC2A3}">
   <dimension ref="A1:I187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I187" sqref="A2:I187"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21235,7 +21238,7 @@
         <v>10090</v>
       </c>
       <c r="I50" t="s">
-        <v>590</v>
+        <v>736</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -21265,7 +21268,7 @@
         <v>10091</v>
       </c>
       <c r="I51" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -21295,7 +21298,7 @@
         <v>10092</v>
       </c>
       <c r="I52" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -21325,7 +21328,7 @@
         <v>10093</v>
       </c>
       <c r="I53" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -21355,7 +21358,7 @@
         <v>10101</v>
       </c>
       <c r="I54" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -21385,7 +21388,7 @@
         <v>10102</v>
       </c>
       <c r="I55" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -21415,7 +21418,7 @@
         <v>10103</v>
       </c>
       <c r="I56" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -21445,7 +21448,7 @@
         <v>10104</v>
       </c>
       <c r="I57" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -21475,7 +21478,7 @@
         <v>10105</v>
       </c>
       <c r="I58" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -23619,7 +23622,7 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <f t="shared" ref="H130:H161" si="4">VALUE(_xlfn.CONCAT(D130,E130,F130,G130))</f>
+        <f t="shared" ref="H130:H154" si="4">VALUE(_xlfn.CONCAT(D130,E130,F130,G130))</f>
         <v>10051</v>
       </c>
       <c r="I130" t="s">
@@ -25322,8 +25325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66AA4A9-AB24-42FC-B620-3CE38CD4AD9A}">
   <dimension ref="A1:J758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="L156" sqref="L156:L158"/>
+    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
+      <selection activeCell="C623" sqref="C623"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29073,7 +29076,7 @@
         <v>10105</v>
       </c>
       <c r="J117" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
@@ -31342,7 +31345,7 @@
         <v>0</v>
       </c>
       <c r="I188">
-        <f>VALUE(_xlfn.CONCAT(E188,F188,G188,H188))</f>
+        <f t="shared" ref="I188:I219" si="0">VALUE(_xlfn.CONCAT(E188,F188,G188,H188))</f>
         <v>10010</v>
       </c>
       <c r="J188" t="s">
@@ -31375,7 +31378,7 @@
         <v>1</v>
       </c>
       <c r="I189">
-        <f>VALUE(_xlfn.CONCAT(E189,F189,G189,H189))</f>
+        <f t="shared" si="0"/>
         <v>10011</v>
       </c>
       <c r="J189" t="s">
@@ -31408,7 +31411,7 @@
         <v>2</v>
       </c>
       <c r="I190">
-        <f>VALUE(_xlfn.CONCAT(E190,F190,G190,H190))</f>
+        <f t="shared" si="0"/>
         <v>10012</v>
       </c>
       <c r="J190" t="s">
@@ -31441,7 +31444,7 @@
         <v>3</v>
       </c>
       <c r="I191">
-        <f>VALUE(_xlfn.CONCAT(E191,F191,G191,H191))</f>
+        <f t="shared" si="0"/>
         <v>10013</v>
       </c>
       <c r="J191" t="s">
@@ -31474,7 +31477,7 @@
         <v>3</v>
       </c>
       <c r="I192">
-        <f>VALUE(_xlfn.CONCAT(E192,F192,G192,H192))</f>
+        <f t="shared" si="0"/>
         <v>20003</v>
       </c>
       <c r="J192" t="s">
@@ -31507,7 +31510,7 @@
         <v>1</v>
       </c>
       <c r="I193">
-        <f>VALUE(_xlfn.CONCAT(E193,F193,G193,H193))</f>
+        <f t="shared" si="0"/>
         <v>20001</v>
       </c>
       <c r="J193" t="s">
@@ -31540,7 +31543,7 @@
         <v>1</v>
       </c>
       <c r="I194">
-        <f>VALUE(_xlfn.CONCAT(E194,F194,G194,H194))</f>
+        <f t="shared" si="0"/>
         <v>10021</v>
       </c>
       <c r="J194" t="s">
@@ -31573,7 +31576,7 @@
         <v>0</v>
       </c>
       <c r="I195">
-        <f>VALUE(_xlfn.CONCAT(E195,F195,G195,H195))</f>
+        <f t="shared" si="0"/>
         <v>20590</v>
       </c>
       <c r="J195" t="s">
@@ -31606,7 +31609,7 @@
         <v>1</v>
       </c>
       <c r="I196">
-        <f>VALUE(_xlfn.CONCAT(E196,F196,G196,H196))</f>
+        <f t="shared" si="0"/>
         <v>20411</v>
       </c>
       <c r="J196" t="s">
@@ -31639,7 +31642,7 @@
         <v>1</v>
       </c>
       <c r="I197">
-        <f>VALUE(_xlfn.CONCAT(E197,F197,G197,H197))</f>
+        <f t="shared" si="0"/>
         <v>20421</v>
       </c>
       <c r="J197" t="s">
@@ -31672,7 +31675,7 @@
         <v>0</v>
       </c>
       <c r="I198">
-        <f>VALUE(_xlfn.CONCAT(E198,F198,G198,H198))</f>
+        <f t="shared" si="0"/>
         <v>20510</v>
       </c>
       <c r="J198" t="s">
@@ -31705,7 +31708,7 @@
         <v>0</v>
       </c>
       <c r="I199">
-        <f>VALUE(_xlfn.CONCAT(E199,F199,G199,H199))</f>
+        <f t="shared" si="0"/>
         <v>10020</v>
       </c>
       <c r="J199" t="s">
@@ -31738,7 +31741,7 @@
         <v>1</v>
       </c>
       <c r="I200">
-        <f>VALUE(_xlfn.CONCAT(E200,F200,G200,H200))</f>
+        <f t="shared" si="0"/>
         <v>10031</v>
       </c>
       <c r="J200" t="s">
@@ -31771,7 +31774,7 @@
         <v>2</v>
       </c>
       <c r="I201">
-        <f>VALUE(_xlfn.CONCAT(E201,F201,G201,H201))</f>
+        <f t="shared" si="0"/>
         <v>10032</v>
       </c>
       <c r="J201" t="s">
@@ -31804,7 +31807,7 @@
         <v>3</v>
       </c>
       <c r="I202">
-        <f>VALUE(_xlfn.CONCAT(E202,F202,G202,H202))</f>
+        <f t="shared" si="0"/>
         <v>10033</v>
       </c>
       <c r="J202" t="s">
@@ -31837,7 +31840,7 @@
         <v>4</v>
       </c>
       <c r="I203">
-        <f>VALUE(_xlfn.CONCAT(E203,F203,G203,H203))</f>
+        <f t="shared" si="0"/>
         <v>10034</v>
       </c>
       <c r="J203" t="s">
@@ -31870,7 +31873,7 @@
         <v>5</v>
       </c>
       <c r="I204">
-        <f>VALUE(_xlfn.CONCAT(E204,F204,G204,H204))</f>
+        <f t="shared" si="0"/>
         <v>10035</v>
       </c>
       <c r="J204" t="s">
@@ -31903,7 +31906,7 @@
         <v>6</v>
       </c>
       <c r="I205">
-        <f>VALUE(_xlfn.CONCAT(E205,F205,G205,H205))</f>
+        <f t="shared" si="0"/>
         <v>10036</v>
       </c>
       <c r="J205" t="s">
@@ -31936,7 +31939,7 @@
         <v>7</v>
       </c>
       <c r="I206">
-        <f>VALUE(_xlfn.CONCAT(E206,F206,G206,H206))</f>
+        <f t="shared" si="0"/>
         <v>10037</v>
       </c>
       <c r="J206" t="s">
@@ -31969,7 +31972,7 @@
         <v>8</v>
       </c>
       <c r="I207">
-        <f>VALUE(_xlfn.CONCAT(E207,F207,G207,H207))</f>
+        <f t="shared" si="0"/>
         <v>10038</v>
       </c>
       <c r="J207" t="s">
@@ -32002,7 +32005,7 @@
         <v>9</v>
       </c>
       <c r="I208">
-        <f>VALUE(_xlfn.CONCAT(E208,F208,G208,H208))</f>
+        <f t="shared" si="0"/>
         <v>10039</v>
       </c>
       <c r="J208" t="s">
@@ -32035,7 +32038,7 @@
         <v>1</v>
       </c>
       <c r="I209">
-        <f>VALUE(_xlfn.CONCAT(E209,F209,G209,H209))</f>
+        <f t="shared" si="0"/>
         <v>10041</v>
       </c>
       <c r="J209" t="s">
@@ -32068,7 +32071,7 @@
         <v>2</v>
       </c>
       <c r="I210">
-        <f>VALUE(_xlfn.CONCAT(E210,F210,G210,H210))</f>
+        <f t="shared" si="0"/>
         <v>10042</v>
       </c>
       <c r="J210" t="s">
@@ -32101,7 +32104,7 @@
         <v>3</v>
       </c>
       <c r="I211">
-        <f>VALUE(_xlfn.CONCAT(E211,F211,G211,H211))</f>
+        <f t="shared" si="0"/>
         <v>10043</v>
       </c>
       <c r="J211" t="s">
@@ -32134,7 +32137,7 @@
         <v>4</v>
       </c>
       <c r="I212">
-        <f>VALUE(_xlfn.CONCAT(E212,F212,G212,H212))</f>
+        <f t="shared" si="0"/>
         <v>10044</v>
       </c>
       <c r="J212" t="s">
@@ -32167,7 +32170,7 @@
         <v>5</v>
       </c>
       <c r="I213">
-        <f>VALUE(_xlfn.CONCAT(E213,F213,G213,H213))</f>
+        <f t="shared" si="0"/>
         <v>10045</v>
       </c>
       <c r="J213" t="s">
@@ -32200,7 +32203,7 @@
         <v>6</v>
       </c>
       <c r="I214">
-        <f>VALUE(_xlfn.CONCAT(E214,F214,G214,H214))</f>
+        <f t="shared" si="0"/>
         <v>10046</v>
       </c>
       <c r="J214" t="s">
@@ -32233,7 +32236,7 @@
         <v>7</v>
       </c>
       <c r="I215">
-        <f>VALUE(_xlfn.CONCAT(E215,F215,G215,H215))</f>
+        <f t="shared" si="0"/>
         <v>10047</v>
       </c>
       <c r="J215" t="s">
@@ -32266,7 +32269,7 @@
         <v>8</v>
       </c>
       <c r="I216">
-        <f>VALUE(_xlfn.CONCAT(E216,F216,G216,H216))</f>
+        <f t="shared" si="0"/>
         <v>10048</v>
       </c>
       <c r="J216" t="s">
@@ -32299,7 +32302,7 @@
         <v>9</v>
       </c>
       <c r="I217">
-        <f>VALUE(_xlfn.CONCAT(E217,F217,G217,H217))</f>
+        <f t="shared" si="0"/>
         <v>10049</v>
       </c>
       <c r="J217" t="s">
@@ -32332,7 +32335,7 @@
         <v>1</v>
       </c>
       <c r="I218">
-        <f>VALUE(_xlfn.CONCAT(E218,F218,G218,H218))</f>
+        <f t="shared" si="0"/>
         <v>10051</v>
       </c>
       <c r="J218" t="s">
@@ -32365,7 +32368,7 @@
         <v>0</v>
       </c>
       <c r="I219">
-        <f>VALUE(_xlfn.CONCAT(E219,F219,G219,H219))</f>
+        <f t="shared" si="0"/>
         <v>10010</v>
       </c>
       <c r="J219" t="s">
@@ -32398,7 +32401,7 @@
         <v>1</v>
       </c>
       <c r="I220">
-        <f>VALUE(_xlfn.CONCAT(E220,F220,G220,H220))</f>
+        <f t="shared" ref="I220:I251" si="1">VALUE(_xlfn.CONCAT(E220,F220,G220,H220))</f>
         <v>10011</v>
       </c>
       <c r="J220" t="s">
@@ -32431,7 +32434,7 @@
         <v>2</v>
       </c>
       <c r="I221">
-        <f>VALUE(_xlfn.CONCAT(E221,F221,G221,H221))</f>
+        <f t="shared" si="1"/>
         <v>10012</v>
       </c>
       <c r="J221" t="s">
@@ -32464,7 +32467,7 @@
         <v>3</v>
       </c>
       <c r="I222">
-        <f>VALUE(_xlfn.CONCAT(E222,F222,G222,H222))</f>
+        <f t="shared" si="1"/>
         <v>10013</v>
       </c>
       <c r="J222" t="s">
@@ -32497,7 +32500,7 @@
         <v>1</v>
       </c>
       <c r="I223">
-        <f>VALUE(_xlfn.CONCAT(E223,F223,G223,H223))</f>
+        <f t="shared" si="1"/>
         <v>10021</v>
       </c>
       <c r="J223" t="s">
@@ -32530,7 +32533,7 @@
         <v>0</v>
       </c>
       <c r="I224">
-        <f>VALUE(_xlfn.CONCAT(E224,F224,G224,H224))</f>
+        <f t="shared" si="1"/>
         <v>10020</v>
       </c>
       <c r="J224" t="s">
@@ -32563,7 +32566,7 @@
         <v>1</v>
       </c>
       <c r="I225">
-        <f>VALUE(_xlfn.CONCAT(E225,F225,G225,H225))</f>
+        <f t="shared" si="1"/>
         <v>10031</v>
       </c>
       <c r="J225" t="s">
@@ -32596,7 +32599,7 @@
         <v>2</v>
       </c>
       <c r="I226">
-        <f>VALUE(_xlfn.CONCAT(E226,F226,G226,H226))</f>
+        <f t="shared" si="1"/>
         <v>10032</v>
       </c>
       <c r="J226" t="s">
@@ -32629,7 +32632,7 @@
         <v>3</v>
       </c>
       <c r="I227">
-        <f>VALUE(_xlfn.CONCAT(E227,F227,G227,H227))</f>
+        <f t="shared" si="1"/>
         <v>10033</v>
       </c>
       <c r="J227" t="s">
@@ -32662,7 +32665,7 @@
         <v>4</v>
       </c>
       <c r="I228">
-        <f>VALUE(_xlfn.CONCAT(E228,F228,G228,H228))</f>
+        <f t="shared" si="1"/>
         <v>10034</v>
       </c>
       <c r="J228" t="s">
@@ -32695,7 +32698,7 @@
         <v>5</v>
       </c>
       <c r="I229">
-        <f>VALUE(_xlfn.CONCAT(E229,F229,G229,H229))</f>
+        <f t="shared" si="1"/>
         <v>10035</v>
       </c>
       <c r="J229" t="s">
@@ -32728,7 +32731,7 @@
         <v>6</v>
       </c>
       <c r="I230">
-        <f>VALUE(_xlfn.CONCAT(E230,F230,G230,H230))</f>
+        <f t="shared" si="1"/>
         <v>10036</v>
       </c>
       <c r="J230" t="s">
@@ -32761,7 +32764,7 @@
         <v>7</v>
       </c>
       <c r="I231">
-        <f>VALUE(_xlfn.CONCAT(E231,F231,G231,H231))</f>
+        <f t="shared" si="1"/>
         <v>10037</v>
       </c>
       <c r="J231" t="s">
@@ -32794,7 +32797,7 @@
         <v>8</v>
       </c>
       <c r="I232">
-        <f>VALUE(_xlfn.CONCAT(E232,F232,G232,H232))</f>
+        <f t="shared" si="1"/>
         <v>10038</v>
       </c>
       <c r="J232" t="s">
@@ -32827,7 +32830,7 @@
         <v>9</v>
       </c>
       <c r="I233">
-        <f>VALUE(_xlfn.CONCAT(E233,F233,G233,H233))</f>
+        <f t="shared" si="1"/>
         <v>10039</v>
       </c>
       <c r="J233" t="s">
@@ -32860,7 +32863,7 @@
         <v>1</v>
       </c>
       <c r="I234">
-        <f>VALUE(_xlfn.CONCAT(E234,F234,G234,H234))</f>
+        <f t="shared" si="1"/>
         <v>10041</v>
       </c>
       <c r="J234" t="s">
@@ -32893,7 +32896,7 @@
         <v>2</v>
       </c>
       <c r="I235">
-        <f>VALUE(_xlfn.CONCAT(E235,F235,G235,H235))</f>
+        <f t="shared" si="1"/>
         <v>10042</v>
       </c>
       <c r="J235" t="s">
@@ -32926,7 +32929,7 @@
         <v>3</v>
       </c>
       <c r="I236">
-        <f>VALUE(_xlfn.CONCAT(E236,F236,G236,H236))</f>
+        <f t="shared" si="1"/>
         <v>10043</v>
       </c>
       <c r="J236" t="s">
@@ -32959,7 +32962,7 @@
         <v>4</v>
       </c>
       <c r="I237">
-        <f>VALUE(_xlfn.CONCAT(E237,F237,G237,H237))</f>
+        <f t="shared" si="1"/>
         <v>10044</v>
       </c>
       <c r="J237" t="s">
@@ -32992,7 +32995,7 @@
         <v>5</v>
       </c>
       <c r="I238">
-        <f>VALUE(_xlfn.CONCAT(E238,F238,G238,H238))</f>
+        <f t="shared" si="1"/>
         <v>10045</v>
       </c>
       <c r="J238" t="s">
@@ -33025,7 +33028,7 @@
         <v>6</v>
       </c>
       <c r="I239">
-        <f>VALUE(_xlfn.CONCAT(E239,F239,G239,H239))</f>
+        <f t="shared" si="1"/>
         <v>10046</v>
       </c>
       <c r="J239" t="s">
@@ -33058,7 +33061,7 @@
         <v>7</v>
       </c>
       <c r="I240">
-        <f>VALUE(_xlfn.CONCAT(E240,F240,G240,H240))</f>
+        <f t="shared" si="1"/>
         <v>10047</v>
       </c>
       <c r="J240" t="s">
@@ -33091,7 +33094,7 @@
         <v>8</v>
       </c>
       <c r="I241">
-        <f>VALUE(_xlfn.CONCAT(E241,F241,G241,H241))</f>
+        <f t="shared" si="1"/>
         <v>10048</v>
       </c>
       <c r="J241" t="s">
@@ -33124,7 +33127,7 @@
         <v>9</v>
       </c>
       <c r="I242">
-        <f>VALUE(_xlfn.CONCAT(E242,F242,G242,H242))</f>
+        <f t="shared" si="1"/>
         <v>10049</v>
       </c>
       <c r="J242" t="s">
@@ -33157,7 +33160,7 @@
         <v>1</v>
       </c>
       <c r="I243">
-        <f>VALUE(_xlfn.CONCAT(E243,F243,G243,H243))</f>
+        <f t="shared" si="1"/>
         <v>10051</v>
       </c>
       <c r="J243" t="s">
@@ -33190,7 +33193,7 @@
         <v>0</v>
       </c>
       <c r="I244">
-        <f>VALUE(_xlfn.CONCAT(E244,F244,G244,H244))</f>
+        <f t="shared" si="1"/>
         <v>10060</v>
       </c>
       <c r="J244" t="s">
@@ -33223,7 +33226,7 @@
         <v>1</v>
       </c>
       <c r="I245">
-        <f>VALUE(_xlfn.CONCAT(E245,F245,G245,H245))</f>
+        <f t="shared" si="1"/>
         <v>10071</v>
       </c>
       <c r="J245" t="s">
@@ -33256,7 +33259,7 @@
         <v>2</v>
       </c>
       <c r="I246">
-        <f>VALUE(_xlfn.CONCAT(E246,F246,G246,H246))</f>
+        <f t="shared" si="1"/>
         <v>10072</v>
       </c>
       <c r="J246" t="s">
@@ -33289,7 +33292,7 @@
         <v>0</v>
       </c>
       <c r="I247">
-        <f>VALUE(_xlfn.CONCAT(E247,F247,G247,H247))</f>
+        <f t="shared" si="1"/>
         <v>10080</v>
       </c>
       <c r="J247" t="s">
@@ -33322,7 +33325,7 @@
         <v>1</v>
       </c>
       <c r="I248">
-        <f>VALUE(_xlfn.CONCAT(E248,F248,G248,H248))</f>
+        <f t="shared" si="1"/>
         <v>10091</v>
       </c>
       <c r="J248" t="s">
@@ -33355,7 +33358,7 @@
         <v>2</v>
       </c>
       <c r="I249">
-        <f>VALUE(_xlfn.CONCAT(E249,F249,G249,H249))</f>
+        <f t="shared" si="1"/>
         <v>10092</v>
       </c>
       <c r="J249" t="s">
@@ -33388,7 +33391,7 @@
         <v>3</v>
       </c>
       <c r="I250">
-        <f>VALUE(_xlfn.CONCAT(E250,F250,G250,H250))</f>
+        <f t="shared" si="1"/>
         <v>10093</v>
       </c>
       <c r="J250" t="s">
@@ -33421,7 +33424,7 @@
         <v>0</v>
       </c>
       <c r="I251">
-        <f>VALUE(_xlfn.CONCAT(E251,F251,G251,H251))</f>
+        <f t="shared" si="1"/>
         <v>10090</v>
       </c>
       <c r="J251" t="s">
@@ -33454,7 +33457,7 @@
         <v>1</v>
       </c>
       <c r="I252">
-        <f>VALUE(_xlfn.CONCAT(E252,F252,G252,H252))</f>
+        <f t="shared" ref="I252:I283" si="2">VALUE(_xlfn.CONCAT(E252,F252,G252,H252))</f>
         <v>10101</v>
       </c>
       <c r="J252" t="s">
@@ -33487,7 +33490,7 @@
         <v>2</v>
       </c>
       <c r="I253">
-        <f>VALUE(_xlfn.CONCAT(E253,F253,G253,H253))</f>
+        <f t="shared" si="2"/>
         <v>10102</v>
       </c>
       <c r="J253" t="s">
@@ -33520,7 +33523,7 @@
         <v>3</v>
       </c>
       <c r="I254">
-        <f>VALUE(_xlfn.CONCAT(E254,F254,G254,H254))</f>
+        <f t="shared" si="2"/>
         <v>10103</v>
       </c>
       <c r="J254" t="s">
@@ -33553,7 +33556,7 @@
         <v>4</v>
       </c>
       <c r="I255">
-        <f>VALUE(_xlfn.CONCAT(E255,F255,G255,H255))</f>
+        <f t="shared" si="2"/>
         <v>10104</v>
       </c>
       <c r="J255" t="s">
@@ -33586,7 +33589,7 @@
         <v>5</v>
       </c>
       <c r="I256">
-        <f>VALUE(_xlfn.CONCAT(E256,F256,G256,H256))</f>
+        <f t="shared" si="2"/>
         <v>10105</v>
       </c>
       <c r="J256" t="s">
@@ -33619,7 +33622,7 @@
         <v>0</v>
       </c>
       <c r="I257">
-        <f>VALUE(_xlfn.CONCAT(E257,F257,G257,H257))</f>
+        <f t="shared" si="2"/>
         <v>10110</v>
       </c>
       <c r="J257" t="s">
@@ -33652,7 +33655,7 @@
         <v>0</v>
       </c>
       <c r="I258">
-        <f>VALUE(_xlfn.CONCAT(E258,F258,G258,H258))</f>
+        <f t="shared" si="2"/>
         <v>10120</v>
       </c>
       <c r="J258" t="s">
@@ -33685,7 +33688,7 @@
         <v>1</v>
       </c>
       <c r="I259">
-        <f>VALUE(_xlfn.CONCAT(E259,F259,G259,H259))</f>
+        <f t="shared" si="2"/>
         <v>10121</v>
       </c>
       <c r="J259" t="s">
@@ -33718,7 +33721,7 @@
         <v>2</v>
       </c>
       <c r="I260">
-        <f>VALUE(_xlfn.CONCAT(E260,F260,G260,H260))</f>
+        <f t="shared" si="2"/>
         <v>10122</v>
       </c>
       <c r="J260" t="s">
@@ -33751,7 +33754,7 @@
         <v>3</v>
       </c>
       <c r="I261">
-        <f>VALUE(_xlfn.CONCAT(E261,F261,G261,H261))</f>
+        <f t="shared" si="2"/>
         <v>10123</v>
       </c>
       <c r="J261" t="s">
@@ -33784,7 +33787,7 @@
         <v>4</v>
       </c>
       <c r="I262">
-        <f>VALUE(_xlfn.CONCAT(E262,F262,G262,H262))</f>
+        <f t="shared" si="2"/>
         <v>10124</v>
       </c>
       <c r="J262" t="s">
@@ -33817,7 +33820,7 @@
         <v>0</v>
       </c>
       <c r="I263">
-        <f>VALUE(_xlfn.CONCAT(E263,F263,G263,H263))</f>
+        <f t="shared" si="2"/>
         <v>10130</v>
       </c>
       <c r="J263" t="s">
@@ -33850,7 +33853,7 @@
         <v>1</v>
       </c>
       <c r="I264">
-        <f>VALUE(_xlfn.CONCAT(E264,F264,G264,H264))</f>
+        <f t="shared" si="2"/>
         <v>10131</v>
       </c>
       <c r="J264" t="s">
@@ -33883,7 +33886,7 @@
         <v>2</v>
       </c>
       <c r="I265">
-        <f>VALUE(_xlfn.CONCAT(E265,F265,G265,H265))</f>
+        <f t="shared" si="2"/>
         <v>10132</v>
       </c>
       <c r="J265" t="s">
@@ -33916,7 +33919,7 @@
         <v>3</v>
       </c>
       <c r="I266">
-        <f>VALUE(_xlfn.CONCAT(E266,F266,G266,H266))</f>
+        <f t="shared" si="2"/>
         <v>10133</v>
       </c>
       <c r="J266" t="s">
@@ -33949,7 +33952,7 @@
         <v>0</v>
       </c>
       <c r="I267">
-        <f>VALUE(_xlfn.CONCAT(E267,F267,G267,H267))</f>
+        <f t="shared" si="2"/>
         <v>10140</v>
       </c>
       <c r="J267" t="s">
@@ -34046,7 +34049,7 @@
         <v>0</v>
       </c>
       <c r="I270">
-        <f>VALUE(_xlfn.CONCAT(E270,F270,G270,H270))</f>
+        <f t="shared" ref="I270:I294" si="3">VALUE(_xlfn.CONCAT(E270,F270,G270,H270))</f>
         <v>10150</v>
       </c>
       <c r="J270" t="s">
@@ -34079,7 +34082,7 @@
         <v>1</v>
       </c>
       <c r="I271">
-        <f>VALUE(_xlfn.CONCAT(E271,F271,G271,H271))</f>
+        <f t="shared" si="3"/>
         <v>10151</v>
       </c>
       <c r="J271" t="s">
@@ -34112,7 +34115,7 @@
         <v>2</v>
       </c>
       <c r="I272">
-        <f>VALUE(_xlfn.CONCAT(E272,F272,G272,H272))</f>
+        <f t="shared" si="3"/>
         <v>10152</v>
       </c>
       <c r="J272" t="s">
@@ -34145,7 +34148,7 @@
         <v>3</v>
       </c>
       <c r="I273">
-        <f>VALUE(_xlfn.CONCAT(E273,F273,G273,H273))</f>
+        <f t="shared" si="3"/>
         <v>10153</v>
       </c>
       <c r="J273" t="s">
@@ -34178,7 +34181,7 @@
         <v>4</v>
       </c>
       <c r="I274">
-        <f>VALUE(_xlfn.CONCAT(E274,F274,G274,H274))</f>
+        <f t="shared" si="3"/>
         <v>10154</v>
       </c>
       <c r="J274" t="s">
@@ -34211,7 +34214,7 @@
         <v>5</v>
       </c>
       <c r="I275">
-        <f>VALUE(_xlfn.CONCAT(E275,F275,G275,H275))</f>
+        <f t="shared" si="3"/>
         <v>10155</v>
       </c>
       <c r="J275" t="s">
@@ -34244,7 +34247,7 @@
         <v>1</v>
       </c>
       <c r="I276">
-        <f>VALUE(_xlfn.CONCAT(E276,F276,G276,H276))</f>
+        <f t="shared" si="3"/>
         <v>10161</v>
       </c>
       <c r="J276" t="s">
@@ -34277,7 +34280,7 @@
         <v>2</v>
       </c>
       <c r="I277">
-        <f>VALUE(_xlfn.CONCAT(E277,F277,G277,H277))</f>
+        <f t="shared" si="3"/>
         <v>10162</v>
       </c>
       <c r="J277" t="s">
@@ -34310,7 +34313,7 @@
         <v>3</v>
       </c>
       <c r="I278">
-        <f>VALUE(_xlfn.CONCAT(E278,F278,G278,H278))</f>
+        <f t="shared" si="3"/>
         <v>10163</v>
       </c>
       <c r="J278" t="s">
@@ -34343,7 +34346,7 @@
         <v>4</v>
       </c>
       <c r="I279">
-        <f>VALUE(_xlfn.CONCAT(E279,F279,G279,H279))</f>
+        <f t="shared" si="3"/>
         <v>10164</v>
       </c>
       <c r="J279" t="s">
@@ -34376,7 +34379,7 @@
         <v>1</v>
       </c>
       <c r="I280">
-        <f>VALUE(_xlfn.CONCAT(E280,F280,G280,H280))</f>
+        <f t="shared" si="3"/>
         <v>10171</v>
       </c>
       <c r="J280" t="s">
@@ -34409,7 +34412,7 @@
         <v>0</v>
       </c>
       <c r="I281">
-        <f>VALUE(_xlfn.CONCAT(E281,F281,G281,H281))</f>
+        <f t="shared" si="3"/>
         <v>10170</v>
       </c>
       <c r="J281" t="s">
@@ -34442,7 +34445,7 @@
         <v>0</v>
       </c>
       <c r="I282">
-        <f>VALUE(_xlfn.CONCAT(E282,F282,G282,H282))</f>
+        <f t="shared" si="3"/>
         <v>10180</v>
       </c>
       <c r="J282" t="s">
@@ -34475,7 +34478,7 @@
         <v>0</v>
       </c>
       <c r="I283">
-        <f>VALUE(_xlfn.CONCAT(E283,F283,G283,H283))</f>
+        <f t="shared" si="3"/>
         <v>10190</v>
       </c>
       <c r="J283" t="s">
@@ -34508,7 +34511,7 @@
         <v>0</v>
       </c>
       <c r="I284">
-        <f>VALUE(_xlfn.CONCAT(E284,F284,G284,H284))</f>
+        <f t="shared" si="3"/>
         <v>10190</v>
       </c>
       <c r="J284" t="s">
@@ -34541,7 +34544,7 @@
         <v>1</v>
       </c>
       <c r="I285">
-        <f>VALUE(_xlfn.CONCAT(E285,F285,G285,H285))</f>
+        <f t="shared" si="3"/>
         <v>10191</v>
       </c>
       <c r="J285" t="s">
@@ -34574,7 +34577,7 @@
         <v>1</v>
       </c>
       <c r="I286">
-        <f>VALUE(_xlfn.CONCAT(E286,F286,G286,H286))</f>
+        <f t="shared" si="3"/>
         <v>10201</v>
       </c>
       <c r="J286" t="s">
@@ -34607,7 +34610,7 @@
         <v>2</v>
       </c>
       <c r="I287">
-        <f>VALUE(_xlfn.CONCAT(E287,F287,G287,H287))</f>
+        <f t="shared" si="3"/>
         <v>10202</v>
       </c>
       <c r="J287" t="s">
@@ -34640,7 +34643,7 @@
         <v>0</v>
       </c>
       <c r="I288">
-        <f>VALUE(_xlfn.CONCAT(E288,F288,G288,H288))</f>
+        <f t="shared" si="3"/>
         <v>10200</v>
       </c>
       <c r="J288" t="s">
@@ -34673,7 +34676,7 @@
         <v>2</v>
       </c>
       <c r="I289">
-        <f>VALUE(_xlfn.CONCAT(E289,F289,G289,H289))</f>
+        <f t="shared" si="3"/>
         <v>10212</v>
       </c>
       <c r="J289" t="s">
@@ -34706,7 +34709,7 @@
         <v>3</v>
       </c>
       <c r="I290">
-        <f>VALUE(_xlfn.CONCAT(E290,F290,G290,H290))</f>
+        <f t="shared" si="3"/>
         <v>10213</v>
       </c>
       <c r="J290" t="s">
@@ -34739,7 +34742,7 @@
         <v>0</v>
       </c>
       <c r="I291">
-        <f>VALUE(_xlfn.CONCAT(E291,F291,G291,H291))</f>
+        <f t="shared" si="3"/>
         <v>10220</v>
       </c>
       <c r="J291" t="s">
@@ -34772,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="I292">
-        <f>VALUE(_xlfn.CONCAT(E292,F292,G292,H292))</f>
+        <f t="shared" si="3"/>
         <v>10230</v>
       </c>
       <c r="J292" t="s">
@@ -34805,7 +34808,7 @@
         <v>0</v>
       </c>
       <c r="I293">
-        <f>VALUE(_xlfn.CONCAT(E293,F293,G293,H293))</f>
+        <f t="shared" si="3"/>
         <v>10240</v>
       </c>
       <c r="J293" t="s">
@@ -34838,7 +34841,7 @@
         <v>0</v>
       </c>
       <c r="I294">
-        <f>VALUE(_xlfn.CONCAT(E294,F294,G294,H294))</f>
+        <f t="shared" si="3"/>
         <v>10060</v>
       </c>
       <c r="J294" t="s">
@@ -34903,7 +34906,7 @@
         <v>2</v>
       </c>
       <c r="I296">
-        <f>VALUE(_xlfn.CONCAT(E296,F296,G296,H296))</f>
+        <f t="shared" ref="I296:I323" si="4">VALUE(_xlfn.CONCAT(E296,F296,G296,H296))</f>
         <v>20112</v>
       </c>
       <c r="J296" t="s">
@@ -34936,7 +34939,7 @@
         <v>0</v>
       </c>
       <c r="I297">
-        <f>VALUE(_xlfn.CONCAT(E297,F297,G297,H297))</f>
+        <f t="shared" si="4"/>
         <v>30830</v>
       </c>
       <c r="J297" t="s">
@@ -34969,7 +34972,7 @@
         <v>0</v>
       </c>
       <c r="I298">
-        <f>VALUE(_xlfn.CONCAT(E298,F298,G298,H298))</f>
+        <f t="shared" si="4"/>
         <v>20220</v>
       </c>
       <c r="J298" t="s">
@@ -35002,7 +35005,7 @@
         <v>1</v>
       </c>
       <c r="I299">
-        <f>VALUE(_xlfn.CONCAT(E299,F299,G299,H299))</f>
+        <f t="shared" si="4"/>
         <v>10071</v>
       </c>
       <c r="J299" t="s">
@@ -35035,7 +35038,7 @@
         <v>2</v>
       </c>
       <c r="I300">
-        <f>VALUE(_xlfn.CONCAT(E300,F300,G300,H300))</f>
+        <f t="shared" si="4"/>
         <v>10072</v>
       </c>
       <c r="J300" t="s">
@@ -35068,7 +35071,7 @@
         <v>1</v>
       </c>
       <c r="I301">
-        <f>VALUE(_xlfn.CONCAT(E301,F301,G301,H301))</f>
+        <f t="shared" si="4"/>
         <v>50101</v>
       </c>
       <c r="J301" t="s">
@@ -35101,7 +35104,7 @@
         <v>0</v>
       </c>
       <c r="I302">
-        <f>VALUE(_xlfn.CONCAT(E302,F302,G302,H302))</f>
+        <f t="shared" si="4"/>
         <v>10080</v>
       </c>
       <c r="J302" t="s">
@@ -35134,7 +35137,7 @@
         <v>1</v>
       </c>
       <c r="I303">
-        <f>VALUE(_xlfn.CONCAT(E303,F303,G303,H303))</f>
+        <f t="shared" si="4"/>
         <v>10091</v>
       </c>
       <c r="J303" t="s">
@@ -35167,7 +35170,7 @@
         <v>2</v>
       </c>
       <c r="I304">
-        <f>VALUE(_xlfn.CONCAT(E304,F304,G304,H304))</f>
+        <f t="shared" si="4"/>
         <v>10092</v>
       </c>
       <c r="J304" t="s">
@@ -35200,7 +35203,7 @@
         <v>3</v>
       </c>
       <c r="I305">
-        <f>VALUE(_xlfn.CONCAT(E305,F305,G305,H305))</f>
+        <f t="shared" si="4"/>
         <v>10093</v>
       </c>
       <c r="J305" t="s">
@@ -35233,7 +35236,7 @@
         <v>0</v>
       </c>
       <c r="I306">
-        <f>VALUE(_xlfn.CONCAT(E306,F306,G306,H306))</f>
+        <f t="shared" si="4"/>
         <v>10090</v>
       </c>
       <c r="J306" t="s">
@@ -35266,7 +35269,7 @@
         <v>1</v>
       </c>
       <c r="I307">
-        <f>VALUE(_xlfn.CONCAT(E307,F307,G307,H307))</f>
+        <f t="shared" si="4"/>
         <v>10101</v>
       </c>
       <c r="J307" t="s">
@@ -35299,7 +35302,7 @@
         <v>2</v>
       </c>
       <c r="I308">
-        <f>VALUE(_xlfn.CONCAT(E308,F308,G308,H308))</f>
+        <f t="shared" si="4"/>
         <v>10102</v>
       </c>
       <c r="J308" t="s">
@@ -35332,7 +35335,7 @@
         <v>3</v>
       </c>
       <c r="I309">
-        <f>VALUE(_xlfn.CONCAT(E309,F309,G309,H309))</f>
+        <f t="shared" si="4"/>
         <v>10103</v>
       </c>
       <c r="J309" t="s">
@@ -35365,7 +35368,7 @@
         <v>4</v>
       </c>
       <c r="I310">
-        <f>VALUE(_xlfn.CONCAT(E310,F310,G310,H310))</f>
+        <f t="shared" si="4"/>
         <v>10104</v>
       </c>
       <c r="J310" t="s">
@@ -35398,7 +35401,7 @@
         <v>5</v>
       </c>
       <c r="I311">
-        <f>VALUE(_xlfn.CONCAT(E311,F311,G311,H311))</f>
+        <f t="shared" si="4"/>
         <v>10105</v>
       </c>
       <c r="J311" t="s">
@@ -35431,7 +35434,7 @@
         <v>0</v>
       </c>
       <c r="I312">
-        <f>VALUE(_xlfn.CONCAT(E312,F312,G312,H312))</f>
+        <f t="shared" si="4"/>
         <v>10110</v>
       </c>
       <c r="J312" t="s">
@@ -35464,7 +35467,7 @@
         <v>0</v>
       </c>
       <c r="I313">
-        <f>VALUE(_xlfn.CONCAT(E313,F313,G313,H313))</f>
+        <f t="shared" si="4"/>
         <v>20750</v>
       </c>
       <c r="J313" t="s">
@@ -35497,7 +35500,7 @@
         <v>0</v>
       </c>
       <c r="I314">
-        <f>VALUE(_xlfn.CONCAT(E314,F314,G314,H314))</f>
+        <f t="shared" si="4"/>
         <v>10120</v>
       </c>
       <c r="J314" t="s">
@@ -35530,7 +35533,7 @@
         <v>1</v>
       </c>
       <c r="I315">
-        <f>VALUE(_xlfn.CONCAT(E315,F315,G315,H315))</f>
+        <f t="shared" si="4"/>
         <v>10121</v>
       </c>
       <c r="J315" t="s">
@@ -35563,7 +35566,7 @@
         <v>2</v>
       </c>
       <c r="I316">
-        <f>VALUE(_xlfn.CONCAT(E316,F316,G316,H316))</f>
+        <f t="shared" si="4"/>
         <v>10122</v>
       </c>
       <c r="J316" t="s">
@@ -35596,7 +35599,7 @@
         <v>3</v>
       </c>
       <c r="I317">
-        <f>VALUE(_xlfn.CONCAT(E317,F317,G317,H317))</f>
+        <f t="shared" si="4"/>
         <v>10123</v>
       </c>
       <c r="J317" t="s">
@@ -35629,7 +35632,7 @@
         <v>4</v>
       </c>
       <c r="I318">
-        <f>VALUE(_xlfn.CONCAT(E318,F318,G318,H318))</f>
+        <f t="shared" si="4"/>
         <v>10124</v>
       </c>
       <c r="J318" t="s">
@@ -35662,7 +35665,7 @@
         <v>0</v>
       </c>
       <c r="I319">
-        <f>VALUE(_xlfn.CONCAT(E319,F319,G319,H319))</f>
+        <f t="shared" si="4"/>
         <v>10130</v>
       </c>
       <c r="J319" t="s">
@@ -35695,7 +35698,7 @@
         <v>1</v>
       </c>
       <c r="I320">
-        <f>VALUE(_xlfn.CONCAT(E320,F320,G320,H320))</f>
+        <f t="shared" si="4"/>
         <v>10131</v>
       </c>
       <c r="J320" t="s">
@@ -35728,7 +35731,7 @@
         <v>2</v>
       </c>
       <c r="I321">
-        <f>VALUE(_xlfn.CONCAT(E321,F321,G321,H321))</f>
+        <f t="shared" si="4"/>
         <v>10132</v>
       </c>
       <c r="J321" t="s">
@@ -35761,7 +35764,7 @@
         <v>3</v>
       </c>
       <c r="I322">
-        <f>VALUE(_xlfn.CONCAT(E322,F322,G322,H322))</f>
+        <f t="shared" si="4"/>
         <v>10133</v>
       </c>
       <c r="J322" t="s">
@@ -35794,7 +35797,7 @@
         <v>0</v>
       </c>
       <c r="I323">
-        <f>VALUE(_xlfn.CONCAT(E323,F323,G323,H323))</f>
+        <f t="shared" si="4"/>
         <v>10140</v>
       </c>
       <c r="J323" t="s">
@@ -35891,7 +35894,7 @@
         <v>0</v>
       </c>
       <c r="I326">
-        <f>VALUE(_xlfn.CONCAT(E326,F326,G326,H326))</f>
+        <f t="shared" ref="I326:I343" si="5">VALUE(_xlfn.CONCAT(E326,F326,G326,H326))</f>
         <v>50900</v>
       </c>
       <c r="J326" t="s">
@@ -35924,7 +35927,7 @@
         <v>0</v>
       </c>
       <c r="I327">
-        <f>VALUE(_xlfn.CONCAT(E327,F327,G327,H327))</f>
+        <f t="shared" si="5"/>
         <v>10150</v>
       </c>
       <c r="J327" t="s">
@@ -35957,7 +35960,7 @@
         <v>1</v>
       </c>
       <c r="I328">
-        <f>VALUE(_xlfn.CONCAT(E328,F328,G328,H328))</f>
+        <f t="shared" si="5"/>
         <v>10151</v>
       </c>
       <c r="J328" t="s">
@@ -35990,7 +35993,7 @@
         <v>2</v>
       </c>
       <c r="I329">
-        <f>VALUE(_xlfn.CONCAT(E329,F329,G329,H329))</f>
+        <f t="shared" si="5"/>
         <v>10152</v>
       </c>
       <c r="J329" t="s">
@@ -36023,7 +36026,7 @@
         <v>3</v>
       </c>
       <c r="I330">
-        <f>VALUE(_xlfn.CONCAT(E330,F330,G330,H330))</f>
+        <f t="shared" si="5"/>
         <v>10153</v>
       </c>
       <c r="J330" t="s">
@@ -36056,7 +36059,7 @@
         <v>4</v>
       </c>
       <c r="I331">
-        <f>VALUE(_xlfn.CONCAT(E331,F331,G331,H331))</f>
+        <f t="shared" si="5"/>
         <v>10154</v>
       </c>
       <c r="J331" t="s">
@@ -36089,7 +36092,7 @@
         <v>5</v>
       </c>
       <c r="I332">
-        <f>VALUE(_xlfn.CONCAT(E332,F332,G332,H332))</f>
+        <f t="shared" si="5"/>
         <v>10155</v>
       </c>
       <c r="J332" t="s">
@@ -36122,7 +36125,7 @@
         <v>1</v>
       </c>
       <c r="I333">
-        <f>VALUE(_xlfn.CONCAT(E333,F333,G333,H333))</f>
+        <f t="shared" si="5"/>
         <v>10161</v>
       </c>
       <c r="J333" t="s">
@@ -36155,7 +36158,7 @@
         <v>2</v>
       </c>
       <c r="I334">
-        <f>VALUE(_xlfn.CONCAT(E334,F334,G334,H334))</f>
+        <f t="shared" si="5"/>
         <v>10162</v>
       </c>
       <c r="J334" t="s">
@@ -36188,7 +36191,7 @@
         <v>3</v>
       </c>
       <c r="I335">
-        <f>VALUE(_xlfn.CONCAT(E335,F335,G335,H335))</f>
+        <f t="shared" si="5"/>
         <v>10163</v>
       </c>
       <c r="J335" t="s">
@@ -36221,7 +36224,7 @@
         <v>4</v>
       </c>
       <c r="I336">
-        <f>VALUE(_xlfn.CONCAT(E336,F336,G336,H336))</f>
+        <f t="shared" si="5"/>
         <v>10164</v>
       </c>
       <c r="J336" t="s">
@@ -36254,7 +36257,7 @@
         <v>9</v>
       </c>
       <c r="I337">
-        <f>VALUE(_xlfn.CONCAT(E337,F337,G337,H337))</f>
+        <f t="shared" si="5"/>
         <v>99999</v>
       </c>
       <c r="J337" t="s">
@@ -36287,7 +36290,7 @@
         <v>1</v>
       </c>
       <c r="I338">
-        <f>VALUE(_xlfn.CONCAT(E338,F338,G338,H338))</f>
+        <f t="shared" si="5"/>
         <v>10171</v>
       </c>
       <c r="J338" t="s">
@@ -36320,7 +36323,7 @@
         <v>4</v>
       </c>
       <c r="I339">
-        <f>VALUE(_xlfn.CONCAT(E339,F339,G339,H339))</f>
+        <f t="shared" si="5"/>
         <v>20004</v>
       </c>
       <c r="J339" t="s">
@@ -36353,7 +36356,7 @@
         <v>2</v>
       </c>
       <c r="I340">
-        <f>VALUE(_xlfn.CONCAT(E340,F340,G340,H340))</f>
+        <f t="shared" si="5"/>
         <v>20002</v>
       </c>
       <c r="J340" t="s">
@@ -36386,7 +36389,7 @@
         <v>0</v>
       </c>
       <c r="I341">
-        <f>VALUE(_xlfn.CONCAT(E341,F341,G341,H341))</f>
+        <f t="shared" si="5"/>
         <v>10170</v>
       </c>
       <c r="J341" t="s">
@@ -36419,7 +36422,7 @@
         <v>0</v>
       </c>
       <c r="I342">
-        <f>VALUE(_xlfn.CONCAT(E342,F342,G342,H342))</f>
+        <f t="shared" si="5"/>
         <v>10180</v>
       </c>
       <c r="J342" t="s">
@@ -36452,7 +36455,7 @@
         <v>0</v>
       </c>
       <c r="I343">
-        <f>VALUE(_xlfn.CONCAT(E343,F343,G343,H343))</f>
+        <f t="shared" si="5"/>
         <v>20690</v>
       </c>
       <c r="J343" t="s">
@@ -36581,7 +36584,7 @@
         <v>0</v>
       </c>
       <c r="I347">
-        <f>VALUE(_xlfn.CONCAT(E347,F347,G347,H347))</f>
+        <f t="shared" ref="I347:I367" si="6">VALUE(_xlfn.CONCAT(E347,F347,G347,H347))</f>
         <v>20090</v>
       </c>
       <c r="J347" t="s">
@@ -36614,7 +36617,7 @@
         <v>1</v>
       </c>
       <c r="I348">
-        <f>VALUE(_xlfn.CONCAT(E348,F348,G348,H348))</f>
+        <f t="shared" si="6"/>
         <v>30091</v>
       </c>
       <c r="J348" t="s">
@@ -36647,7 +36650,7 @@
         <v>0</v>
       </c>
       <c r="I349">
-        <f>VALUE(_xlfn.CONCAT(E349,F349,G349,H349))</f>
+        <f t="shared" si="6"/>
         <v>20310</v>
       </c>
       <c r="J349" t="s">
@@ -36680,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="I350">
-        <f>VALUE(_xlfn.CONCAT(E350,F350,G350,H350))</f>
+        <f t="shared" si="6"/>
         <v>30590</v>
       </c>
       <c r="J350" t="s">
@@ -36713,7 +36716,7 @@
         <v>9</v>
       </c>
       <c r="I351">
-        <f>VALUE(_xlfn.CONCAT(E351,F351,G351,H351))</f>
+        <f t="shared" si="6"/>
         <v>20079</v>
       </c>
       <c r="J351" t="s">
@@ -36746,7 +36749,7 @@
         <v>4</v>
       </c>
       <c r="I352">
-        <f>VALUE(_xlfn.CONCAT(E352,F352,G352,H352))</f>
+        <f t="shared" si="6"/>
         <v>20074</v>
       </c>
       <c r="J352" t="s">
@@ -36779,7 +36782,7 @@
         <v>7</v>
       </c>
       <c r="I353">
-        <f>VALUE(_xlfn.CONCAT(E353,F353,G353,H353))</f>
+        <f t="shared" si="6"/>
         <v>20077</v>
       </c>
       <c r="J353" t="s">
@@ -36812,7 +36815,7 @@
         <v>5</v>
       </c>
       <c r="I354">
-        <f>VALUE(_xlfn.CONCAT(E354,F354,G354,H354))</f>
+        <f t="shared" si="6"/>
         <v>20075</v>
       </c>
       <c r="J354" t="s">
@@ -36845,7 +36848,7 @@
         <v>6</v>
       </c>
       <c r="I355">
-        <f>VALUE(_xlfn.CONCAT(E355,F355,G355,H355))</f>
+        <f t="shared" si="6"/>
         <v>20076</v>
       </c>
       <c r="J355" t="s">
@@ -36878,7 +36881,7 @@
         <v>0</v>
       </c>
       <c r="I356">
-        <f>VALUE(_xlfn.CONCAT(E356,F356,G356,H356))</f>
+        <f t="shared" si="6"/>
         <v>10190</v>
       </c>
       <c r="J356" t="s">
@@ -36911,7 +36914,7 @@
         <v>1</v>
       </c>
       <c r="I357">
-        <f>VALUE(_xlfn.CONCAT(E357,F357,G357,H357))</f>
+        <f t="shared" si="6"/>
         <v>10191</v>
       </c>
       <c r="J357" t="s">
@@ -36944,7 +36947,7 @@
         <v>1</v>
       </c>
       <c r="I358">
-        <f>VALUE(_xlfn.CONCAT(E358,F358,G358,H358))</f>
+        <f t="shared" si="6"/>
         <v>10201</v>
       </c>
       <c r="J358" t="s">
@@ -36977,7 +36980,7 @@
         <v>2</v>
       </c>
       <c r="I359">
-        <f>VALUE(_xlfn.CONCAT(E359,F359,G359,H359))</f>
+        <f t="shared" si="6"/>
         <v>10202</v>
       </c>
       <c r="J359" t="s">
@@ -37010,7 +37013,7 @@
         <v>0</v>
       </c>
       <c r="I360">
-        <f>VALUE(_xlfn.CONCAT(E360,F360,G360,H360))</f>
+        <f t="shared" si="6"/>
         <v>10200</v>
       </c>
       <c r="J360" t="s">
@@ -37043,7 +37046,7 @@
         <v>1</v>
       </c>
       <c r="I361">
-        <f>VALUE(_xlfn.CONCAT(E361,F361,G361,H361))</f>
+        <f t="shared" si="6"/>
         <v>10211</v>
       </c>
       <c r="J361" t="s">
@@ -37076,7 +37079,7 @@
         <v>2</v>
       </c>
       <c r="I362">
-        <f>VALUE(_xlfn.CONCAT(E362,F362,G362,H362))</f>
+        <f t="shared" si="6"/>
         <v>10212</v>
       </c>
       <c r="J362" t="s">
@@ -37109,7 +37112,7 @@
         <v>3</v>
       </c>
       <c r="I363">
-        <f>VALUE(_xlfn.CONCAT(E363,F363,G363,H363))</f>
+        <f t="shared" si="6"/>
         <v>10213</v>
       </c>
       <c r="J363" t="s">
@@ -37142,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="I364">
-        <f>VALUE(_xlfn.CONCAT(E364,F364,G364,H364))</f>
+        <f t="shared" si="6"/>
         <v>10230</v>
       </c>
       <c r="J364" t="s">
@@ -37175,7 +37178,7 @@
         <v>0</v>
       </c>
       <c r="I365">
-        <f>VALUE(_xlfn.CONCAT(E365,F365,G365,H365))</f>
+        <f t="shared" si="6"/>
         <v>20010</v>
       </c>
       <c r="J365" t="s">
@@ -37208,7 +37211,7 @@
         <v>0</v>
       </c>
       <c r="I366">
-        <f>VALUE(_xlfn.CONCAT(E366,F366,G366,H366))</f>
+        <f t="shared" si="6"/>
         <v>10300</v>
       </c>
       <c r="J366" t="s">
@@ -37241,7 +37244,7 @@
         <v>1</v>
       </c>
       <c r="I367">
-        <f>VALUE(_xlfn.CONCAT(E367,F367,G367,H367))</f>
+        <f t="shared" si="6"/>
         <v>30891</v>
       </c>
       <c r="J367" t="s">

--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Antal\OneDrive - Visegrad Investments\2017 Projektek\iotables\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Antal\OneDrive - Visegrad Investments\_package\iotables\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="593" documentId="BBCC240E134AA52ED9EF656885D7EABF48622902" xr6:coauthVersionLast="26" xr6:coauthVersionMax="26" xr10:uidLastSave="{2446E729-E4F1-4DC1-835A-83F7645CCDF6}"/>
+  <xr:revisionPtr revIDLastSave="595" documentId="BBCC240E134AA52ED9EF656885D7EABF48622902" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{6AB0DEC3-0365-479E-A66E-1F25F73E6A0D}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4" xr2:uid="{2909AB96-77CF-4A03-A17F-F023092B1853}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="induse" sheetId="3" r:id="rId4"/>
     <sheet name="all" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6757" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6757" uniqueCount="739">
   <si>
     <t>A</t>
   </si>
@@ -2240,6 +2240,12 @@
   </si>
   <si>
     <t>wholesale_trade_group</t>
+  </si>
+  <si>
+    <t>real_estate_services</t>
+  </si>
+  <si>
+    <t>real_estate_services_b</t>
   </si>
 </sst>
 </file>
@@ -25325,8 +25331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66AA4A9-AB24-42FC-B620-3CE38CD4AD9A}">
   <dimension ref="A1:J758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A612" workbookViewId="0">
-      <selection activeCell="C623" sqref="C623"/>
+    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
+      <selection activeCell="J637" sqref="J637"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27860,7 +27866,7 @@
         <v>10142</v>
       </c>
       <c r="J79" t="s">
-        <v>608</v>
+        <v>738</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
@@ -29492,7 +29498,7 @@
         <v>10142</v>
       </c>
       <c r="J130" t="s">
-        <v>608</v>
+        <v>738</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
@@ -33457,7 +33463,7 @@
         <v>1</v>
       </c>
       <c r="I252">
-        <f t="shared" ref="I252:I283" si="2">VALUE(_xlfn.CONCAT(E252,F252,G252,H252))</f>
+        <f t="shared" ref="I252:I267" si="2">VALUE(_xlfn.CONCAT(E252,F252,G252,H252))</f>
         <v>10101</v>
       </c>
       <c r="J252" t="s">
@@ -34020,7 +34026,7 @@
         <v>10142</v>
       </c>
       <c r="J269" t="s">
-        <v>608</v>
+        <v>738</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -35865,7 +35871,7 @@
         <v>10142</v>
       </c>
       <c r="J325" t="s">
-        <v>608</v>
+        <v>738</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -39809,7 +39815,7 @@
         <v>10142</v>
       </c>
       <c r="J447" t="s">
-        <v>608</v>
+        <v>738</v>
       </c>
     </row>
     <row r="448" spans="1:10" x14ac:dyDescent="0.25">
@@ -41537,7 +41543,7 @@
         <v>10142</v>
       </c>
       <c r="J501" t="s">
-        <v>608</v>
+        <v>738</v>
       </c>
     </row>
     <row r="502" spans="1:10" x14ac:dyDescent="0.25">
@@ -45793,7 +45799,7 @@
         <v>10140</v>
       </c>
       <c r="J634" t="s">
-        <v>652</v>
+        <v>737</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
@@ -45889,7 +45895,7 @@
         <v>10142</v>
       </c>
       <c r="J637" t="s">
-        <v>608</v>
+        <v>738</v>
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
@@ -47841,7 +47847,7 @@
         <v>10142</v>
       </c>
       <c r="J698" t="s">
-        <v>608</v>
+        <v>738</v>
       </c>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.25">

--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/iotables/data-raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Antal\OneDrive - Visegrad Investments\_package\iotables\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="BBCC240E134AA52ED9EF656885D7EABF48622902" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{BEBBC1ED-6F14-4CAB-868A-5958479E2D37}"/>
+  <xr:revisionPtr revIDLastSave="636" documentId="BBCC240E134AA52ED9EF656885D7EABF48622902" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{C8CD28D1-8E0A-4B8B-B288-5F175C503F09}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4" xr2:uid="{2909AB96-77CF-4A03-A17F-F023092B1853}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">t_cols!$A$1:$I$186</definedName>
   </definedNames>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +30,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6780" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6780" uniqueCount="741">
   <si>
     <t>A</t>
   </si>
@@ -2257,6 +2258,9 @@
   </si>
   <si>
     <t>Computer programming, consultancy and related services;Information services</t>
+  </si>
+  <si>
+    <t>intermediate_consumption_total</t>
   </si>
 </sst>
 </file>
@@ -8715,7 +8719,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H205">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H205">
     <sortCondition ref="D2:D205"/>
     <sortCondition ref="E2:E205"/>
   </sortState>
@@ -14224,7 +14228,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I184">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I184">
     <sortCondition ref="H2:H184"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19797,7 +19801,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I186">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I186">
     <sortCondition ref="H2:H186"/>
     <sortCondition ref="E2:E186"/>
   </sortState>
@@ -25393,7 +25397,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H188">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H188">
     <sortCondition ref="A2:A188"/>
     <sortCondition ref="H2:H188"/>
   </sortState>
@@ -25405,8 +25409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66AA4A9-AB24-42FC-B620-3CE38CD4AD9A}">
   <dimension ref="A1:J761"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="D263" sqref="D263"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="J349" sqref="J349"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36701,7 +36705,7 @@
         <v>20090</v>
       </c>
       <c r="J348" t="s">
-        <v>604</v>
+        <v>658</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -36734,7 +36738,7 @@
         <v>30091</v>
       </c>
       <c r="J349" t="s">
-        <v>658</v>
+        <v>740</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -49942,7 +49946,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J761">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J761">
     <sortCondition ref="A2:A761"/>
     <sortCondition ref="C2:C761"/>
   </sortState>

--- a/data-raw/metadata.xlsx
+++ b/data-raw/metadata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://visegradinvestments-my.sharepoint.com/personal/antaldaniel_visegradinvestments_onmicrosoft_com/Documents/_package/iotables/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="717" documentId="BBCC240E134AA52ED9EF656885D7EABF48622902" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{0787001C-6A4E-4361-985E-5FD860270CDC}"/>
+  <xr:revisionPtr revIDLastSave="718" documentId="BBCC240E134AA52ED9EF656885D7EABF48622902" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{5D47BCF1-3C73-4A8D-8B36-54CC37AED969}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="4" xr2:uid="{2909AB96-77CF-4A03-A17F-F023092B1853}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6840" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6835" uniqueCount="757">
   <si>
     <t>A</t>
   </si>
@@ -25455,11 +25455,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66AA4A9-AB24-42FC-B620-3CE38CD4AD9A}">
-  <dimension ref="A1:J773"/>
+  <dimension ref="A1:J772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A520" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B533" sqref="B533"/>
+      <selection pane="bottomLeft" activeCell="A532" sqref="A532:XFD532"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42601,39 +42601,39 @@
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B532" t="s">
         <v>405</v>
       </c>
       <c r="C532" t="s">
-        <v>327</v>
+        <v>98</v>
       </c>
       <c r="D532" t="s">
-        <v>328</v>
+        <v>99</v>
       </c>
       <c r="E532">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F532">
+        <v>1</v>
+      </c>
+      <c r="G532">
         <v>3</v>
       </c>
-      <c r="G532">
-        <v>1</v>
-      </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I532">
-        <v>20310</v>
+        <v>10131</v>
       </c>
       <c r="J532" t="s">
-        <v>634</v>
+        <v>603</v>
       </c>
     </row>
     <row r="533" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B533" t="s">
         <v>405</v>
@@ -42657,6 +42657,7 @@
         <v>1</v>
       </c>
       <c r="I533">
+        <f>VALUE(_xlfn.CONCAT(E533,F533,G533,H533))</f>
         <v>10131</v>
       </c>
       <c r="J533" t="s">
@@ -42665,7 +42666,7 @@
     </row>
     <row r="534" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B534" t="s">
         <v>405</v>
@@ -42689,7 +42690,6 @@
         <v>1</v>
       </c>
       <c r="I534">
-        <f>VALUE(_xlfn.CONCAT(E534,F534,G534,H534))</f>
         <v>10131</v>
       </c>
       <c r="J534" t="s">
@@ -42698,7 +42698,7 @@
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B535" t="s">
         <v>405</v>
@@ -42730,16 +42730,16 @@
     </row>
     <row r="536" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B536" t="s">
         <v>405</v>
       </c>
       <c r="C536" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D536" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E536">
         <v>10</v>
@@ -42751,18 +42751,18 @@
         <v>3</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I536">
-        <v>10131</v>
+        <v>10132</v>
       </c>
       <c r="J536" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="537" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B537" t="s">
         <v>405</v>
@@ -42786,6 +42786,7 @@
         <v>2</v>
       </c>
       <c r="I537">
+        <f>VALUE(_xlfn.CONCAT(E537,F537,G537,H537))</f>
         <v>10132</v>
       </c>
       <c r="J537" t="s">
@@ -42794,7 +42795,7 @@
     </row>
     <row r="538" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B538" t="s">
         <v>405</v>
@@ -42818,7 +42819,6 @@
         <v>2</v>
       </c>
       <c r="I538">
-        <f>VALUE(_xlfn.CONCAT(E538,F538,G538,H538))</f>
         <v>10132</v>
       </c>
       <c r="J538" t="s">
@@ -42827,7 +42827,7 @@
     </row>
     <row r="539" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B539" t="s">
         <v>405</v>
@@ -42859,16 +42859,16 @@
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B540" t="s">
         <v>405</v>
       </c>
       <c r="C540" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D540" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E540">
         <v>10</v>
@@ -42880,18 +42880,18 @@
         <v>3</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I540">
-        <v>10132</v>
+        <v>10133</v>
       </c>
       <c r="J540" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="541" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B541" t="s">
         <v>405</v>
@@ -42915,6 +42915,7 @@
         <v>3</v>
       </c>
       <c r="I541">
+        <f>VALUE(_xlfn.CONCAT(E541,F541,G541,H541))</f>
         <v>10133</v>
       </c>
       <c r="J541" t="s">
@@ -42923,7 +42924,7 @@
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B542" t="s">
         <v>405</v>
@@ -42947,7 +42948,6 @@
         <v>3</v>
       </c>
       <c r="I542">
-        <f>VALUE(_xlfn.CONCAT(E542,F542,G542,H542))</f>
         <v>10133</v>
       </c>
       <c r="J542" t="s">
@@ -42956,7 +42956,7 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B543" t="s">
         <v>405</v>
@@ -42988,16 +42988,16 @@
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B544" t="s">
         <v>405</v>
       </c>
       <c r="C544" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D544" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="E544">
         <v>10</v>
@@ -43006,21 +43006,21 @@
         <v>1</v>
       </c>
       <c r="G544">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H544">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544">
-        <v>10133</v>
+        <v>10140</v>
       </c>
       <c r="J544" t="s">
-        <v>605</v>
+        <v>652</v>
       </c>
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B545" t="s">
         <v>405</v>
@@ -43044,6 +43044,7 @@
         <v>0</v>
       </c>
       <c r="I545">
+        <f>VALUE(_xlfn.CONCAT(E545,F545,G545,H545))</f>
         <v>10140</v>
       </c>
       <c r="J545" t="s">
@@ -43052,7 +43053,7 @@
     </row>
     <row r="546" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B546" t="s">
         <v>405</v>
@@ -43076,7 +43077,6 @@
         <v>0</v>
       </c>
       <c r="I546">
-        <f>VALUE(_xlfn.CONCAT(E546,F546,G546,H546))</f>
         <v>10140</v>
       </c>
       <c r="J546" t="s">
@@ -43085,7 +43085,7 @@
     </row>
     <row r="547" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B547" t="s">
         <v>405</v>
@@ -43117,13 +43117,13 @@
     </row>
     <row r="548" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B548" t="s">
         <v>405</v>
       </c>
       <c r="C548" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="D548" t="s">
         <v>11</v>
@@ -43149,7 +43149,7 @@
     </row>
     <row r="549" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B549" t="s">
         <v>405</v>
@@ -43181,16 +43181,16 @@
     </row>
     <row r="550" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B550" t="s">
         <v>405</v>
       </c>
       <c r="C550" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D550" t="s">
-        <v>11</v>
+        <v>108</v>
       </c>
       <c r="E550">
         <v>10</v>
@@ -43202,18 +43202,18 @@
         <v>4</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I550">
-        <v>10140</v>
+        <v>10141</v>
       </c>
       <c r="J550" t="s">
-        <v>652</v>
+        <v>606</v>
       </c>
     </row>
     <row r="551" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B551" t="s">
         <v>405</v>
@@ -43245,7 +43245,7 @@
     </row>
     <row r="552" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B552" t="s">
         <v>405</v>
@@ -43277,7 +43277,7 @@
     </row>
     <row r="553" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B553" t="s">
         <v>405</v>
@@ -43309,16 +43309,16 @@
     </row>
     <row r="554" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B554" t="s">
         <v>405</v>
       </c>
       <c r="C554" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D554" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E554">
         <v>10</v>
@@ -43330,18 +43330,18 @@
         <v>4</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I554">
-        <v>10141</v>
+        <v>10142</v>
       </c>
       <c r="J554" t="s">
-        <v>606</v>
+        <v>736</v>
       </c>
     </row>
     <row r="555" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B555" t="s">
         <v>405</v>
@@ -43373,7 +43373,7 @@
     </row>
     <row r="556" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B556" t="s">
         <v>405</v>
@@ -43405,7 +43405,7 @@
     </row>
     <row r="557" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B557" t="s">
         <v>405</v>
@@ -43437,72 +43437,72 @@
     </row>
     <row r="558" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B558" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C558" t="s">
-        <v>105</v>
+        <v>462</v>
       </c>
       <c r="D558" t="s">
-        <v>106</v>
+        <v>463</v>
       </c>
       <c r="E558">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F558">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G558">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H558">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I558">
-        <v>10142</v>
+        <f>VALUE(_xlfn.CONCAT(E558,F558,G558,H558))</f>
+        <v>50900</v>
       </c>
       <c r="J558" t="s">
-        <v>736</v>
+        <v>697</v>
       </c>
     </row>
     <row r="559" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B559" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C559" t="s">
-        <v>462</v>
+        <v>12</v>
       </c>
       <c r="D559" t="s">
-        <v>463</v>
+        <v>13</v>
       </c>
       <c r="E559">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F559">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G559">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H559">
         <v>0</v>
       </c>
       <c r="I559">
-        <f>VALUE(_xlfn.CONCAT(E559,F559,G559,H559))</f>
-        <v>50900</v>
+        <v>10150</v>
       </c>
       <c r="J559" t="s">
-        <v>697</v>
+        <v>653</v>
       </c>
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B560" t="s">
         <v>405</v>
@@ -43526,6 +43526,7 @@
         <v>0</v>
       </c>
       <c r="I560">
+        <f>VALUE(_xlfn.CONCAT(E560,F560,G560,H560))</f>
         <v>10150</v>
       </c>
       <c r="J560" t="s">
@@ -43534,7 +43535,7 @@
     </row>
     <row r="561" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B561" t="s">
         <v>405</v>
@@ -43558,7 +43559,6 @@
         <v>0</v>
       </c>
       <c r="I561">
-        <f>VALUE(_xlfn.CONCAT(E561,F561,G561,H561))</f>
         <v>10150</v>
       </c>
       <c r="J561" t="s">
@@ -43567,7 +43567,7 @@
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B562" t="s">
         <v>405</v>
@@ -43599,16 +43599,16 @@
     </row>
     <row r="563" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B563" t="s">
         <v>405</v>
       </c>
       <c r="C563" t="s">
-        <v>12</v>
+        <v>474</v>
       </c>
       <c r="D563" t="s">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="E563">
         <v>10</v>
@@ -43620,18 +43620,18 @@
         <v>5</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I563">
-        <v>10150</v>
+        <v>10151</v>
       </c>
       <c r="J563" t="s">
-        <v>653</v>
+        <v>609</v>
       </c>
     </row>
     <row r="564" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B564" t="s">
         <v>405</v>
@@ -43655,6 +43655,7 @@
         <v>1</v>
       </c>
       <c r="I564">
+        <f>VALUE(_xlfn.CONCAT(E564,F564,G564,H564))</f>
         <v>10151</v>
       </c>
       <c r="J564" t="s">
@@ -43663,13 +43664,13 @@
     </row>
     <row r="565" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B565" t="s">
         <v>405</v>
       </c>
       <c r="C565" t="s">
-        <v>474</v>
+        <v>109</v>
       </c>
       <c r="D565" t="s">
         <v>110</v>
@@ -43687,7 +43688,6 @@
         <v>1</v>
       </c>
       <c r="I565">
-        <f>VALUE(_xlfn.CONCAT(E565,F565,G565,H565))</f>
         <v>10151</v>
       </c>
       <c r="J565" t="s">
@@ -43696,7 +43696,7 @@
     </row>
     <row r="566" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B566" t="s">
         <v>405</v>
@@ -43728,16 +43728,16 @@
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B567" t="s">
         <v>405</v>
       </c>
       <c r="C567" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D567" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E567">
         <v>10</v>
@@ -43749,18 +43749,18 @@
         <v>5</v>
       </c>
       <c r="H567">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I567">
-        <v>10151</v>
+        <v>10152</v>
       </c>
       <c r="J567" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B568" t="s">
         <v>405</v>
@@ -43784,6 +43784,7 @@
         <v>2</v>
       </c>
       <c r="I568">
+        <f>VALUE(_xlfn.CONCAT(E568,F568,G568,H568))</f>
         <v>10152</v>
       </c>
       <c r="J568" t="s">
@@ -43792,7 +43793,7 @@
     </row>
     <row r="569" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B569" t="s">
         <v>405</v>
@@ -43816,7 +43817,6 @@
         <v>2</v>
       </c>
       <c r="I569">
-        <f>VALUE(_xlfn.CONCAT(E569,F569,G569,H569))</f>
         <v>10152</v>
       </c>
       <c r="J569" t="s">
@@ -43825,7 +43825,7 @@
     </row>
     <row r="570" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B570" t="s">
         <v>405</v>
@@ -43857,16 +43857,16 @@
     </row>
     <row r="571" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B571" t="s">
         <v>405</v>
       </c>
       <c r="C571" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D571" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E571">
         <v>10</v>
@@ -43878,18 +43878,18 @@
         <v>5</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I571">
-        <v>10152</v>
+        <v>10153</v>
       </c>
       <c r="J571" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="572" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B572" t="s">
         <v>405</v>
@@ -43913,6 +43913,7 @@
         <v>3</v>
       </c>
       <c r="I572">
+        <f>VALUE(_xlfn.CONCAT(E572,F572,G572,H572))</f>
         <v>10153</v>
       </c>
       <c r="J572" t="s">
@@ -43921,7 +43922,7 @@
     </row>
     <row r="573" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B573" t="s">
         <v>405</v>
@@ -43945,7 +43946,6 @@
         <v>3</v>
       </c>
       <c r="I573">
-        <f>VALUE(_xlfn.CONCAT(E573,F573,G573,H573))</f>
         <v>10153</v>
       </c>
       <c r="J573" t="s">
@@ -43954,7 +43954,7 @@
     </row>
     <row r="574" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B574" t="s">
         <v>405</v>
@@ -43986,16 +43986,16 @@
     </row>
     <row r="575" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B575" t="s">
         <v>405</v>
       </c>
       <c r="C575" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D575" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E575">
         <v>10</v>
@@ -44007,18 +44007,18 @@
         <v>5</v>
       </c>
       <c r="H575">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I575">
-        <v>10153</v>
+        <v>10154</v>
       </c>
       <c r="J575" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="576" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B576" t="s">
         <v>405</v>
@@ -44042,6 +44042,7 @@
         <v>4</v>
       </c>
       <c r="I576">
+        <f>VALUE(_xlfn.CONCAT(E576,F576,G576,H576))</f>
         <v>10154</v>
       </c>
       <c r="J576" t="s">
@@ -44050,7 +44051,7 @@
     </row>
     <row r="577" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B577" t="s">
         <v>405</v>
@@ -44074,7 +44075,6 @@
         <v>4</v>
       </c>
       <c r="I577">
-        <f>VALUE(_xlfn.CONCAT(E577,F577,G577,H577))</f>
         <v>10154</v>
       </c>
       <c r="J577" t="s">
@@ -44083,7 +44083,7 @@
     </row>
     <row r="578" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B578" t="s">
         <v>405</v>
@@ -44115,16 +44115,16 @@
     </row>
     <row r="579" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B579" t="s">
         <v>405</v>
       </c>
       <c r="C579" t="s">
-        <v>115</v>
+        <v>475</v>
       </c>
       <c r="D579" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E579">
         <v>10</v>
@@ -44136,18 +44136,18 @@
         <v>5</v>
       </c>
       <c r="H579">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I579">
-        <v>10154</v>
+        <v>10155</v>
       </c>
       <c r="J579" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="580" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B580" t="s">
         <v>405</v>
@@ -44171,6 +44171,7 @@
         <v>5</v>
       </c>
       <c r="I580">
+        <f>VALUE(_xlfn.CONCAT(E580,F580,G580,H580))</f>
         <v>10155</v>
       </c>
       <c r="J580" t="s">
@@ -44179,13 +44180,13 @@
     </row>
     <row r="581" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B581" t="s">
         <v>405</v>
       </c>
       <c r="C581" t="s">
-        <v>475</v>
+        <v>117</v>
       </c>
       <c r="D581" t="s">
         <v>118</v>
@@ -44203,7 +44204,6 @@
         <v>5</v>
       </c>
       <c r="I581">
-        <f>VALUE(_xlfn.CONCAT(E581,F581,G581,H581))</f>
         <v>10155</v>
       </c>
       <c r="J581" t="s">
@@ -44212,7 +44212,7 @@
     </row>
     <row r="582" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B582" t="s">
         <v>405</v>
@@ -44247,68 +44247,68 @@
         <v>685</v>
       </c>
       <c r="B583" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C583" t="s">
-        <v>117</v>
+        <v>391</v>
       </c>
       <c r="D583" t="s">
-        <v>118</v>
+        <v>392</v>
       </c>
       <c r="E583">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F583">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G583">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H583">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I583">
-        <v>10155</v>
+        <v>50830</v>
       </c>
       <c r="J583" t="s">
-        <v>613</v>
+        <v>678</v>
       </c>
     </row>
     <row r="584" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B584" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="C584" t="s">
-        <v>391</v>
+        <v>119</v>
       </c>
       <c r="D584" t="s">
-        <v>392</v>
+        <v>120</v>
       </c>
       <c r="E584">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="F584">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G584">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I584">
-        <v>50830</v>
+        <v>10161</v>
       </c>
       <c r="J584" t="s">
-        <v>678</v>
+        <v>614</v>
       </c>
     </row>
     <row r="585" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B585" t="s">
         <v>405</v>
@@ -44332,6 +44332,7 @@
         <v>1</v>
       </c>
       <c r="I585">
+        <f>VALUE(_xlfn.CONCAT(E585,F585,G585,H585))</f>
         <v>10161</v>
       </c>
       <c r="J585" t="s">
@@ -44340,7 +44341,7 @@
     </row>
     <row r="586" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B586" t="s">
         <v>405</v>
@@ -44364,7 +44365,6 @@
         <v>1</v>
       </c>
       <c r="I586">
-        <f>VALUE(_xlfn.CONCAT(E586,F586,G586,H586))</f>
         <v>10161</v>
       </c>
       <c r="J586" t="s">
@@ -44373,7 +44373,7 @@
     </row>
     <row r="587" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B587" t="s">
         <v>405</v>
@@ -44405,16 +44405,16 @@
     </row>
     <row r="588" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B588" t="s">
         <v>405</v>
       </c>
       <c r="C588" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D588" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E588">
         <v>10</v>
@@ -44426,18 +44426,18 @@
         <v>6</v>
       </c>
       <c r="H588">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I588">
-        <v>10161</v>
+        <v>10162</v>
       </c>
       <c r="J588" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="589" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B589" t="s">
         <v>405</v>
@@ -44461,6 +44461,7 @@
         <v>2</v>
       </c>
       <c r="I589">
+        <f>VALUE(_xlfn.CONCAT(E589,F589,G589,H589))</f>
         <v>10162</v>
       </c>
       <c r="J589" t="s">
@@ -44469,7 +44470,7 @@
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B590" t="s">
         <v>405</v>
@@ -44493,7 +44494,6 @@
         <v>2</v>
       </c>
       <c r="I590">
-        <f>VALUE(_xlfn.CONCAT(E590,F590,G590,H590))</f>
         <v>10162</v>
       </c>
       <c r="J590" t="s">
@@ -44502,7 +44502,7 @@
     </row>
     <row r="591" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B591" t="s">
         <v>405</v>
@@ -44534,16 +44534,16 @@
     </row>
     <row r="592" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B592" t="s">
         <v>405</v>
       </c>
       <c r="C592" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D592" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E592">
         <v>10</v>
@@ -44555,18 +44555,18 @@
         <v>6</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I592">
-        <v>10162</v>
+        <v>10163</v>
       </c>
       <c r="J592" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B593" t="s">
         <v>405</v>
@@ -44590,6 +44590,7 @@
         <v>3</v>
       </c>
       <c r="I593">
+        <f>VALUE(_xlfn.CONCAT(E593,F593,G593,H593))</f>
         <v>10163</v>
       </c>
       <c r="J593" t="s">
@@ -44598,7 +44599,7 @@
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B594" t="s">
         <v>405</v>
@@ -44622,7 +44623,6 @@
         <v>3</v>
       </c>
       <c r="I594">
-        <f>VALUE(_xlfn.CONCAT(E594,F594,G594,H594))</f>
         <v>10163</v>
       </c>
       <c r="J594" t="s">
@@ -44631,7 +44631,7 @@
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B595" t="s">
         <v>405</v>
@@ -44663,16 +44663,16 @@
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B596" t="s">
         <v>405</v>
       </c>
       <c r="C596" t="s">
-        <v>123</v>
+        <v>476</v>
       </c>
       <c r="D596" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E596">
         <v>10</v>
@@ -44684,18 +44684,18 @@
         <v>6</v>
       </c>
       <c r="H596">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I596">
-        <v>10163</v>
+        <v>10164</v>
       </c>
       <c r="J596" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="597" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B597" t="s">
         <v>405</v>
@@ -44719,6 +44719,7 @@
         <v>4</v>
       </c>
       <c r="I597">
+        <f>VALUE(_xlfn.CONCAT(E597,F597,G597,H597))</f>
         <v>10164</v>
       </c>
       <c r="J597" t="s">
@@ -44727,13 +44728,13 @@
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B598" t="s">
         <v>405</v>
       </c>
       <c r="C598" t="s">
-        <v>476</v>
+        <v>125</v>
       </c>
       <c r="D598" t="s">
         <v>126</v>
@@ -44751,7 +44752,6 @@
         <v>4</v>
       </c>
       <c r="I598">
-        <f>VALUE(_xlfn.CONCAT(E598,F598,G598,H598))</f>
         <v>10164</v>
       </c>
       <c r="J598" t="s">
@@ -44760,7 +44760,7 @@
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B599" t="s">
         <v>405</v>
@@ -44792,39 +44792,39 @@
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B600" t="s">
-        <v>405</v>
+        <v>437</v>
       </c>
       <c r="C600" t="s">
-        <v>125</v>
+        <v>437</v>
       </c>
       <c r="D600" t="s">
-        <v>126</v>
+        <v>438</v>
       </c>
       <c r="E600">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="F600">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G600">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="H600">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I600">
-        <v>10164</v>
+        <v>99999</v>
       </c>
       <c r="J600" t="s">
-        <v>617</v>
+        <v>656</v>
       </c>
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B601" t="s">
         <v>437</v>
@@ -44848,6 +44848,7 @@
         <v>9</v>
       </c>
       <c r="I601">
+        <f>VALUE(_xlfn.CONCAT(E601,F601,G601,H601))</f>
         <v>99999</v>
       </c>
       <c r="J601" t="s">
@@ -44856,40 +44857,39 @@
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B602" t="s">
-        <v>437</v>
+        <v>405</v>
       </c>
       <c r="C602" t="s">
-        <v>437</v>
+        <v>477</v>
       </c>
       <c r="D602" t="s">
-        <v>438</v>
+        <v>128</v>
       </c>
       <c r="E602">
-        <v>99</v>
+        <v>10</v>
       </c>
       <c r="F602">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G602">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H602">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="I602">
-        <f>VALUE(_xlfn.CONCAT(E602,F602,G602,H602))</f>
-        <v>99999</v>
+        <v>10170</v>
       </c>
       <c r="J602" t="s">
-        <v>656</v>
+        <v>618</v>
       </c>
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B603" t="s">
         <v>405</v>
@@ -44913,7 +44913,8 @@
         <v>1</v>
       </c>
       <c r="I603">
-        <v>10170</v>
+        <f>VALUE(_xlfn.CONCAT(E603,F603,G603,H603))</f>
+        <v>10171</v>
       </c>
       <c r="J603" t="s">
         <v>618</v>
@@ -44921,13 +44922,13 @@
     </row>
     <row r="604" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B604" t="s">
         <v>405</v>
       </c>
       <c r="C604" t="s">
-        <v>477</v>
+        <v>127</v>
       </c>
       <c r="D604" t="s">
         <v>128</v>
@@ -44945,8 +44946,7 @@
         <v>1</v>
       </c>
       <c r="I604">
-        <f>VALUE(_xlfn.CONCAT(E604,F604,G604,H604))</f>
-        <v>10171</v>
+        <v>10170</v>
       </c>
       <c r="J604" t="s">
         <v>618</v>
@@ -44954,7 +44954,7 @@
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B605" t="s">
         <v>405</v>
@@ -44986,34 +44986,35 @@
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B606" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="C606" t="s">
-        <v>127</v>
+        <v>443</v>
       </c>
       <c r="D606" t="s">
-        <v>128</v>
+        <v>306</v>
       </c>
       <c r="E606">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F606">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G606">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H606">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I606">
-        <v>10170</v>
+        <f>VALUE(_xlfn.CONCAT(E606,F606,G606,H606))</f>
+        <v>20004</v>
       </c>
       <c r="J606" t="s">
-        <v>618</v>
+        <v>730</v>
       </c>
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.25">
@@ -45024,10 +45025,10 @@
         <v>411</v>
       </c>
       <c r="C607" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D607" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E607">
         <v>20</v>
@@ -45039,52 +45040,51 @@
         <v>0</v>
       </c>
       <c r="H607">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I607">
         <f>VALUE(_xlfn.CONCAT(E607,F607,G607,H607))</f>
-        <v>20004</v>
+        <v>20002</v>
       </c>
       <c r="J607" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B608" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C608" t="s">
-        <v>440</v>
+        <v>14</v>
       </c>
       <c r="D608" t="s">
-        <v>304</v>
+        <v>166</v>
       </c>
       <c r="E608">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F608">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G608">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H608">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608">
-        <f>VALUE(_xlfn.CONCAT(E608,F608,G608,H608))</f>
-        <v>20002</v>
+        <v>10170</v>
       </c>
       <c r="J608" t="s">
-        <v>698</v>
+        <v>654</v>
       </c>
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B609" t="s">
         <v>405</v>
@@ -45108,6 +45108,7 @@
         <v>0</v>
       </c>
       <c r="I609">
+        <f>VALUE(_xlfn.CONCAT(E609,F609,G609,H609))</f>
         <v>10170</v>
       </c>
       <c r="J609" t="s">
@@ -45116,7 +45117,7 @@
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B610" t="s">
         <v>405</v>
@@ -45125,7 +45126,7 @@
         <v>14</v>
       </c>
       <c r="D610" t="s">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="E610">
         <v>10</v>
@@ -45140,7 +45141,6 @@
         <v>0</v>
       </c>
       <c r="I610">
-        <f>VALUE(_xlfn.CONCAT(E610,F610,G610,H610))</f>
         <v>10170</v>
       </c>
       <c r="J610" t="s">
@@ -45149,7 +45149,7 @@
     </row>
     <row r="611" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B611" t="s">
         <v>405</v>
@@ -45181,34 +45181,35 @@
     </row>
     <row r="612" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B612" t="s">
         <v>405</v>
       </c>
       <c r="C612" t="s">
-        <v>14</v>
+        <v>745</v>
       </c>
       <c r="D612" t="s">
-        <v>15</v>
+        <v>742</v>
       </c>
       <c r="E612">
         <v>10</v>
       </c>
       <c r="F612">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G612">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I612">
-        <v>10170</v>
+        <f>VALUE(_xlfn.CONCAT(E612,F612,G612,H612))</f>
+        <v>10239</v>
       </c>
       <c r="J612" t="s">
-        <v>654</v>
+        <v>744</v>
       </c>
     </row>
     <row r="613" spans="1:10" x14ac:dyDescent="0.25">
@@ -45216,32 +45217,31 @@
         <v>688</v>
       </c>
       <c r="B613" t="s">
-        <v>405</v>
+        <v>544</v>
       </c>
       <c r="C613" t="s">
-        <v>745</v>
+        <v>499</v>
       </c>
       <c r="D613" t="s">
-        <v>742</v>
+        <v>382</v>
       </c>
       <c r="E613">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F613">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G613">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H613">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I613">
-        <f>VALUE(_xlfn.CONCAT(E613,F613,G613,H613))</f>
-        <v>10239</v>
+        <v>30820</v>
       </c>
       <c r="J613" t="s">
-        <v>744</v>
+        <v>692</v>
       </c>
     </row>
     <row r="614" spans="1:10" x14ac:dyDescent="0.25">
@@ -45249,36 +45249,36 @@
         <v>688</v>
       </c>
       <c r="B614" t="s">
-        <v>544</v>
+        <v>405</v>
       </c>
       <c r="C614" t="s">
-        <v>499</v>
+        <v>478</v>
       </c>
       <c r="D614" t="s">
-        <v>382</v>
+        <v>130</v>
       </c>
       <c r="E614">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F614">
+        <v>1</v>
+      </c>
+      <c r="G614">
         <v>8</v>
       </c>
-      <c r="G614">
-        <v>2</v>
-      </c>
       <c r="H614">
         <v>0</v>
       </c>
       <c r="I614">
-        <v>30820</v>
+        <v>10180</v>
       </c>
       <c r="J614" t="s">
-        <v>692</v>
+        <v>619</v>
       </c>
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B615" t="s">
         <v>405</v>
@@ -45302,6 +45302,7 @@
         <v>0</v>
       </c>
       <c r="I615">
+        <f>VALUE(_xlfn.CONCAT(E615,F615,G615,H615))</f>
         <v>10180</v>
       </c>
       <c r="J615" t="s">
@@ -45313,37 +45314,37 @@
         <v>686</v>
       </c>
       <c r="B616" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C616" t="s">
-        <v>478</v>
+        <v>337</v>
       </c>
       <c r="D616" t="s">
-        <v>130</v>
+        <v>408</v>
       </c>
       <c r="E616">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F616">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G616">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H616">
         <v>0</v>
       </c>
       <c r="I616">
         <f>VALUE(_xlfn.CONCAT(E616,F616,G616,H616))</f>
-        <v>10180</v>
+        <v>20690</v>
       </c>
       <c r="J616" t="s">
-        <v>619</v>
+        <v>675</v>
       </c>
     </row>
     <row r="617" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B617" t="s">
         <v>408</v>
@@ -45352,7 +45353,7 @@
         <v>337</v>
       </c>
       <c r="D617" t="s">
-        <v>408</v>
+        <v>338</v>
       </c>
       <c r="E617">
         <v>20</v>
@@ -45367,48 +45368,47 @@
         <v>0</v>
       </c>
       <c r="I617">
-        <f>VALUE(_xlfn.CONCAT(E617,F617,G617,H617))</f>
         <v>20690</v>
       </c>
       <c r="J617" t="s">
-        <v>675</v>
+        <v>639</v>
       </c>
     </row>
     <row r="618" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B618" t="s">
         <v>408</v>
       </c>
       <c r="C618" t="s">
-        <v>337</v>
+        <v>311</v>
       </c>
       <c r="D618" t="s">
-        <v>338</v>
+        <v>449</v>
       </c>
       <c r="E618">
         <v>20</v>
       </c>
       <c r="F618">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G618">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H618">
         <v>0</v>
       </c>
       <c r="I618">
-        <v>20690</v>
+        <v>20210</v>
       </c>
       <c r="J618" t="s">
-        <v>639</v>
+        <v>667</v>
       </c>
     </row>
     <row r="619" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B619" t="s">
         <v>408</v>
@@ -45440,7 +45440,7 @@
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B620" t="s">
         <v>408</v>
@@ -45449,25 +45449,25 @@
         <v>311</v>
       </c>
       <c r="D620" t="s">
-        <v>449</v>
+        <v>312</v>
       </c>
       <c r="E620">
         <v>20</v>
       </c>
       <c r="F620">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G620">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H620">
         <v>0</v>
       </c>
       <c r="I620">
-        <v>20210</v>
+        <v>20920</v>
       </c>
       <c r="J620" t="s">
-        <v>667</v>
+        <v>718</v>
       </c>
     </row>
     <row r="621" spans="1:10" x14ac:dyDescent="0.25">
@@ -45475,39 +45475,39 @@
         <v>685</v>
       </c>
       <c r="B621" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="C621" t="s">
-        <v>311</v>
+        <v>381</v>
       </c>
       <c r="D621" t="s">
-        <v>312</v>
+        <v>382</v>
       </c>
       <c r="E621">
         <v>20</v>
       </c>
       <c r="F621">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G621">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H621">
         <v>0</v>
       </c>
       <c r="I621">
-        <v>20920</v>
+        <v>20810</v>
       </c>
       <c r="J621" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
     </row>
     <row r="622" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B622" t="s">
-        <v>404</v>
+        <v>544</v>
       </c>
       <c r="C622" t="s">
         <v>381</v>
@@ -45516,19 +45516,19 @@
         <v>382</v>
       </c>
       <c r="E622">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F622">
         <v>8</v>
       </c>
       <c r="G622">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H622">
         <v>0</v>
       </c>
       <c r="I622">
-        <v>20810</v>
+        <v>30820</v>
       </c>
       <c r="J622" t="s">
         <v>692</v>
@@ -45536,39 +45536,39 @@
     </row>
     <row r="623" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B623" t="s">
-        <v>544</v>
+        <v>408</v>
       </c>
       <c r="C623" t="s">
-        <v>381</v>
+        <v>313</v>
       </c>
       <c r="D623" t="s">
-        <v>382</v>
+        <v>501</v>
       </c>
       <c r="E623">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F623">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G623">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H623">
         <v>0</v>
       </c>
       <c r="I623">
-        <v>30820</v>
+        <v>20310</v>
       </c>
       <c r="J623" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
     </row>
     <row r="624" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B624" t="s">
         <v>408</v>
@@ -45577,7 +45577,7 @@
         <v>313</v>
       </c>
       <c r="D624" t="s">
-        <v>501</v>
+        <v>450</v>
       </c>
       <c r="E624">
         <v>20</v>
@@ -45600,7 +45600,7 @@
     </row>
     <row r="625" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B625" t="s">
         <v>408</v>
@@ -45609,22 +45609,22 @@
         <v>313</v>
       </c>
       <c r="D625" t="s">
-        <v>450</v>
+        <v>314</v>
       </c>
       <c r="E625">
         <v>20</v>
       </c>
       <c r="F625">
+        <v>9</v>
+      </c>
+      <c r="G625">
         <v>3</v>
       </c>
-      <c r="G625">
-        <v>1</v>
-      </c>
       <c r="H625">
         <v>0</v>
       </c>
       <c r="I625">
-        <v>20310</v>
+        <v>20930</v>
       </c>
       <c r="J625" t="s">
         <v>720</v>
@@ -45632,39 +45632,39 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B626" t="s">
         <v>408</v>
       </c>
       <c r="C626" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D626" t="s">
-        <v>314</v>
+        <v>502</v>
       </c>
       <c r="E626">
         <v>20</v>
       </c>
       <c r="F626">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G626">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H626">
         <v>0</v>
       </c>
       <c r="I626">
-        <v>20930</v>
+        <v>20420</v>
       </c>
       <c r="J626" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="627" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B627" t="s">
         <v>408</v>
@@ -45673,7 +45673,7 @@
         <v>315</v>
       </c>
       <c r="D627" t="s">
-        <v>502</v>
+        <v>451</v>
       </c>
       <c r="E627">
         <v>20</v>
@@ -45696,7 +45696,7 @@
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B628" t="s">
         <v>408</v>
@@ -45705,57 +45705,58 @@
         <v>315</v>
       </c>
       <c r="D628" t="s">
-        <v>451</v>
+        <v>316</v>
       </c>
       <c r="E628">
         <v>20</v>
       </c>
       <c r="F628">
+        <v>9</v>
+      </c>
+      <c r="G628">
         <v>4</v>
       </c>
-      <c r="G628">
-        <v>2</v>
-      </c>
       <c r="H628">
         <v>0</v>
       </c>
       <c r="I628">
-        <v>20420</v>
+        <v>20940</v>
       </c>
       <c r="J628" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="629" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B629" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C629" t="s">
-        <v>315</v>
+        <v>448</v>
       </c>
       <c r="D629" t="s">
-        <v>316</v>
+        <v>412</v>
       </c>
       <c r="E629">
         <v>20</v>
       </c>
       <c r="F629">
+        <v>0</v>
+      </c>
+      <c r="G629">
         <v>9</v>
       </c>
-      <c r="G629">
-        <v>4</v>
-      </c>
       <c r="H629">
         <v>0</v>
       </c>
       <c r="I629">
-        <v>20940</v>
+        <f>VALUE(_xlfn.CONCAT(E629,F629,G629,H629))</f>
+        <v>20090</v>
       </c>
       <c r="J629" t="s">
-        <v>719</v>
+        <v>658</v>
       </c>
     </row>
     <row r="630" spans="1:10" x14ac:dyDescent="0.25">
@@ -45766,13 +45767,13 @@
         <v>412</v>
       </c>
       <c r="C630" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D630" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="E630">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F630">
         <v>0</v>
@@ -45781,52 +45782,51 @@
         <v>9</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I630">
         <f>VALUE(_xlfn.CONCAT(E630,F630,G630,H630))</f>
-        <v>20090</v>
+        <v>30091</v>
       </c>
       <c r="J630" t="s">
-        <v>658</v>
+        <v>738</v>
       </c>
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B631" t="s">
         <v>412</v>
       </c>
       <c r="C631" t="s">
-        <v>444</v>
+        <v>345</v>
       </c>
       <c r="D631" t="s">
-        <v>445</v>
+        <v>346</v>
       </c>
       <c r="E631">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F631">
         <v>0</v>
       </c>
       <c r="G631">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631">
-        <f>VALUE(_xlfn.CONCAT(E631,F631,G631,H631))</f>
-        <v>30091</v>
+        <v>20020</v>
       </c>
       <c r="J631" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B632" t="s">
         <v>412</v>
@@ -45841,16 +45841,16 @@
         <v>20</v>
       </c>
       <c r="F632">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G632">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I632">
-        <v>20020</v>
+        <v>20991</v>
       </c>
       <c r="J632" t="s">
         <v>726</v>
@@ -45858,71 +45858,71 @@
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B633" t="s">
         <v>412</v>
       </c>
       <c r="C633" t="s">
-        <v>345</v>
+        <v>307</v>
       </c>
       <c r="D633" t="s">
-        <v>346</v>
+        <v>308</v>
       </c>
       <c r="E633">
         <v>20</v>
       </c>
       <c r="F633">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G633">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I633">
-        <v>20991</v>
+        <v>20010</v>
       </c>
       <c r="J633" t="s">
-        <v>726</v>
+        <v>630</v>
       </c>
     </row>
     <row r="634" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B634" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="C634" t="s">
-        <v>307</v>
+        <v>367</v>
       </c>
       <c r="D634" t="s">
-        <v>308</v>
+        <v>503</v>
       </c>
       <c r="E634">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F634">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G634">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H634">
         <v>0</v>
       </c>
       <c r="I634">
-        <v>20010</v>
+        <v>30390</v>
       </c>
       <c r="J634" t="s">
-        <v>630</v>
+        <v>666</v>
       </c>
     </row>
     <row r="635" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B635" t="s">
         <v>415</v>
@@ -45931,7 +45931,7 @@
         <v>367</v>
       </c>
       <c r="D635" t="s">
-        <v>503</v>
+        <v>368</v>
       </c>
       <c r="E635">
         <v>30</v>
@@ -45954,7 +45954,7 @@
     </row>
     <row r="636" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B636" t="s">
         <v>415</v>
@@ -45986,16 +45986,16 @@
     </row>
     <row r="637" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B637" t="s">
         <v>415</v>
       </c>
       <c r="C637" t="s">
-        <v>367</v>
+        <v>523</v>
       </c>
       <c r="D637" t="s">
-        <v>368</v>
+        <v>524</v>
       </c>
       <c r="E637">
         <v>30</v>
@@ -46007,18 +46007,18 @@
         <v>9</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I637">
         <v>30390</v>
       </c>
       <c r="J637" t="s">
-        <v>666</v>
+        <v>704</v>
       </c>
     </row>
     <row r="638" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B638" t="s">
         <v>415</v>
@@ -46027,13 +46027,13 @@
         <v>523</v>
       </c>
       <c r="D638" t="s">
-        <v>524</v>
+        <v>538</v>
       </c>
       <c r="E638">
         <v>30</v>
       </c>
       <c r="F638">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G638">
         <v>9</v>
@@ -46042,50 +46042,50 @@
         <v>9</v>
       </c>
       <c r="I638">
-        <v>30390</v>
+        <v>30599</v>
       </c>
       <c r="J638" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
     </row>
     <row r="639" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B639" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="C639" t="s">
-        <v>523</v>
+        <v>365</v>
       </c>
       <c r="D639" t="s">
-        <v>538</v>
+        <v>366</v>
       </c>
       <c r="E639">
         <v>30</v>
       </c>
       <c r="F639">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G639">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H639">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I639">
-        <v>30599</v>
+        <v>30330</v>
       </c>
       <c r="J639" t="s">
-        <v>699</v>
+        <v>664</v>
       </c>
     </row>
     <row r="640" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B640" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="C640" t="s">
         <v>365</v>
@@ -46114,7 +46114,7 @@
     </row>
     <row r="641" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B641" t="s">
         <v>415</v>
@@ -46146,16 +46146,16 @@
     </row>
     <row r="642" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B642" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="C642" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D642" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E642">
         <v>30</v>
@@ -46164,24 +46164,24 @@
         <v>3</v>
       </c>
       <c r="G642">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H642">
         <v>0</v>
       </c>
       <c r="I642">
-        <v>30330</v>
+        <v>30310</v>
       </c>
       <c r="J642" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="643" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B643" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="C643" t="s">
         <v>361</v>
@@ -46210,7 +46210,7 @@
     </row>
     <row r="644" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B644" t="s">
         <v>415</v>
@@ -46242,16 +46242,16 @@
     </row>
     <row r="645" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B645" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="C645" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="D645" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E645">
         <v>30</v>
@@ -46260,24 +46260,24 @@
         <v>3</v>
       </c>
       <c r="G645">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H645">
         <v>0</v>
       </c>
       <c r="I645">
-        <v>30310</v>
+        <v>30320</v>
       </c>
       <c r="J645" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="646" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B646" t="s">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="C646" t="s">
         <v>363</v>
@@ -46306,7 +46306,7 @@
     </row>
     <row r="647" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B647" t="s">
         <v>415</v>
@@ -46341,31 +46341,31 @@
         <v>685</v>
       </c>
       <c r="B648" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C648" t="s">
-        <v>363</v>
+        <v>303</v>
       </c>
       <c r="D648" t="s">
-        <v>364</v>
+        <v>304</v>
       </c>
       <c r="E648">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F648">
+        <v>0</v>
+      </c>
+      <c r="G648">
         <v>3</v>
       </c>
-      <c r="G648">
-        <v>2</v>
-      </c>
       <c r="H648">
         <v>0</v>
       </c>
       <c r="I648">
-        <v>30320</v>
+        <v>20030</v>
       </c>
       <c r="J648" t="s">
-        <v>665</v>
+        <v>698</v>
       </c>
     </row>
     <row r="649" spans="1:10" x14ac:dyDescent="0.25">
@@ -46376,10 +46376,10 @@
         <v>404</v>
       </c>
       <c r="C649" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D649" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="E649">
         <v>20</v>
@@ -46388,53 +46388,53 @@
         <v>0</v>
       </c>
       <c r="G649">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H649">
         <v>0</v>
       </c>
       <c r="I649">
-        <v>20030</v>
+        <v>20040</v>
       </c>
       <c r="J649" t="s">
-        <v>698</v>
+        <v>730</v>
       </c>
     </row>
     <row r="650" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B650" t="s">
-        <v>404</v>
+        <v>541</v>
       </c>
       <c r="C650" t="s">
-        <v>305</v>
+        <v>373</v>
       </c>
       <c r="D650" t="s">
-        <v>306</v>
+        <v>505</v>
       </c>
       <c r="E650">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F650">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G650">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H650">
         <v>0</v>
       </c>
       <c r="I650">
-        <v>20040</v>
+        <v>30590</v>
       </c>
       <c r="J650" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
     </row>
     <row r="651" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B651" t="s">
         <v>541</v>
@@ -46443,7 +46443,7 @@
         <v>373</v>
       </c>
       <c r="D651" t="s">
-        <v>505</v>
+        <v>374</v>
       </c>
       <c r="E651">
         <v>30</v>
@@ -46466,7 +46466,7 @@
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B652" t="s">
         <v>541</v>
@@ -46498,16 +46498,16 @@
     </row>
     <row r="653" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B653" t="s">
         <v>541</v>
       </c>
       <c r="C653" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="D653" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="E653">
         <v>30</v>
@@ -46516,24 +46516,24 @@
         <v>5</v>
       </c>
       <c r="G653">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H653">
         <v>0</v>
       </c>
       <c r="I653">
-        <v>30590</v>
+        <v>30510</v>
       </c>
       <c r="J653" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B654" t="s">
-        <v>541</v>
+        <v>410</v>
       </c>
       <c r="C654" t="s">
         <v>339</v>
@@ -46542,10 +46542,10 @@
         <v>340</v>
       </c>
       <c r="E654">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="F654">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G654">
         <v>1</v>
@@ -46554,7 +46554,7 @@
         <v>0</v>
       </c>
       <c r="I654">
-        <v>30510</v>
+        <v>50210</v>
       </c>
       <c r="J654" t="s">
         <v>708</v>
@@ -46562,22 +46562,22 @@
     </row>
     <row r="655" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B655" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C655" t="s">
-        <v>339</v>
+        <v>455</v>
       </c>
       <c r="D655" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="E655">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F655">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G655">
         <v>1</v>
@@ -46586,48 +46586,48 @@
         <v>0</v>
       </c>
       <c r="I655">
-        <v>50210</v>
+        <f>VALUE(_xlfn.CONCAT(E655,F655,G655,H655))</f>
+        <v>20310</v>
       </c>
       <c r="J655" t="s">
-        <v>708</v>
+        <v>634</v>
       </c>
     </row>
     <row r="656" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B656" t="s">
-        <v>407</v>
+        <v>541</v>
       </c>
       <c r="C656" t="s">
-        <v>455</v>
+        <v>481</v>
       </c>
       <c r="D656" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="E656">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F656">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G656">
         <v>1</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656">
-        <f>VALUE(_xlfn.CONCAT(E656,F656,G656,H656))</f>
-        <v>20310</v>
+        <v>30512</v>
       </c>
       <c r="J656" t="s">
-        <v>634</v>
+        <v>708</v>
       </c>
     </row>
     <row r="657" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B657" t="s">
         <v>541</v>
@@ -46636,7 +46636,7 @@
         <v>481</v>
       </c>
       <c r="D657" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="E657">
         <v>30</v>
@@ -46645,30 +46645,31 @@
         <v>5</v>
       </c>
       <c r="G657">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657">
-        <v>30512</v>
+        <f>VALUE(_xlfn.CONCAT(E657,F657,G657,H657))</f>
+        <v>30590</v>
       </c>
       <c r="J657" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="658" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B658" t="s">
         <v>541</v>
       </c>
       <c r="C658" t="s">
-        <v>481</v>
+        <v>371</v>
       </c>
       <c r="D658" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E658">
         <v>30</v>
@@ -46677,22 +46678,21 @@
         <v>5</v>
       </c>
       <c r="G658">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H658">
         <v>0</v>
       </c>
       <c r="I658">
-        <f>VALUE(_xlfn.CONCAT(E658,F658,G658,H658))</f>
-        <v>30590</v>
+        <v>30520</v>
       </c>
       <c r="J658" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
     </row>
     <row r="659" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B659" t="s">
         <v>541</v>
@@ -46724,7 +46724,7 @@
     </row>
     <row r="660" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B660" t="s">
         <v>541</v>
@@ -46756,16 +46756,16 @@
     </row>
     <row r="661" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B661" t="s">
         <v>541</v>
       </c>
       <c r="C661" t="s">
-        <v>371</v>
+        <v>532</v>
       </c>
       <c r="D661" t="s">
-        <v>372</v>
+        <v>533</v>
       </c>
       <c r="E661">
         <v>30</v>
@@ -46777,27 +46777,27 @@
         <v>2</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I661">
-        <v>30520</v>
+        <v>30525</v>
       </c>
       <c r="J661" t="s">
-        <v>694</v>
+        <v>733</v>
       </c>
     </row>
     <row r="662" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B662" t="s">
         <v>541</v>
       </c>
       <c r="C662" t="s">
-        <v>532</v>
+        <v>369</v>
       </c>
       <c r="D662" t="s">
-        <v>533</v>
+        <v>504</v>
       </c>
       <c r="E662">
         <v>30</v>
@@ -46806,13 +46806,13 @@
         <v>5</v>
       </c>
       <c r="G662">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H662">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I662">
-        <v>30525</v>
+        <v>30530</v>
       </c>
       <c r="J662" t="s">
         <v>733</v>
@@ -46820,7 +46820,7 @@
     </row>
     <row r="663" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B663" t="s">
         <v>541</v>
@@ -46829,7 +46829,7 @@
         <v>369</v>
       </c>
       <c r="D663" t="s">
-        <v>504</v>
+        <v>370</v>
       </c>
       <c r="E663">
         <v>30</v>
@@ -46847,12 +46847,12 @@
         <v>30530</v>
       </c>
       <c r="J663" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="664" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B664" t="s">
         <v>541</v>
@@ -46884,16 +46884,16 @@
     </row>
     <row r="665" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B665" t="s">
         <v>541</v>
       </c>
       <c r="C665" t="s">
-        <v>369</v>
+        <v>506</v>
       </c>
       <c r="D665" t="s">
-        <v>370</v>
+        <v>507</v>
       </c>
       <c r="E665">
         <v>30</v>
@@ -46902,13 +46902,13 @@
         <v>5</v>
       </c>
       <c r="G665">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H665">
         <v>0</v>
       </c>
       <c r="I665">
-        <v>30530</v>
+        <v>30540</v>
       </c>
       <c r="J665" t="s">
         <v>727</v>
@@ -46919,36 +46919,36 @@
         <v>688</v>
       </c>
       <c r="B666" t="s">
-        <v>541</v>
+        <v>380</v>
       </c>
       <c r="C666" t="s">
-        <v>506</v>
+        <v>379</v>
       </c>
       <c r="D666" t="s">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="E666">
         <v>30</v>
       </c>
       <c r="F666">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G666">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H666">
         <v>0</v>
       </c>
       <c r="I666">
-        <v>30540</v>
+        <v>30690</v>
       </c>
       <c r="J666" t="s">
-        <v>727</v>
+        <v>662</v>
       </c>
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B667" t="s">
         <v>380</v>
@@ -46957,7 +46957,7 @@
         <v>379</v>
       </c>
       <c r="D667" t="s">
-        <v>516</v>
+        <v>380</v>
       </c>
       <c r="E667">
         <v>30</v>
@@ -46980,10 +46980,10 @@
     </row>
     <row r="668" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B668" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="C668" t="s">
         <v>379</v>
@@ -47012,16 +47012,16 @@
     </row>
     <row r="669" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B669" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="C669" t="s">
-        <v>379</v>
+        <v>508</v>
       </c>
       <c r="D669" t="s">
-        <v>380</v>
+        <v>509</v>
       </c>
       <c r="E669">
         <v>30</v>
@@ -47030,16 +47030,16 @@
         <v>6</v>
       </c>
       <c r="G669">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H669">
         <v>0</v>
       </c>
       <c r="I669">
-        <v>30690</v>
+        <v>30650</v>
       </c>
       <c r="J669" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
     </row>
     <row r="670" spans="1:10" x14ac:dyDescent="0.25">
@@ -47050,10 +47050,10 @@
         <v>380</v>
       </c>
       <c r="C670" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="D670" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="E670">
         <v>30</v>
@@ -47062,30 +47062,30 @@
         <v>6</v>
       </c>
       <c r="G670">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H670">
         <v>0</v>
       </c>
       <c r="I670">
-        <v>30650</v>
+        <v>30680</v>
       </c>
       <c r="J670" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="671" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B671" t="s">
         <v>380</v>
       </c>
       <c r="C671" t="s">
-        <v>514</v>
+        <v>375</v>
       </c>
       <c r="D671" t="s">
-        <v>515</v>
+        <v>376</v>
       </c>
       <c r="E671">
         <v>30</v>
@@ -47094,24 +47094,24 @@
         <v>6</v>
       </c>
       <c r="G671">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I671">
-        <v>30680</v>
+        <v>30611</v>
       </c>
       <c r="J671" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="672" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B672" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="C672" t="s">
         <v>375</v>
@@ -47140,16 +47140,16 @@
     </row>
     <row r="673" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B673" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="C673" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="D673" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="E673">
         <v>30</v>
@@ -47158,24 +47158,24 @@
         <v>6</v>
       </c>
       <c r="G673">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H673">
         <v>1</v>
       </c>
       <c r="I673">
-        <v>30611</v>
+        <v>30631</v>
       </c>
       <c r="J673" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="674" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B674" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="C674" t="s">
         <v>397</v>
@@ -47204,16 +47204,16 @@
     </row>
     <row r="675" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B675" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="C675" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D675" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E675">
         <v>30</v>
@@ -47222,24 +47222,24 @@
         <v>6</v>
       </c>
       <c r="G675">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H675">
         <v>1</v>
       </c>
       <c r="I675">
-        <v>30631</v>
+        <v>30641</v>
       </c>
       <c r="J675" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="676" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B676" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="C676" t="s">
         <v>399</v>
@@ -47268,16 +47268,16 @@
     </row>
     <row r="677" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B677" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="C677" t="s">
-        <v>399</v>
+        <v>377</v>
       </c>
       <c r="D677" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="E677">
         <v>30</v>
@@ -47286,24 +47286,24 @@
         <v>6</v>
       </c>
       <c r="G677">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H677">
         <v>1</v>
       </c>
       <c r="I677">
-        <v>30641</v>
+        <v>30621</v>
       </c>
       <c r="J677" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="678" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B678" t="s">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="C678" t="s">
         <v>377</v>
@@ -47332,16 +47332,16 @@
     </row>
     <row r="679" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B679" t="s">
-        <v>416</v>
+        <v>380</v>
       </c>
       <c r="C679" t="s">
-        <v>377</v>
+        <v>510</v>
       </c>
       <c r="D679" t="s">
-        <v>378</v>
+        <v>511</v>
       </c>
       <c r="E679">
         <v>30</v>
@@ -47350,16 +47350,16 @@
         <v>6</v>
       </c>
       <c r="G679">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H679">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I679">
-        <v>30621</v>
+        <v>30660</v>
       </c>
       <c r="J679" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
     </row>
     <row r="680" spans="1:10" x14ac:dyDescent="0.25">
@@ -47370,10 +47370,10 @@
         <v>380</v>
       </c>
       <c r="C680" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D680" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E680">
         <v>30</v>
@@ -47382,30 +47382,30 @@
         <v>6</v>
       </c>
       <c r="G680">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H680">
         <v>0</v>
       </c>
       <c r="I680">
-        <v>30660</v>
+        <v>30670</v>
       </c>
       <c r="J680" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="681" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B681" t="s">
         <v>380</v>
       </c>
       <c r="C681" t="s">
-        <v>512</v>
+        <v>539</v>
       </c>
       <c r="D681" t="s">
-        <v>513</v>
+        <v>540</v>
       </c>
       <c r="E681">
         <v>30</v>
@@ -47414,53 +47414,54 @@
         <v>6</v>
       </c>
       <c r="G681">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I681">
-        <v>30670</v>
+        <v>30699</v>
       </c>
       <c r="J681" t="s">
-        <v>703</v>
+        <v>716</v>
       </c>
     </row>
     <row r="682" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B682" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="C682" t="s">
-        <v>539</v>
+        <v>357</v>
       </c>
       <c r="D682" t="s">
-        <v>540</v>
+        <v>491</v>
       </c>
       <c r="E682">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F682">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G682">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H682">
         <v>9</v>
       </c>
       <c r="I682">
-        <v>30699</v>
+        <f>VALUE(_xlfn.CONCAT(E682,F682,G682,H682))</f>
+        <v>20079</v>
       </c>
       <c r="J682" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
     </row>
     <row r="683" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B683" t="s">
         <v>409</v>
@@ -47475,17 +47476,16 @@
         <v>20</v>
       </c>
       <c r="F683">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G683">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H683">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I683">
-        <f>VALUE(_xlfn.CONCAT(E683,F683,G683,H683))</f>
-        <v>20079</v>
+        <v>20790</v>
       </c>
       <c r="J683" t="s">
         <v>711</v>
@@ -47493,7 +47493,7 @@
     </row>
     <row r="684" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B684" t="s">
         <v>409</v>
@@ -47502,7 +47502,7 @@
         <v>357</v>
       </c>
       <c r="D684" t="s">
-        <v>491</v>
+        <v>358</v>
       </c>
       <c r="E684">
         <v>20</v>
@@ -47525,10 +47525,10 @@
     </row>
     <row r="685" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B685" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C685" t="s">
         <v>357</v>
@@ -47557,39 +47557,40 @@
     </row>
     <row r="686" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B686" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C686" t="s">
-        <v>357</v>
+        <v>483</v>
       </c>
       <c r="D686" t="s">
-        <v>358</v>
+        <v>484</v>
       </c>
       <c r="E686">
         <v>20</v>
       </c>
       <c r="F686">
+        <v>0</v>
+      </c>
+      <c r="G686">
         <v>7</v>
       </c>
-      <c r="G686">
-        <v>9</v>
-      </c>
       <c r="H686">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I686">
-        <v>20790</v>
+        <f>VALUE(_xlfn.CONCAT(E686,F686,G686,H686))</f>
+        <v>20074</v>
       </c>
       <c r="J686" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="687" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B687" t="s">
         <v>409</v>
@@ -47598,23 +47599,22 @@
         <v>483</v>
       </c>
       <c r="D687" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="E687">
         <v>20</v>
       </c>
       <c r="F687">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G687">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H687">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I687">
-        <f>VALUE(_xlfn.CONCAT(E687,F687,G687,H687))</f>
-        <v>20074</v>
+        <v>20740</v>
       </c>
       <c r="J687" t="s">
         <v>713</v>
@@ -47622,39 +47622,40 @@
     </row>
     <row r="688" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B688" t="s">
         <v>409</v>
       </c>
       <c r="C688" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D688" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="E688">
         <v>20</v>
       </c>
       <c r="F688">
+        <v>0</v>
+      </c>
+      <c r="G688">
         <v>7</v>
       </c>
-      <c r="G688">
-        <v>4</v>
-      </c>
       <c r="H688">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I688">
-        <v>20740</v>
+        <f>VALUE(_xlfn.CONCAT(E688,F688,G688,H688))</f>
+        <v>20077</v>
       </c>
       <c r="J688" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="689" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B689" t="s">
         <v>409</v>
@@ -47663,40 +47664,39 @@
         <v>489</v>
       </c>
       <c r="D689" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="E689">
         <v>20</v>
       </c>
       <c r="F689">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G689">
         <v>7</v>
       </c>
       <c r="H689">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I689">
-        <f>VALUE(_xlfn.CONCAT(E689,F689,G689,H689))</f>
-        <v>20077</v>
+        <v>20770</v>
       </c>
       <c r="J689" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="690" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B690" t="s">
         <v>409</v>
       </c>
       <c r="C690" t="s">
-        <v>489</v>
+        <v>349</v>
       </c>
       <c r="D690" t="s">
-        <v>498</v>
+        <v>350</v>
       </c>
       <c r="E690">
         <v>20</v>
@@ -47705,24 +47705,24 @@
         <v>7</v>
       </c>
       <c r="G690">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H690">
         <v>0</v>
       </c>
       <c r="I690">
-        <v>20770</v>
+        <v>20710</v>
       </c>
       <c r="J690" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="691" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B691" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C691" t="s">
         <v>349</v>
@@ -47751,16 +47751,16 @@
     </row>
     <row r="692" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B692" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C692" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D692" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E692">
         <v>20</v>
@@ -47769,24 +47769,24 @@
         <v>7</v>
       </c>
       <c r="G692">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H692">
         <v>0</v>
       </c>
       <c r="I692">
-        <v>20710</v>
+        <v>20720</v>
       </c>
       <c r="J692" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
     </row>
     <row r="693" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B693" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C693" t="s">
         <v>351</v>
@@ -47815,16 +47815,16 @@
     </row>
     <row r="694" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B694" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C694" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="D694" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E694">
         <v>20</v>
@@ -47833,24 +47833,24 @@
         <v>7</v>
       </c>
       <c r="G694">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H694">
         <v>0</v>
       </c>
       <c r="I694">
-        <v>20720</v>
+        <v>20730</v>
       </c>
       <c r="J694" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="695" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B695" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C695" t="s">
         <v>353</v>
@@ -47879,16 +47879,16 @@
     </row>
     <row r="696" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B696" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C696" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D696" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E696">
         <v>20</v>
@@ -47897,24 +47897,24 @@
         <v>7</v>
       </c>
       <c r="G696">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H696">
         <v>0</v>
       </c>
       <c r="I696">
-        <v>20730</v>
+        <v>20740</v>
       </c>
       <c r="J696" t="s">
-        <v>710</v>
+        <v>643</v>
       </c>
     </row>
     <row r="697" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B697" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C697" t="s">
         <v>355</v>
@@ -47943,39 +47943,40 @@
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B698" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C698" t="s">
-        <v>355</v>
+        <v>485</v>
       </c>
       <c r="D698" t="s">
-        <v>356</v>
+        <v>486</v>
       </c>
       <c r="E698">
         <v>20</v>
       </c>
       <c r="F698">
+        <v>0</v>
+      </c>
+      <c r="G698">
         <v>7</v>
       </c>
-      <c r="G698">
-        <v>4</v>
-      </c>
       <c r="H698">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I698">
-        <v>20740</v>
+        <f>VALUE(_xlfn.CONCAT(E698,F698,G698,H698))</f>
+        <v>20075</v>
       </c>
       <c r="J698" t="s">
-        <v>643</v>
+        <v>709</v>
       </c>
     </row>
     <row r="699" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B699" t="s">
         <v>409</v>
@@ -47984,23 +47985,22 @@
         <v>485</v>
       </c>
       <c r="D699" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="E699">
         <v>20</v>
       </c>
       <c r="F699">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G699">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H699">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I699">
-        <f>VALUE(_xlfn.CONCAT(E699,F699,G699,H699))</f>
-        <v>20075</v>
+        <v>20750</v>
       </c>
       <c r="J699" t="s">
         <v>709</v>
@@ -48008,39 +48008,40 @@
     </row>
     <row r="700" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B700" t="s">
         <v>409</v>
       </c>
       <c r="C700" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D700" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="E700">
         <v>20</v>
       </c>
       <c r="F700">
+        <v>0</v>
+      </c>
+      <c r="G700">
         <v>7</v>
       </c>
-      <c r="G700">
-        <v>5</v>
-      </c>
       <c r="H700">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I700">
-        <v>20750</v>
+        <f>VALUE(_xlfn.CONCAT(E700,F700,G700,H700))</f>
+        <v>20076</v>
       </c>
       <c r="J700" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="701" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B701" t="s">
         <v>409</v>
@@ -48049,23 +48050,22 @@
         <v>487</v>
       </c>
       <c r="D701" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="E701">
         <v>20</v>
       </c>
       <c r="F701">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G701">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H701">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I701">
-        <f>VALUE(_xlfn.CONCAT(E701,F701,G701,H701))</f>
-        <v>20076</v>
+        <v>20760</v>
       </c>
       <c r="J701" t="s">
         <v>710</v>
@@ -48073,39 +48073,39 @@
     </row>
     <row r="702" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B702" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C702" t="s">
-        <v>487</v>
+        <v>129</v>
       </c>
       <c r="D702" t="s">
-        <v>497</v>
+        <v>130</v>
       </c>
       <c r="E702">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F702">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G702">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="H702">
         <v>0</v>
       </c>
       <c r="I702">
-        <v>20760</v>
+        <v>10180</v>
       </c>
       <c r="J702" t="s">
-        <v>710</v>
+        <v>619</v>
       </c>
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B703" t="s">
         <v>405</v>
@@ -48137,16 +48137,16 @@
     </row>
     <row r="704" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B704" t="s">
         <v>405</v>
       </c>
       <c r="C704" t="s">
-        <v>129</v>
+        <v>494</v>
       </c>
       <c r="D704" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E704">
         <v>10</v>
@@ -48155,16 +48155,16 @@
         <v>1</v>
       </c>
       <c r="G704">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H704">
         <v>0</v>
       </c>
       <c r="I704">
-        <v>10180</v>
+        <v>10190</v>
       </c>
       <c r="J704" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="705" spans="1:10" x14ac:dyDescent="0.25">
@@ -48175,7 +48175,7 @@
         <v>405</v>
       </c>
       <c r="C705" t="s">
-        <v>494</v>
+        <v>131</v>
       </c>
       <c r="D705" t="s">
         <v>132</v>
@@ -48201,7 +48201,7 @@
     </row>
     <row r="706" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B706" t="s">
         <v>405</v>
@@ -48225,6 +48225,7 @@
         <v>0</v>
       </c>
       <c r="I706">
+        <f>VALUE(_xlfn.CONCAT(E706,F706,G706,H706))</f>
         <v>10190</v>
       </c>
       <c r="J706" t="s">
@@ -48233,7 +48234,7 @@
     </row>
     <row r="707" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B707" t="s">
         <v>405</v>
@@ -48257,7 +48258,6 @@
         <v>0</v>
       </c>
       <c r="I707">
-        <f>VALUE(_xlfn.CONCAT(E707,F707,G707,H707))</f>
         <v>10190</v>
       </c>
       <c r="J707" t="s">
@@ -48266,7 +48266,7 @@
     </row>
     <row r="708" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B708" t="s">
         <v>405</v>
@@ -48298,16 +48298,16 @@
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B709" t="s">
         <v>405</v>
       </c>
       <c r="C709" t="s">
-        <v>131</v>
+        <v>479</v>
       </c>
       <c r="D709" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E709">
         <v>10</v>
@@ -48319,18 +48319,18 @@
         <v>9</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I709">
-        <v>10190</v>
+        <v>10191</v>
       </c>
       <c r="J709" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B710" t="s">
         <v>405</v>
@@ -48354,6 +48354,7 @@
         <v>1</v>
       </c>
       <c r="I710">
+        <f>VALUE(_xlfn.CONCAT(E710,F710,G710,H710))</f>
         <v>10191</v>
       </c>
       <c r="J710" t="s">
@@ -48362,13 +48363,13 @@
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B711" t="s">
         <v>405</v>
       </c>
       <c r="C711" t="s">
-        <v>479</v>
+        <v>133</v>
       </c>
       <c r="D711" t="s">
         <v>134</v>
@@ -48386,7 +48387,6 @@
         <v>1</v>
       </c>
       <c r="I711">
-        <f>VALUE(_xlfn.CONCAT(E711,F711,G711,H711))</f>
         <v>10191</v>
       </c>
       <c r="J711" t="s">
@@ -48395,7 +48395,7 @@
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B712" t="s">
         <v>405</v>
@@ -48427,39 +48427,39 @@
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B713" t="s">
         <v>405</v>
       </c>
       <c r="C713" t="s">
-        <v>133</v>
+        <v>480</v>
       </c>
       <c r="D713" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E713">
         <v>10</v>
       </c>
       <c r="F713">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G713">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H713">
         <v>1</v>
       </c>
       <c r="I713">
-        <v>10191</v>
+        <v>10201</v>
       </c>
       <c r="J713" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B714" t="s">
         <v>405</v>
@@ -48483,6 +48483,7 @@
         <v>1</v>
       </c>
       <c r="I714">
+        <f>VALUE(_xlfn.CONCAT(E714,F714,G714,H714))</f>
         <v>10201</v>
       </c>
       <c r="J714" t="s">
@@ -48491,13 +48492,13 @@
     </row>
     <row r="715" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B715" t="s">
         <v>405</v>
       </c>
       <c r="C715" t="s">
-        <v>480</v>
+        <v>135</v>
       </c>
       <c r="D715" t="s">
         <v>136</v>
@@ -48515,7 +48516,6 @@
         <v>1</v>
       </c>
       <c r="I715">
-        <f>VALUE(_xlfn.CONCAT(E715,F715,G715,H715))</f>
         <v>10201</v>
       </c>
       <c r="J715" t="s">
@@ -48524,7 +48524,7 @@
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B716" t="s">
         <v>405</v>
@@ -48556,16 +48556,16 @@
     </row>
     <row r="717" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B717" t="s">
         <v>405</v>
       </c>
       <c r="C717" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D717" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E717">
         <v>10</v>
@@ -48577,18 +48577,19 @@
         <v>0</v>
       </c>
       <c r="H717">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I717">
-        <v>10201</v>
+        <f>VALUE(_xlfn.CONCAT(E717,F717,G717,H717))</f>
+        <v>10202</v>
       </c>
       <c r="J717" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="718" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B718" t="s">
         <v>405</v>
@@ -48606,14 +48607,13 @@
         <v>2</v>
       </c>
       <c r="G718">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I718">
-        <f>VALUE(_xlfn.CONCAT(E718,F718,G718,H718))</f>
-        <v>10202</v>
+        <v>10211</v>
       </c>
       <c r="J718" t="s">
         <v>623</v>
@@ -48621,7 +48621,7 @@
     </row>
     <row r="719" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B719" t="s">
         <v>405</v>
@@ -48653,7 +48653,7 @@
     </row>
     <row r="720" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B720" t="s">
         <v>405</v>
@@ -48685,16 +48685,16 @@
     </row>
     <row r="721" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B721" t="s">
         <v>405</v>
       </c>
       <c r="C721" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="D721" t="s">
-        <v>138</v>
+        <v>17</v>
       </c>
       <c r="E721">
         <v>10</v>
@@ -48703,21 +48703,21 @@
         <v>2</v>
       </c>
       <c r="G721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H721">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I721">
-        <v>10211</v>
+        <v>10190</v>
       </c>
       <c r="J721" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
     </row>
     <row r="722" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B722" t="s">
         <v>405</v>
@@ -48749,7 +48749,7 @@
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B723" t="s">
         <v>405</v>
@@ -48781,7 +48781,7 @@
     </row>
     <row r="724" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B724" t="s">
         <v>405</v>
@@ -48805,7 +48805,8 @@
         <v>0</v>
       </c>
       <c r="I724">
-        <v>10190</v>
+        <f>VALUE(_xlfn.CONCAT(E724,F724,G724,H724))</f>
+        <v>10200</v>
       </c>
       <c r="J724" t="s">
         <v>655</v>
@@ -48819,10 +48820,10 @@
         <v>405</v>
       </c>
       <c r="C725" t="s">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="D725" t="s">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="E725">
         <v>10</v>
@@ -48831,22 +48832,22 @@
         <v>2</v>
       </c>
       <c r="G725">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I725">
         <f>VALUE(_xlfn.CONCAT(E725,F725,G725,H725))</f>
-        <v>10200</v>
+        <v>10211</v>
       </c>
       <c r="J725" t="s">
-        <v>655</v>
+        <v>624</v>
       </c>
     </row>
     <row r="726" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B726" t="s">
         <v>405</v>
@@ -48867,11 +48868,10 @@
         <v>1</v>
       </c>
       <c r="H726">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I726">
-        <f>VALUE(_xlfn.CONCAT(E726,F726,G726,H726))</f>
-        <v>10211</v>
+        <v>10212</v>
       </c>
       <c r="J726" t="s">
         <v>624</v>
@@ -48879,7 +48879,7 @@
     </row>
     <row r="727" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B727" t="s">
         <v>405</v>
@@ -48911,7 +48911,7 @@
     </row>
     <row r="728" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B728" t="s">
         <v>405</v>
@@ -48943,16 +48943,16 @@
     </row>
     <row r="729" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B729" t="s">
         <v>405</v>
       </c>
       <c r="C729" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D729" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E729">
         <v>10</v>
@@ -48967,15 +48967,16 @@
         <v>2</v>
       </c>
       <c r="I729">
+        <f>VALUE(_xlfn.CONCAT(E729,F729,G729,H729))</f>
         <v>10212</v>
       </c>
       <c r="J729" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="730" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B730" t="s">
         <v>405</v>
@@ -48996,11 +48997,10 @@
         <v>1</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I730">
-        <f>VALUE(_xlfn.CONCAT(E730,F730,G730,H730))</f>
-        <v>10212</v>
+        <v>10213</v>
       </c>
       <c r="J730" t="s">
         <v>625</v>
@@ -49008,7 +49008,7 @@
     </row>
     <row r="731" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B731" t="s">
         <v>405</v>
@@ -49040,7 +49040,7 @@
     </row>
     <row r="732" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B732" t="s">
         <v>405</v>
@@ -49072,16 +49072,16 @@
     </row>
     <row r="733" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B733" t="s">
         <v>405</v>
       </c>
       <c r="C733" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D733" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E733">
         <v>10</v>
@@ -49096,15 +49096,16 @@
         <v>3</v>
       </c>
       <c r="I733">
+        <f>VALUE(_xlfn.CONCAT(E733,F733,G733,H733))</f>
         <v>10213</v>
       </c>
       <c r="J733" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="734" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B734" t="s">
         <v>405</v>
@@ -49122,14 +49123,13 @@
         <v>2</v>
       </c>
       <c r="G734">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H734">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I734">
-        <f>VALUE(_xlfn.CONCAT(E734,F734,G734,H734))</f>
-        <v>10213</v>
+        <v>10220</v>
       </c>
       <c r="J734" t="s">
         <v>626</v>
@@ -49137,7 +49137,7 @@
     </row>
     <row r="735" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B735" t="s">
         <v>405</v>
@@ -49169,7 +49169,7 @@
     </row>
     <row r="736" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B736" t="s">
         <v>405</v>
@@ -49204,16 +49204,16 @@
         <v>685</v>
       </c>
       <c r="B737" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C737" t="s">
-        <v>143</v>
+        <v>341</v>
       </c>
       <c r="D737" t="s">
-        <v>144</v>
+        <v>342</v>
       </c>
       <c r="E737">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="F737">
         <v>2</v>
@@ -49225,62 +49225,62 @@
         <v>0</v>
       </c>
       <c r="I737">
-        <v>10220</v>
+        <v>50220</v>
       </c>
       <c r="J737" t="s">
-        <v>626</v>
+        <v>676</v>
       </c>
     </row>
     <row r="738" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B738" t="s">
-        <v>410</v>
+        <v>528</v>
       </c>
       <c r="C738" t="s">
-        <v>341</v>
+        <v>359</v>
       </c>
       <c r="D738" t="s">
-        <v>342</v>
+        <v>493</v>
       </c>
       <c r="E738">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F738">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G738">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I738">
-        <v>50220</v>
+        <v>20891</v>
       </c>
       <c r="J738" t="s">
-        <v>676</v>
+        <v>645</v>
       </c>
     </row>
     <row r="739" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B739" t="s">
-        <v>528</v>
+        <v>414</v>
       </c>
       <c r="C739" t="s">
         <v>359</v>
       </c>
       <c r="D739" t="s">
-        <v>493</v>
+        <v>360</v>
       </c>
       <c r="E739">
         <v>20</v>
       </c>
       <c r="F739">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G739">
         <v>9</v>
@@ -49289,47 +49289,47 @@
         <v>1</v>
       </c>
       <c r="I739">
-        <v>20891</v>
+        <v>20991</v>
       </c>
       <c r="J739" t="s">
-        <v>645</v>
+        <v>669</v>
       </c>
     </row>
     <row r="740" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B740" t="s">
-        <v>414</v>
+        <v>528</v>
       </c>
       <c r="C740" t="s">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="D740" t="s">
-        <v>360</v>
+        <v>530</v>
       </c>
       <c r="E740">
         <v>20</v>
       </c>
       <c r="F740">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G740">
         <v>9</v>
       </c>
       <c r="H740">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I740">
-        <v>20991</v>
+        <v>20892</v>
       </c>
       <c r="J740" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B741" t="s">
         <v>528</v>
@@ -49338,13 +49338,13 @@
         <v>383</v>
       </c>
       <c r="D741" t="s">
-        <v>530</v>
+        <v>384</v>
       </c>
       <c r="E741">
         <v>20</v>
       </c>
       <c r="F741">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G741">
         <v>9</v>
@@ -49353,7 +49353,7 @@
         <v>2</v>
       </c>
       <c r="I741">
-        <v>20892</v>
+        <v>20992</v>
       </c>
       <c r="J741" t="s">
         <v>668</v>
@@ -49361,39 +49361,39 @@
     </row>
     <row r="742" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B742" t="s">
-        <v>528</v>
+        <v>405</v>
       </c>
       <c r="C742" t="s">
-        <v>383</v>
+        <v>145</v>
       </c>
       <c r="D742" t="s">
-        <v>384</v>
+        <v>146</v>
       </c>
       <c r="E742">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F742">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G742">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="H742">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742">
-        <v>20992</v>
+        <v>10230</v>
       </c>
       <c r="J742" t="s">
-        <v>668</v>
+        <v>627</v>
       </c>
     </row>
     <row r="743" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B743" t="s">
         <v>405</v>
@@ -49417,6 +49417,7 @@
         <v>0</v>
       </c>
       <c r="I743">
+        <f>VALUE(_xlfn.CONCAT(E743,F743,G743,H743))</f>
         <v>10230</v>
       </c>
       <c r="J743" t="s">
@@ -49425,7 +49426,7 @@
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B744" t="s">
         <v>405</v>
@@ -49449,7 +49450,6 @@
         <v>0</v>
       </c>
       <c r="I744">
-        <f>VALUE(_xlfn.CONCAT(E744,F744,G744,H744))</f>
         <v>10230</v>
       </c>
       <c r="J744" t="s">
@@ -49458,7 +49458,7 @@
     </row>
     <row r="745" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B745" t="s">
         <v>405</v>
@@ -49490,39 +49490,39 @@
     </row>
     <row r="746" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B746" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="C746" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="D746" t="s">
-        <v>146</v>
+        <v>534</v>
       </c>
       <c r="E746">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F746">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G746">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746">
-        <v>10230</v>
+        <v>30982</v>
       </c>
       <c r="J746" t="s">
-        <v>627</v>
+        <v>706</v>
       </c>
     </row>
     <row r="747" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B747" t="s">
         <v>420</v>
@@ -49531,7 +49531,7 @@
         <v>317</v>
       </c>
       <c r="D747" t="s">
-        <v>534</v>
+        <v>318</v>
       </c>
       <c r="E747">
         <v>30</v>
@@ -49554,16 +49554,16 @@
     </row>
     <row r="748" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B748" t="s">
         <v>420</v>
       </c>
       <c r="C748" t="s">
-        <v>317</v>
+        <v>517</v>
       </c>
       <c r="D748" t="s">
-        <v>318</v>
+        <v>518</v>
       </c>
       <c r="E748">
         <v>30</v>
@@ -49572,56 +49572,56 @@
         <v>9</v>
       </c>
       <c r="G748">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H748">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748">
-        <v>30982</v>
+        <v>30990</v>
       </c>
       <c r="J748" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B749" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="C749" t="s">
-        <v>517</v>
+        <v>395</v>
       </c>
       <c r="D749" t="s">
-        <v>518</v>
+        <v>396</v>
       </c>
       <c r="E749">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F749">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G749">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H749">
         <v>0</v>
       </c>
       <c r="I749">
-        <v>30990</v>
+        <v>20010</v>
       </c>
       <c r="J749" t="s">
-        <v>721</v>
+        <v>660</v>
       </c>
     </row>
     <row r="750" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B750" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="C750" t="s">
         <v>395</v>
@@ -49636,13 +49636,13 @@
         <v>0</v>
       </c>
       <c r="G750">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I750">
-        <v>20010</v>
+        <v>20089</v>
       </c>
       <c r="J750" t="s">
         <v>660</v>
@@ -49656,10 +49656,10 @@
         <v>404</v>
       </c>
       <c r="C751" t="s">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="D751" t="s">
-        <v>396</v>
+        <v>310</v>
       </c>
       <c r="E751">
         <v>20</v>
@@ -49668,121 +49668,121 @@
         <v>0</v>
       </c>
       <c r="G751">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H751">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I751">
-        <v>20089</v>
+        <v>20090</v>
       </c>
       <c r="J751" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
     </row>
     <row r="752" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B752" t="s">
-        <v>404</v>
+        <v>545</v>
       </c>
       <c r="C752" t="s">
-        <v>309</v>
+        <v>525</v>
       </c>
       <c r="D752" t="s">
-        <v>310</v>
+        <v>526</v>
       </c>
       <c r="E752">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="F752">
         <v>0</v>
       </c>
       <c r="G752">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H752">
         <v>0</v>
       </c>
       <c r="I752">
-        <v>20090</v>
+        <v>90000</v>
       </c>
       <c r="J752" t="s">
-        <v>646</v>
+        <v>690</v>
       </c>
     </row>
     <row r="753" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B753" t="s">
-        <v>545</v>
+        <v>411</v>
       </c>
       <c r="C753" t="s">
-        <v>525</v>
+        <v>441</v>
       </c>
       <c r="D753" t="s">
-        <v>526</v>
+        <v>310</v>
       </c>
       <c r="E753">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="F753">
         <v>0</v>
       </c>
       <c r="G753">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H753">
         <v>0</v>
       </c>
       <c r="I753">
-        <v>90000</v>
+        <f>VALUE(_xlfn.CONCAT(E753,F753,G753,H753))</f>
+        <v>20010</v>
       </c>
       <c r="J753" t="s">
-        <v>690</v>
+        <v>646</v>
       </c>
     </row>
     <row r="754" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B754" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="C754" t="s">
-        <v>441</v>
+        <v>149</v>
       </c>
       <c r="D754" t="s">
-        <v>310</v>
+        <v>150</v>
       </c>
       <c r="E754">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F754">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G754">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H754">
         <v>0</v>
       </c>
       <c r="I754">
-        <f>VALUE(_xlfn.CONCAT(E754,F754,G754,H754))</f>
-        <v>20010</v>
+        <v>10300</v>
       </c>
       <c r="J754" t="s">
-        <v>646</v>
+        <v>629</v>
       </c>
     </row>
     <row r="755" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B755" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C755" t="s">
         <v>149</v>
@@ -49803,6 +49803,7 @@
         <v>0</v>
       </c>
       <c r="I755">
+        <f>VALUE(_xlfn.CONCAT(E755,F755,G755,H755))</f>
         <v>10300</v>
       </c>
       <c r="J755" t="s">
@@ -49811,10 +49812,10 @@
     </row>
     <row r="756" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B756" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C756" t="s">
         <v>149</v>
@@ -49835,7 +49836,6 @@
         <v>0</v>
       </c>
       <c r="I756">
-        <f>VALUE(_xlfn.CONCAT(E756,F756,G756,H756))</f>
         <v>10300</v>
       </c>
       <c r="J756" t="s">
@@ -49844,7 +49844,7 @@
     </row>
     <row r="757" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B757" t="s">
         <v>405</v>
@@ -49876,34 +49876,34 @@
     </row>
     <row r="758" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B758" t="s">
-        <v>405</v>
+        <v>528</v>
       </c>
       <c r="C758" t="s">
-        <v>149</v>
+        <v>527</v>
       </c>
       <c r="D758" t="s">
-        <v>150</v>
+        <v>528</v>
       </c>
       <c r="E758">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="F758">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G758">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758">
-        <v>10300</v>
+        <v>30892</v>
       </c>
       <c r="J758" t="s">
-        <v>629</v>
+        <v>722</v>
       </c>
     </row>
     <row r="759" spans="1:10" x14ac:dyDescent="0.25">
@@ -49914,33 +49914,33 @@
         <v>528</v>
       </c>
       <c r="C759" t="s">
-        <v>527</v>
+        <v>492</v>
       </c>
       <c r="D759" t="s">
-        <v>528</v>
+        <v>493</v>
       </c>
       <c r="E759">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F759">
         <v>8</v>
       </c>
       <c r="G759">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H759">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759">
-        <v>30892</v>
+        <v>20800</v>
       </c>
       <c r="J759" t="s">
-        <v>722</v>
+        <v>645</v>
       </c>
     </row>
     <row r="760" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B760" t="s">
         <v>528</v>
@@ -49952,19 +49952,20 @@
         <v>493</v>
       </c>
       <c r="E760">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F760">
         <v>8</v>
       </c>
       <c r="G760">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I760">
-        <v>20800</v>
+        <f>VALUE(_xlfn.CONCAT(E760,F760,G760,H760))</f>
+        <v>30891</v>
       </c>
       <c r="J760" t="s">
         <v>645</v>
@@ -49972,72 +49973,71 @@
     </row>
     <row r="761" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B761" t="s">
         <v>528</v>
       </c>
       <c r="C761" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D761" t="s">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="E761">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F761">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G761">
         <v>9</v>
       </c>
       <c r="H761">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I761">
-        <f>VALUE(_xlfn.CONCAT(E761,F761,G761,H761))</f>
-        <v>30891</v>
+        <v>20992</v>
       </c>
       <c r="J761" t="s">
-        <v>645</v>
+        <v>668</v>
       </c>
     </row>
     <row r="762" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B762" t="s">
-        <v>528</v>
+        <v>482</v>
       </c>
       <c r="C762" t="s">
-        <v>500</v>
+        <v>385</v>
       </c>
       <c r="D762" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E762">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F762">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G762">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H762">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762">
-        <v>20992</v>
+        <v>30820</v>
       </c>
       <c r="J762" t="s">
-        <v>668</v>
+        <v>724</v>
       </c>
     </row>
     <row r="763" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="B763" t="s">
         <v>482</v>
@@ -50046,7 +50046,7 @@
         <v>385</v>
       </c>
       <c r="D763" t="s">
-        <v>386</v>
+        <v>482</v>
       </c>
       <c r="E763">
         <v>30</v>
@@ -50055,21 +50055,21 @@
         <v>8</v>
       </c>
       <c r="G763">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H763">
         <v>0</v>
       </c>
       <c r="I763">
-        <v>30820</v>
+        <v>30890</v>
       </c>
       <c r="J763" t="s">
-        <v>724</v>
+        <v>657</v>
       </c>
     </row>
     <row r="764" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B764" t="s">
         <v>482</v>
@@ -50101,7 +50101,7 @@
     </row>
     <row r="765" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B765" t="s">
         <v>482</v>
@@ -50110,7 +50110,7 @@
         <v>385</v>
       </c>
       <c r="D765" t="s">
-        <v>482</v>
+        <v>386</v>
       </c>
       <c r="E765">
         <v>30</v>
@@ -50122,24 +50122,24 @@
         <v>9</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765">
-        <v>30890</v>
+        <v>30892</v>
       </c>
       <c r="J765" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
     </row>
     <row r="766" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B766" t="s">
         <v>482</v>
       </c>
       <c r="C766" t="s">
-        <v>385</v>
+        <v>529</v>
       </c>
       <c r="D766" t="s">
         <v>386</v>
@@ -50165,16 +50165,16 @@
     </row>
     <row r="767" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B767" t="s">
         <v>482</v>
       </c>
       <c r="C767" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="D767" t="s">
-        <v>386</v>
+        <v>537</v>
       </c>
       <c r="E767">
         <v>30</v>
@@ -50186,50 +50186,50 @@
         <v>9</v>
       </c>
       <c r="H767">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I767">
-        <v>30892</v>
+        <v>30891</v>
       </c>
       <c r="J767" t="s">
-        <v>691</v>
+        <v>723</v>
       </c>
     </row>
     <row r="768" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B768" t="s">
-        <v>482</v>
+        <v>405</v>
       </c>
       <c r="C768" t="s">
-        <v>536</v>
+        <v>147</v>
       </c>
       <c r="D768" t="s">
-        <v>537</v>
+        <v>148</v>
       </c>
       <c r="E768">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F768">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G768">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H768">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I768">
-        <v>30891</v>
+        <v>10240</v>
       </c>
       <c r="J768" t="s">
-        <v>723</v>
+        <v>628</v>
       </c>
     </row>
     <row r="769" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="B769" t="s">
         <v>405</v>
@@ -50253,6 +50253,7 @@
         <v>0</v>
       </c>
       <c r="I769">
+        <f>VALUE(_xlfn.CONCAT(E769,F769,G769,H769))</f>
         <v>10240</v>
       </c>
       <c r="J769" t="s">
@@ -50261,7 +50262,7 @@
     </row>
     <row r="770" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B770" t="s">
         <v>405</v>
@@ -50285,7 +50286,6 @@
         <v>0</v>
       </c>
       <c r="I770">
-        <f>VALUE(_xlfn.CONCAT(E770,F770,G770,H770))</f>
         <v>10240</v>
       </c>
       <c r="J770" t="s">
@@ -50294,7 +50294,7 @@
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B771" t="s">
         <v>405</v>
@@ -50329,19 +50329,19 @@
         <v>685</v>
       </c>
       <c r="B772" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="C772" t="s">
-        <v>147</v>
+        <v>393</v>
       </c>
       <c r="D772" t="s">
-        <v>148</v>
+        <v>394</v>
       </c>
       <c r="E772">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F772">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G772">
         <v>4</v>
@@ -50350,48 +50350,16 @@
         <v>0</v>
       </c>
       <c r="I772">
-        <v>10240</v>
+        <v>20840</v>
       </c>
       <c r="J772" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A773" t="s">
-        <v>685</v>
-      </c>
-      <c r="B773" t="s">
-        <v>410</v>
-      </c>
-      <c r="C773" t="s">
-        <v>393</v>
-      </c>
-      <c r="D773" t="s">
-        <v>394</v>
-      </c>
-      <c r="E773">
-        <v>20</v>
-      </c>
-      <c r="F773">
-        <v>8</v>
-      </c>
-      <c r="G773">
-        <v>4</v>
-      </c>
-      <c r="H773">
-        <v>0</v>
-      </c>
-      <c r="I773">
-        <v>20840</v>
-      </c>
-      <c r="J773" t="s">
         <v>725</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J773">
-    <sortCondition ref="C2:C773"/>
-    <sortCondition ref="I2:I773"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J772">
+    <sortCondition ref="C2:C772"/>
+    <sortCondition ref="I2:I772"/>
   </sortState>
   <conditionalFormatting sqref="I423:I424">
     <cfRule type="iconSet" priority="3">
